--- a/financial_models/Opportunities/0303.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0303.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE0CE738-9D41-40F9-BE93-4C1886EF1038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79A464BF-D666-4EEE-8E1B-BB535400A4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -4541,7 +4541,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>44.45</v>
+        <v>45.95</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4591,7 +4591,7 @@
       <c r="H6" s="133"/>
       <c r="I6" s="423">
         <f>I4*I5/1000000</f>
-        <v>11232.6039</v>
+        <v>11611.6569</v>
       </c>
       <c r="J6" s="424"/>
       <c r="K6" s="151"/>
@@ -4602,11 +4602,11 @@
       </c>
       <c r="C7" s="145">
         <f>(Data!C39*Exchange_Rate)/I4</f>
-        <v>0.16045645662213842</v>
+        <v>0.15526188833916355</v>
       </c>
       <c r="D7" s="145">
         <f>(Data!C40*Exchange_Rate)/I4</f>
-        <v>1.1176766678076687E-3</v>
+        <v>1.0814933449832898E-3</v>
       </c>
       <c r="E7" s="153"/>
       <c r="F7" s="6"/>
@@ -4633,11 +4633,11 @@
       </c>
       <c r="I9" s="121">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>8.2891778959307683</v>
+        <v>8.5665073877380475</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>0.12063922533149023</v>
+        <v>0.11673368792413381</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4656,11 +4656,11 @@
       </c>
       <c r="I10" s="138">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>2.1089290256736057</v>
+        <v>2.1794870740459054</v>
       </c>
       <c r="J10" s="130">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>74.378227443302336</v>
+        <v>76.852060042421272</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="H12" s="133"/>
       <c r="I12" s="135">
-        <v>7.8465120610971395</v>
+        <v>7.8487060384870606</v>
       </c>
       <c r="J12" s="136" t="str">
         <f>IF(I11=Dashboard!J4,J4,I11&amp;"/"&amp;Dashboard!J4)</f>
@@ -4714,21 +4714,21 @@
       </c>
       <c r="D14" s="184">
         <f ca="1">MIN('FCFF Model'!C29,'FCFF Model'!E29)</f>
-        <v>21.384889342882879</v>
+        <v>21.390868810363322</v>
       </c>
       <c r="E14" s="127" t="s">
         <v>234</v>
       </c>
       <c r="F14" s="184">
         <f ca="1">MAX('FCFF Model'!C29,'FCFF Model'!E29)</f>
-        <v>38.125336811342052</v>
+        <v>38.135997105533392</v>
       </c>
       <c r="G14" s="185" t="s">
         <v>24</v>
       </c>
       <c r="H14" s="193">
         <f ca="1">IF('FCFF Model'!C32&lt;0, "Error", 'FCFF Model'!C32)</f>
-        <v>31.49278860642778</v>
+        <v>31.501594361852618</v>
       </c>
       <c r="I14" s="133"/>
       <c r="J14" s="133"/>
@@ -4759,42 +4759,42 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="131">
         <f>I4</f>
-        <v>44.45</v>
+        <v>45.95</v>
       </c>
       <c r="C16" s="369">
         <v>0.1</v>
       </c>
       <c r="D16" s="159">
         <f ca="1">H14/B16-1-C16</f>
-        <v>-0.39150081875303089</v>
+        <v>-0.41443755469308774</v>
       </c>
       <c r="E16" s="366">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
-        <v>3.6878606687156554</v>
+        <v>3.6888918380889182</v>
       </c>
       <c r="F16" s="161">
         <f>E16/B16</f>
-        <v>8.2966494234322952E-2</v>
+        <v>8.0280562308790382E-2</v>
       </c>
       <c r="G16" s="394" t="s">
         <v>25</v>
       </c>
       <c r="H16" s="425">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
-        <v>-5.1506494633789739</v>
+        <v>-5.1520896457655008</v>
       </c>
       <c r="I16" s="394" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="206">
         <f>B16-$H$16</f>
-        <v>49.600649463378979</v>
+        <v>51.102089645765503</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="290">
         <f ca="1">H14/(1+C16)</f>
-        <v>28.629807824025253</v>
+        <v>28.63781305622965</v>
       </c>
       <c r="C17" s="370"/>
       <c r="D17" s="289">
@@ -4811,13 +4811,13 @@
       <c r="I17" s="395"/>
       <c r="J17" s="205">
         <f ca="1">B17-$H$16</f>
-        <v>33.780457287404225</v>
+        <v>33.789902701995153</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="358">
         <f ca="1">C35</f>
-        <v>28.629807824025253</v>
+        <v>28.63781305622965</v>
       </c>
       <c r="C18" s="371"/>
       <c r="D18" s="160">
@@ -4834,7 +4834,7 @@
       <c r="I18" s="396"/>
       <c r="J18" s="207">
         <f ca="1">B18-$H$16</f>
-        <v>33.780457287404225</v>
+        <v>33.789902701995153</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -4937,7 +4937,7 @@
       </c>
       <c r="J25" s="357">
         <f ca="1">H14/(H25+C16+1)</f>
-        <v>25.194230885142225</v>
+        <v>25.201275489482093</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4964,7 +4964,7 @@
       </c>
       <c r="C27" s="365">
         <f ca="1">C31/D25</f>
-        <v>0.14314903912012625</v>
+        <v>0.14318906528114825</v>
       </c>
       <c r="D27" s="364"/>
       <c r="E27" s="363">
@@ -4979,7 +4979,7 @@
       <c r="H27" s="399"/>
       <c r="I27" s="397">
         <f ca="1">C27+E27+G27</f>
-        <v>0.14314903912012625</v>
+        <v>0.14318906528114825</v>
       </c>
       <c r="J27" s="397"/>
     </row>
@@ -5007,7 +5007,7 @@
       </c>
       <c r="C29" s="372">
         <f ca="1">B17</f>
-        <v>28.629807824025253</v>
+        <v>28.63781305622965</v>
       </c>
       <c r="D29" s="373"/>
       <c r="E29" s="372"/>
@@ -5023,7 +5023,7 @@
       </c>
       <c r="C30" s="385">
         <f ca="1">C29*$I$5/1000000</f>
-        <v>7234.8096967468291</v>
+        <v>7236.8326349353447</v>
       </c>
       <c r="D30" s="386"/>
       <c r="E30" s="385">
@@ -5045,7 +5045,7 @@
       </c>
       <c r="C31" s="387">
         <f ca="1">C28*C29</f>
-        <v>85889.423472075752</v>
+        <v>85913.439168688943</v>
       </c>
       <c r="D31" s="388"/>
       <c r="E31" s="389">
@@ -5060,7 +5060,7 @@
       <c r="H31" s="410"/>
       <c r="I31" s="389">
         <f ca="1">C31+E31+G31</f>
-        <v>85889.423472075752</v>
+        <v>85913.439168688943</v>
       </c>
       <c r="J31" s="389"/>
     </row>
@@ -5072,14 +5072,14 @@
       <c r="D32" s="382"/>
       <c r="E32" s="391">
         <f ca="1">IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
-        <v>28.629807824025249</v>
+        <v>28.637813056229646</v>
       </c>
       <c r="F32" s="364"/>
       <c r="G32" s="117"/>
       <c r="H32" s="117"/>
       <c r="I32" s="391">
         <f ca="1">IF(I31=0,"",I31/I28)</f>
-        <v>28.629807824025249</v>
+        <v>28.637813056229646</v>
       </c>
       <c r="J32" s="391"/>
     </row>
@@ -5091,14 +5091,14 @@
       <c r="D33" s="384"/>
       <c r="E33" s="385">
         <f ca="1">IF(E32="-","-",E32*$I$5/1000000)</f>
-        <v>7234.8096967468291</v>
+        <v>7236.8326349353438</v>
       </c>
       <c r="F33" s="386"/>
       <c r="G33" s="118"/>
       <c r="H33" s="118"/>
       <c r="I33" s="385">
         <f ca="1">IF(I32="","",I32*$I$5/1000000)</f>
-        <v>7234.8096967468291</v>
+        <v>7236.8326349353438</v>
       </c>
       <c r="J33" s="385"/>
     </row>
@@ -5109,7 +5109,7 @@
       </c>
       <c r="C35" s="377">
         <f ca="1">C29</f>
-        <v>28.629807824025253</v>
+        <v>28.63781305622965</v>
       </c>
       <c r="D35" s="378"/>
       <c r="G35" s="379" t="s">
@@ -5118,7 +5118,7 @@
       <c r="H35" s="380"/>
       <c r="I35" s="377">
         <f ca="1">'FCFF Model'!C33</f>
-        <v>44.056787530908295</v>
+        <v>44.069106328733717</v>
       </c>
       <c r="J35" s="378"/>
     </row>
@@ -9435,7 +9435,7 @@
       </c>
       <c r="I4" s="91">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
-        <v>18.170726223591608</v>
+        <v>18.175806973124981</v>
       </c>
       <c r="K4" s="74"/>
     </row>
@@ -9478,7 +9478,7 @@
       </c>
       <c r="D7" s="61">
         <f>MAX((D6*Dashboard!I12*Data!C4)/Dashboard!I5, 0)</f>
-        <v>1.4839012409867445</v>
+        <v>1.484316157289205</v>
       </c>
       <c r="E7" s="49" t="str">
         <f>Dashboard!J4</f>
@@ -10484,7 +10484,7 @@
       <c r="C60" s="6"/>
       <c r="D60" s="442">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>11396603.9</v>
+        <v>11775656.9</v>
       </c>
       <c r="E60" s="443"/>
       <c r="F60" s="6"/>
@@ -12840,7 +12840,7 @@
       </c>
       <c r="C29" s="252">
         <f ca="1">MIN(Asset_Model!D7,G25*Exchange_Rate)+(ABS(Asset_Model!D7-G25*Exchange_Rate)*'Qualitative Analysis'!E8)</f>
-        <v>21.384889342882879</v>
+        <v>21.390868810363322</v>
       </c>
       <c r="D29" s="23" t="str">
         <f ca="1">IF(C29&lt;E29,"&lt;",IF(C29=E29,"=","&gt;"))</f>
@@ -12848,7 +12848,7 @@
       </c>
       <c r="E29" s="251">
         <f ca="1">G26*Exchange_Rate</f>
-        <v>38.125336811342052</v>
+        <v>38.135997105533392</v>
       </c>
       <c r="F29" s="30"/>
       <c r="H29" s="6"/>
@@ -12884,7 +12884,7 @@
       </c>
       <c r="C32" s="253">
         <f ca="1">MIN(C29,E29)+ABS(C29-E29)*'Qualitative Analysis'!$E$64</f>
-        <v>31.49278860642778</v>
+        <v>31.501594361852618</v>
       </c>
       <c r="D32" s="119" t="str">
         <f>Dashboard!J4</f>
@@ -12892,11 +12892,11 @@
       </c>
       <c r="E32" s="120">
         <f ca="1">(C32-G19)/C9</f>
-        <v>86.381854603291245</v>
+        <v>86.405514823590835</v>
       </c>
       <c r="F32" s="158">
         <f ca="1">C32/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>1.4941744879977179</v>
+        <v>1.4941744879977181</v>
       </c>
       <c r="G32" s="87"/>
       <c r="H32" s="6"/>
@@ -12908,7 +12908,7 @@
       </c>
       <c r="C33" s="254">
         <f ca="1">MAX(Asset_Model!D7,(G12/(1+G33)^G4+F25+G19)*Exchange_Rate)</f>
-        <v>44.056787530908295</v>
+        <v>44.069106328733717</v>
       </c>
       <c r="D33" s="208" t="str">
         <f>D32</f>
@@ -12916,11 +12916,11 @@
       </c>
       <c r="E33" s="120">
         <f ca="1">(C33-G19)/C9</f>
-        <v>120.14011474739381</v>
+        <v>120.17321417570105</v>
       </c>
       <c r="F33" s="158">
         <f ca="1">C33/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>2.0902730709081547</v>
+        <v>2.0902730709081552</v>
       </c>
       <c r="G33" s="281">
         <f>Dashboard!D10+4.5%</f>

--- a/financial_models/Opportunities/0303.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0303.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79A464BF-D666-4EEE-8E1B-BB535400A4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1484BA8B-AC63-454E-9B70-A00311B06D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="333">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1159,6 +1159,9 @@
   </si>
   <si>
     <t>Book Cash Ratio</t>
+  </si>
+  <si>
+    <t>Expected Upside</t>
   </si>
 </sst>
 </file>
@@ -2929,7 +2932,7 @@
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="451">
+  <cellXfs count="452">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3837,7 +3840,139 @@
     <xf numFmtId="184" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3872,10 +4007,6 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3885,10 +4016,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3899,135 +4026,11 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4069,6 +4072,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4470,8 +4476,8 @@
   </sheetPr>
   <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30:H30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36:J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4515,33 +4521,33 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="411" t="s">
+      <c r="C3" s="364" t="s">
         <v>311</v>
       </c>
-      <c r="D3" s="412"/>
+      <c r="D3" s="365"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="421" t="s">
+      <c r="I3" s="376" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="422"/>
+      <c r="J3" s="377"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="413" t="s">
+      <c r="C4" s="366" t="s">
         <v>312</v>
       </c>
-      <c r="D4" s="414"/>
+      <c r="D4" s="367"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>45.95</v>
+        <v>45.7</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4552,10 +4558,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="415">
+      <c r="C5" s="368">
         <v>44986</v>
       </c>
-      <c r="D5" s="414"/>
+      <c r="D5" s="367"/>
       <c r="E5" s="122" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v>Patience Premium</v>
@@ -4563,10 +4569,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="404">
+      <c r="I5" s="378">
         <v>252702000</v>
       </c>
-      <c r="J5" s="405"/>
+      <c r="J5" s="379"/>
       <c r="K5" s="151"/>
       <c r="L5" s="85"/>
     </row>
@@ -4589,11 +4595,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="133"/>
-      <c r="I6" s="423">
+      <c r="I6" s="380">
         <f>I4*I5/1000000</f>
-        <v>11611.6569</v>
-      </c>
-      <c r="J6" s="424"/>
+        <v>11548.481400000001</v>
+      </c>
+      <c r="J6" s="381"/>
       <c r="K6" s="151"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4602,11 +4608,11 @@
       </c>
       <c r="C7" s="145">
         <f>(Data!C39*Exchange_Rate)/I4</f>
-        <v>0.15526188833916355</v>
+        <v>0.15613033231601253</v>
       </c>
       <c r="D7" s="145">
         <f>(Data!C40*Exchange_Rate)/I4</f>
-        <v>1.0814933449832898E-3</v>
+        <v>1.0875425847001307E-3</v>
       </c>
       <c r="E7" s="153"/>
       <c r="F7" s="6"/>
@@ -4633,11 +4639,11 @@
       </c>
       <c r="I9" s="121">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>8.5665073877380475</v>
+        <v>8.5188578911081674</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>0.11673368792413381</v>
+        <v>0.11738662773607038</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4656,47 +4662,47 @@
       </c>
       <c r="I10" s="138">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>2.1794870740459054</v>
+        <v>2.1673641098915448</v>
       </c>
       <c r="J10" s="130">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>76.852060042421272</v>
+        <v>76.439754609234782</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="313" t="s">
         <v>278</v>
       </c>
-      <c r="C11" s="432">
+      <c r="C11" s="392">
         <f ca="1">C12-D10</f>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="D11" s="433"/>
+      <c r="D11" s="393"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="430" t="s">
+      <c r="I11" s="390" t="s">
         <v>313</v>
       </c>
-      <c r="J11" s="431"/>
+      <c r="J11" s="391"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="314" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="361">
+      <c r="C12" s="411">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="D12" s="362"/>
+      <c r="D12" s="412"/>
       <c r="G12" s="134" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="133"/>
       <c r="I12" s="135">
-        <v>7.8487060384870606</v>
+        <v>7.8496658194483659</v>
       </c>
       <c r="J12" s="136" t="str">
         <f>IF(I11=Dashboard!J4,J4,I11&amp;"/"&amp;Dashboard!J4)</f>
@@ -4714,21 +4720,21 @@
       </c>
       <c r="D14" s="184">
         <f ca="1">MIN('FCFF Model'!C29,'FCFF Model'!E29)</f>
-        <v>21.390868810363322</v>
+        <v>21.393484598052311</v>
       </c>
       <c r="E14" s="127" t="s">
         <v>234</v>
       </c>
       <c r="F14" s="184">
         <f ca="1">MAX('FCFF Model'!C29,'FCFF Model'!E29)</f>
-        <v>38.135997105533392</v>
+        <v>38.140660575382157</v>
       </c>
       <c r="G14" s="185" t="s">
         <v>24</v>
       </c>
       <c r="H14" s="193">
         <f ca="1">IF('FCFF Model'!C32&lt;0, "Error", 'FCFF Model'!C32)</f>
-        <v>31.501594361852618</v>
+        <v>31.505446542119149</v>
       </c>
       <c r="I14" s="133"/>
       <c r="J14" s="133"/>
@@ -4759,82 +4765,82 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="131">
         <f>I4</f>
-        <v>45.95</v>
-      </c>
-      <c r="C16" s="369">
+        <v>45.7</v>
+      </c>
+      <c r="C16" s="419">
         <v>0.1</v>
       </c>
       <c r="D16" s="159">
         <f ca="1">H14/B16-1-C16</f>
-        <v>-0.41443755469308774</v>
-      </c>
-      <c r="E16" s="366">
+        <v>-0.41060292030373857</v>
+      </c>
+      <c r="E16" s="416">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
-        <v>3.6888918380889182</v>
+        <v>3.6893429351407319</v>
       </c>
       <c r="F16" s="161">
         <f>E16/B16</f>
-        <v>8.0280562308790382E-2</v>
-      </c>
-      <c r="G16" s="394" t="s">
+        <v>8.0729604707674651E-2</v>
+      </c>
+      <c r="G16" s="385" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="425">
+      <c r="H16" s="382">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
-        <v>-5.1520896457655008</v>
-      </c>
-      <c r="I16" s="394" t="s">
+        <v>-5.1527196703235232</v>
+      </c>
+      <c r="I16" s="385" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="206">
         <f>B16-$H$16</f>
-        <v>51.102089645765503</v>
+        <v>50.852719670323523</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="290">
         <f ca="1">H14/(1+C16)</f>
-        <v>28.63781305622965</v>
-      </c>
-      <c r="C17" s="370"/>
+        <v>28.641315038290134</v>
+      </c>
+      <c r="C17" s="420"/>
       <c r="D17" s="289">
         <f ca="1">H14/B17-1-C16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="367"/>
+      <c r="E17" s="417"/>
       <c r="F17" s="162">
         <f ca="1">E16/B17</f>
         <v>0.12881192536755054</v>
       </c>
-      <c r="G17" s="395"/>
-      <c r="H17" s="426"/>
-      <c r="I17" s="395"/>
+      <c r="G17" s="386"/>
+      <c r="H17" s="383"/>
+      <c r="I17" s="386"/>
       <c r="J17" s="205">
         <f ca="1">B17-$H$16</f>
-        <v>33.789902701995153</v>
+        <v>33.794034708613658</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="358">
         <f ca="1">C35</f>
-        <v>28.63781305622965</v>
-      </c>
-      <c r="C18" s="371"/>
+        <v>28.641315038290134</v>
+      </c>
+      <c r="C18" s="421"/>
       <c r="D18" s="160">
         <f ca="1">H14/B18-1-C16</f>
         <v>0</v>
       </c>
-      <c r="E18" s="368"/>
+      <c r="E18" s="418"/>
       <c r="F18" s="163">
         <f ca="1">E16/B18</f>
         <v>0.12881192536755054</v>
       </c>
-      <c r="G18" s="396"/>
-      <c r="H18" s="427"/>
-      <c r="I18" s="396"/>
+      <c r="G18" s="387"/>
+      <c r="H18" s="384"/>
+      <c r="I18" s="387"/>
       <c r="J18" s="207">
         <f ca="1">B18-$H$16</f>
-        <v>33.789902701995153</v>
+        <v>33.794034708613658</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -4865,42 +4871,42 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="418"/>
-      <c r="D21" s="419"/>
-      <c r="E21" s="419"/>
-      <c r="F21" s="419"/>
-      <c r="G21" s="419"/>
-      <c r="H21" s="419"/>
-      <c r="I21" s="419"/>
-      <c r="J21" s="420"/>
+      <c r="C21" s="371"/>
+      <c r="D21" s="372"/>
+      <c r="E21" s="372"/>
+      <c r="F21" s="372"/>
+      <c r="G21" s="372"/>
+      <c r="H21" s="372"/>
+      <c r="I21" s="372"/>
+      <c r="J21" s="373"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="429"/>
-      <c r="D22" s="373"/>
-      <c r="E22" s="373"/>
-      <c r="F22" s="373"/>
-      <c r="G22" s="429"/>
-      <c r="H22" s="429"/>
-      <c r="I22" s="373"/>
-      <c r="J22" s="373"/>
+      <c r="C22" s="389"/>
+      <c r="D22" s="362"/>
+      <c r="E22" s="362"/>
+      <c r="F22" s="362"/>
+      <c r="G22" s="389"/>
+      <c r="H22" s="389"/>
+      <c r="I22" s="362"/>
+      <c r="J22" s="362"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="392"/>
-      <c r="D23" s="393"/>
-      <c r="E23" s="393"/>
-      <c r="F23" s="393"/>
-      <c r="G23" s="392"/>
-      <c r="H23" s="392"/>
-      <c r="I23" s="393"/>
-      <c r="J23" s="393"/>
+      <c r="C23" s="374"/>
+      <c r="D23" s="375"/>
+      <c r="E23" s="375"/>
+      <c r="F23" s="375"/>
+      <c r="G23" s="374"/>
+      <c r="H23" s="374"/>
+      <c r="I23" s="375"/>
+      <c r="J23" s="375"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -4937,200 +4943,209 @@
       </c>
       <c r="J25" s="357">
         <f ca="1">H14/(H25+C16+1)</f>
-        <v>25.201275489482093</v>
+        <v>25.204357233695319</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="416"/>
-      <c r="D26" s="417"/>
-      <c r="E26" s="374" t="str">
+      <c r="C26" s="369"/>
+      <c r="D26" s="370"/>
+      <c r="E26" s="422" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v/>
       </c>
-      <c r="F26" s="375"/>
-      <c r="G26" s="375"/>
-      <c r="H26" s="376"/>
-      <c r="I26" s="428" t="s">
+      <c r="F26" s="423"/>
+      <c r="G26" s="423"/>
+      <c r="H26" s="424"/>
+      <c r="I26" s="388" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="428"/>
+      <c r="J26" s="388"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="365">
+      <c r="C27" s="415">
         <f ca="1">C31/D25</f>
-        <v>0.14318906528114825</v>
-      </c>
-      <c r="D27" s="364"/>
-      <c r="E27" s="363">
+        <v>0.14320657519145066</v>
+      </c>
+      <c r="D27" s="414"/>
+      <c r="E27" s="413">
         <f>E31/D25</f>
         <v>0</v>
       </c>
-      <c r="F27" s="364"/>
-      <c r="G27" s="398">
+      <c r="F27" s="414"/>
+      <c r="G27" s="397">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="399"/>
-      <c r="I27" s="397">
+      <c r="H27" s="398"/>
+      <c r="I27" s="396">
         <f ca="1">C27+E27+G27</f>
-        <v>0.14318906528114825</v>
-      </c>
-      <c r="J27" s="397"/>
+        <v>0.14320657519145066</v>
+      </c>
+      <c r="J27" s="396"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="359">
+      <c r="C28" s="361">
         <v>3000</v>
       </c>
-      <c r="D28" s="373"/>
-      <c r="E28" s="359"/>
-      <c r="F28" s="373"/>
-      <c r="G28" s="404"/>
-      <c r="H28" s="405"/>
-      <c r="I28" s="408">
+      <c r="D28" s="362"/>
+      <c r="E28" s="361"/>
+      <c r="F28" s="362"/>
+      <c r="G28" s="378"/>
+      <c r="H28" s="379"/>
+      <c r="I28" s="406">
         <f>C28+E28+G28</f>
         <v>3000</v>
       </c>
-      <c r="J28" s="408"/>
+      <c r="J28" s="406"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="372">
+      <c r="C29" s="363">
         <f ca="1">B17</f>
-        <v>28.63781305622965</v>
-      </c>
-      <c r="D29" s="373"/>
-      <c r="E29" s="372"/>
-      <c r="F29" s="373"/>
-      <c r="G29" s="400"/>
-      <c r="H29" s="401"/>
-      <c r="I29" s="406"/>
-      <c r="J29" s="406"/>
+        <v>28.641315038290134</v>
+      </c>
+      <c r="D29" s="362"/>
+      <c r="E29" s="363"/>
+      <c r="F29" s="362"/>
+      <c r="G29" s="399"/>
+      <c r="H29" s="400"/>
+      <c r="I29" s="403"/>
+      <c r="J29" s="403"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="385">
+      <c r="C30" s="359">
         <f ca="1">C29*$I$5/1000000</f>
-        <v>7236.8326349353447</v>
-      </c>
-      <c r="D30" s="386"/>
-      <c r="E30" s="385">
+        <v>7237.7175928059933</v>
+      </c>
+      <c r="D30" s="360"/>
+      <c r="E30" s="359">
         <f>E29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="F30" s="386"/>
-      <c r="G30" s="402">
+      <c r="F30" s="360"/>
+      <c r="G30" s="401">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="403"/>
-      <c r="I30" s="407"/>
-      <c r="J30" s="407"/>
+      <c r="H30" s="402"/>
+      <c r="I30" s="404"/>
+      <c r="J30" s="404"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="387">
+      <c r="C31" s="431">
         <f ca="1">C28*C29</f>
-        <v>85913.439168688943</v>
-      </c>
-      <c r="D31" s="388"/>
-      <c r="E31" s="389">
+        <v>85923.945114870396</v>
+      </c>
+      <c r="D31" s="432"/>
+      <c r="E31" s="405">
         <f>E28*E29</f>
         <v>0</v>
       </c>
-      <c r="F31" s="390"/>
-      <c r="G31" s="409">
+      <c r="F31" s="433"/>
+      <c r="G31" s="408">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="410"/>
-      <c r="I31" s="389">
+      <c r="H31" s="409"/>
+      <c r="I31" s="405">
         <f ca="1">C31+E31+G31</f>
-        <v>85913.439168688943</v>
-      </c>
-      <c r="J31" s="389"/>
+        <v>85923.945114870396</v>
+      </c>
+      <c r="J31" s="405"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="381"/>
-      <c r="D32" s="382"/>
-      <c r="E32" s="391">
+      <c r="C32" s="427"/>
+      <c r="D32" s="428"/>
+      <c r="E32" s="407">
         <f ca="1">IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
-        <v>28.637813056229646</v>
-      </c>
-      <c r="F32" s="364"/>
+        <v>28.641315038290131</v>
+      </c>
+      <c r="F32" s="414"/>
       <c r="G32" s="117"/>
       <c r="H32" s="117"/>
-      <c r="I32" s="391">
+      <c r="I32" s="407">
         <f ca="1">IF(I31=0,"",I31/I28)</f>
-        <v>28.637813056229646</v>
-      </c>
-      <c r="J32" s="391"/>
+        <v>28.641315038290131</v>
+      </c>
+      <c r="J32" s="407"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="383"/>
-      <c r="D33" s="384"/>
-      <c r="E33" s="385">
+      <c r="C33" s="429"/>
+      <c r="D33" s="430"/>
+      <c r="E33" s="359">
         <f ca="1">IF(E32="-","-",E32*$I$5/1000000)</f>
-        <v>7236.8326349353438</v>
-      </c>
-      <c r="F33" s="386"/>
+        <v>7237.7175928059933</v>
+      </c>
+      <c r="F33" s="360"/>
       <c r="G33" s="118"/>
       <c r="H33" s="118"/>
-      <c r="I33" s="385">
+      <c r="I33" s="359">
         <f ca="1">IF(I32="","",I32*$I$5/1000000)</f>
-        <v>7236.8326349353438</v>
-      </c>
-      <c r="J33" s="385"/>
+        <v>7237.7175928059933</v>
+      </c>
+      <c r="J33" s="359"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="146" t="s">
         <v>326</v>
       </c>
-      <c r="C35" s="377">
+      <c r="C35" s="394">
         <f ca="1">C29</f>
-        <v>28.63781305622965</v>
-      </c>
-      <c r="D35" s="378"/>
-      <c r="G35" s="379" t="s">
+        <v>28.641315038290134</v>
+      </c>
+      <c r="D35" s="395"/>
+      <c r="G35" s="425" t="s">
         <v>327</v>
       </c>
-      <c r="H35" s="380"/>
-      <c r="I35" s="377">
+      <c r="H35" s="426"/>
+      <c r="I35" s="394">
         <f ca="1">'FCFF Model'!C33</f>
-        <v>44.069106328733717</v>
-      </c>
-      <c r="J35" s="378"/>
+        <v>44.074495330312914</v>
+      </c>
+      <c r="J35" s="395"/>
     </row>
     <row r="36" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="146" t="s">
         <v>328</v>
       </c>
-      <c r="C36" s="359">
+      <c r="C36" s="361">
         <f>C28</f>
         <v>3000</v>
       </c>
-      <c r="D36" s="360"/>
+      <c r="D36" s="410"/>
+      <c r="G36" s="451" t="s">
+        <v>332</v>
+      </c>
+      <c r="H36" s="451"/>
+      <c r="I36" s="440">
+        <f>IF(C26="",0,I35/C29-1)</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="441"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6063,12 +6078,40 @@
     <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
+  <mergeCells count="54">
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G31:H31"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -6085,81 +6128,60 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
   </mergeCells>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="19" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:D26 I26 C28:G29 I28:I29">
-    <cfRule type="containsBlanks" priority="17">
+    <cfRule type="containsBlanks" priority="18">
       <formula>LEN(TRIM(C26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16 D18">
-    <cfRule type="cellIs" dxfId="18" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:D36">
-    <cfRule type="containsBlanks" priority="4">
+    <cfRule type="containsBlanks" priority="5">
       <formula>LEN(TRIM(C35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:J35">
-    <cfRule type="containsBlanks" priority="3">
+    <cfRule type="containsBlanks" priority="4">
       <formula>LEN(TRIM(I35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="containsBlanks" priority="2">
+    <cfRule type="containsBlanks" priority="3">
       <formula>LEN(TRIM(E26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:H26">
-    <cfRule type="containsBlanks" dxfId="15" priority="1">
+    <cfRule type="containsBlanks" dxfId="15" priority="2">
       <formula>LEN(TRIM(E26))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:J36">
+    <cfRule type="containsBlanks" priority="1">
+      <formula>LEN(TRIM(I36))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -9362,7 +9384,7 @@
   </sheetPr>
   <dimension ref="A2:K65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="H6" sqref="H6:I8"/>
     </sheetView>
   </sheetViews>
@@ -9435,7 +9457,7 @@
       </c>
       <c r="I4" s="91">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
-        <v>18.175806973124981</v>
+        <v>18.178029606181131</v>
       </c>
       <c r="K4" s="74"/>
     </row>
@@ -9478,7 +9500,7 @@
       </c>
       <c r="D7" s="61">
         <f>MAX((D6*Dashboard!I12*Data!C4)/Dashboard!I5, 0)</f>
-        <v>1.484316157289205</v>
+        <v>1.484497667258025</v>
       </c>
       <c r="E7" s="49" t="str">
         <f>Dashboard!J4</f>
@@ -10387,7 +10409,7 @@
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>272500</v>
       </c>
-      <c r="E53" s="388"/>
+      <c r="E53" s="432"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10406,7 +10428,7 @@
       <c r="D54" s="444">
         <v>0</v>
       </c>
-      <c r="E54" s="373"/>
+      <c r="E54" s="362"/>
       <c r="F54" s="6" t="s">
         <v>137</v>
       </c>
@@ -10420,7 +10442,7 @@
       <c r="D55" s="444">
         <v>0</v>
       </c>
-      <c r="E55" s="373"/>
+      <c r="E55" s="362"/>
       <c r="F55" s="5" t="s">
         <v>138</v>
       </c>
@@ -10484,7 +10506,7 @@
       <c r="C60" s="6"/>
       <c r="D60" s="442">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>11775656.9</v>
+        <v>11712481.4</v>
       </c>
       <c r="E60" s="443"/>
       <c r="F60" s="6"/>
@@ -12840,7 +12862,7 @@
       </c>
       <c r="C29" s="252">
         <f ca="1">MIN(Asset_Model!D7,G25*Exchange_Rate)+(ABS(Asset_Model!D7-G25*Exchange_Rate)*'Qualitative Analysis'!E8)</f>
-        <v>21.390868810363322</v>
+        <v>21.393484598052311</v>
       </c>
       <c r="D29" s="23" t="str">
         <f ca="1">IF(C29&lt;E29,"&lt;",IF(C29=E29,"=","&gt;"))</f>
@@ -12848,7 +12870,7 @@
       </c>
       <c r="E29" s="251">
         <f ca="1">G26*Exchange_Rate</f>
-        <v>38.135997105533392</v>
+        <v>38.140660575382157</v>
       </c>
       <c r="F29" s="30"/>
       <c r="H29" s="6"/>
@@ -12884,7 +12906,7 @@
       </c>
       <c r="C32" s="253">
         <f ca="1">MIN(C29,E29)+ABS(C29-E29)*'Qualitative Analysis'!$E$64</f>
-        <v>31.501594361852618</v>
+        <v>31.505446542119149</v>
       </c>
       <c r="D32" s="119" t="str">
         <f>Dashboard!J4</f>
@@ -12892,7 +12914,7 @@
       </c>
       <c r="E32" s="120">
         <f ca="1">(C32-G19)/C9</f>
-        <v>86.405514823590835</v>
+        <v>86.415865262518835</v>
       </c>
       <c r="F32" s="158">
         <f ca="1">C32/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
@@ -12908,7 +12930,7 @@
       </c>
       <c r="C33" s="254">
         <f ca="1">MAX(Asset_Model!D7,(G12/(1+G33)^G4+F25+G19)*Exchange_Rate)</f>
-        <v>44.069106328733717</v>
+        <v>44.074495330312914</v>
       </c>
       <c r="D33" s="208" t="str">
         <f>D32</f>
@@ -12916,7 +12938,7 @@
       </c>
       <c r="E33" s="120">
         <f ca="1">(C33-G19)/C9</f>
-        <v>120.17321417570105</v>
+        <v>120.18769390610544</v>
       </c>
       <c r="F33" s="158">
         <f ca="1">C33/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>

--- a/financial_models/Opportunities/0303.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0303.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1484BA8B-AC63-454E-9B70-A00311B06D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6F4778-2DB6-4175-AB89-1CC35EFC26B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -3840,6 +3840,12 @@
     <xf numFmtId="184" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3849,6 +3855,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3927,12 +3939,14 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3960,21 +3974,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3985,7 +3994,6 @@
     <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4030,7 +4038,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4043,10 +4050,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4072,9 +4075,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4083,7 +4083,14 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -4096,8 +4103,8 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14999847407452621"/>
+        <patternFill>
+          <bgColor theme="2" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4131,56 +4138,10 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="solid">
           <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -4207,9 +4168,28 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
       <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.14996795556505021"/>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDD7E6B"/>
+          <bgColor rgb="FFDD7E6B"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4234,20 +4214,19 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDD7E6B"/>
-          <bgColor rgb="FFDD7E6B"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4476,8 +4455,8 @@
   </sheetPr>
   <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36:J36"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4521,27 +4500,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="364" t="s">
+      <c r="C3" s="368" t="s">
         <v>311</v>
       </c>
-      <c r="D3" s="365"/>
+      <c r="D3" s="369"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="376" t="s">
+      <c r="I3" s="380" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="377"/>
+      <c r="J3" s="381"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="366" t="s">
+      <c r="C4" s="370" t="s">
         <v>312</v>
       </c>
-      <c r="D4" s="367"/>
+      <c r="D4" s="371"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -4558,10 +4537,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="368">
+      <c r="C5" s="372">
         <v>44986</v>
       </c>
-      <c r="D5" s="367"/>
+      <c r="D5" s="371"/>
       <c r="E5" s="122" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v>Patience Premium</v>
@@ -4569,10 +4548,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="378">
+      <c r="I5" s="382">
         <v>252702000</v>
       </c>
-      <c r="J5" s="379"/>
+      <c r="J5" s="383"/>
       <c r="K5" s="151"/>
       <c r="L5" s="85"/>
     </row>
@@ -4595,11 +4574,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="133"/>
-      <c r="I6" s="380">
+      <c r="I6" s="384">
         <f>I4*I5/1000000</f>
         <v>11548.481400000001</v>
       </c>
-      <c r="J6" s="381"/>
+      <c r="J6" s="385"/>
       <c r="K6" s="151"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4673,30 +4652,30 @@
       <c r="B11" s="313" t="s">
         <v>278</v>
       </c>
-      <c r="C11" s="392">
+      <c r="C11" s="359">
         <f ca="1">C12-D10</f>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="D11" s="393"/>
+      <c r="D11" s="360"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="390" t="s">
+      <c r="I11" s="394" t="s">
         <v>313</v>
       </c>
-      <c r="J11" s="391"/>
+      <c r="J11" s="395"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="314" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="411">
+      <c r="C12" s="416">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="D12" s="412"/>
+      <c r="D12" s="417"/>
       <c r="G12" s="134" t="s">
         <v>16</v>
       </c>
@@ -4767,14 +4746,14 @@
         <f>I4</f>
         <v>45.7</v>
       </c>
-      <c r="C16" s="419">
+      <c r="C16" s="423">
         <v>0.1</v>
       </c>
       <c r="D16" s="159">
         <f ca="1">H14/B16-1-C16</f>
         <v>-0.41060292030373857</v>
       </c>
-      <c r="E16" s="416">
+      <c r="E16" s="420">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
         <v>3.6893429351407319</v>
       </c>
@@ -4782,14 +4761,14 @@
         <f>E16/B16</f>
         <v>8.0729604707674651E-2</v>
       </c>
-      <c r="G16" s="385" t="s">
+      <c r="G16" s="389" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="382">
+      <c r="H16" s="386">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
         <v>-5.1527196703235232</v>
       </c>
-      <c r="I16" s="385" t="s">
+      <c r="I16" s="389" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="206">
@@ -4802,19 +4781,19 @@
         <f ca="1">H14/(1+C16)</f>
         <v>28.641315038290134</v>
       </c>
-      <c r="C17" s="420"/>
+      <c r="C17" s="424"/>
       <c r="D17" s="289">
         <f ca="1">H14/B17-1-C16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="417"/>
+      <c r="E17" s="421"/>
       <c r="F17" s="162">
         <f ca="1">E16/B17</f>
         <v>0.12881192536755054</v>
       </c>
-      <c r="G17" s="386"/>
-      <c r="H17" s="383"/>
-      <c r="I17" s="386"/>
+      <c r="G17" s="390"/>
+      <c r="H17" s="387"/>
+      <c r="I17" s="390"/>
       <c r="J17" s="205">
         <f ca="1">B17-$H$16</f>
         <v>33.794034708613658</v>
@@ -4825,19 +4804,19 @@
         <f ca="1">C35</f>
         <v>28.641315038290134</v>
       </c>
-      <c r="C18" s="421"/>
+      <c r="C18" s="425"/>
       <c r="D18" s="160">
         <f ca="1">H14/B18-1-C16</f>
         <v>0</v>
       </c>
-      <c r="E18" s="418"/>
+      <c r="E18" s="422"/>
       <c r="F18" s="163">
         <f ca="1">E16/B18</f>
         <v>0.12881192536755054</v>
       </c>
-      <c r="G18" s="387"/>
-      <c r="H18" s="384"/>
-      <c r="I18" s="387"/>
+      <c r="G18" s="391"/>
+      <c r="H18" s="388"/>
+      <c r="I18" s="391"/>
       <c r="J18" s="207">
         <f ca="1">B18-$H$16</f>
         <v>33.794034708613658</v>
@@ -4871,42 +4850,42 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="371"/>
-      <c r="D21" s="372"/>
-      <c r="E21" s="372"/>
-      <c r="F21" s="372"/>
-      <c r="G21" s="372"/>
-      <c r="H21" s="372"/>
-      <c r="I21" s="372"/>
-      <c r="J21" s="373"/>
+      <c r="C21" s="375"/>
+      <c r="D21" s="376"/>
+      <c r="E21" s="376"/>
+      <c r="F21" s="376"/>
+      <c r="G21" s="376"/>
+      <c r="H21" s="376"/>
+      <c r="I21" s="376"/>
+      <c r="J21" s="377"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="389"/>
-      <c r="D22" s="362"/>
-      <c r="E22" s="362"/>
-      <c r="F22" s="362"/>
-      <c r="G22" s="389"/>
-      <c r="H22" s="389"/>
-      <c r="I22" s="362"/>
-      <c r="J22" s="362"/>
+      <c r="C22" s="393"/>
+      <c r="D22" s="364"/>
+      <c r="E22" s="364"/>
+      <c r="F22" s="364"/>
+      <c r="G22" s="393"/>
+      <c r="H22" s="393"/>
+      <c r="I22" s="364"/>
+      <c r="J22" s="364"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="374"/>
-      <c r="D23" s="375"/>
-      <c r="E23" s="375"/>
-      <c r="F23" s="375"/>
-      <c r="G23" s="374"/>
-      <c r="H23" s="374"/>
-      <c r="I23" s="375"/>
-      <c r="J23" s="375"/>
+      <c r="C23" s="378"/>
+      <c r="D23" s="379"/>
+      <c r="E23" s="379"/>
+      <c r="F23" s="379"/>
+      <c r="G23" s="378"/>
+      <c r="H23" s="378"/>
+      <c r="I23" s="379"/>
+      <c r="J23" s="379"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -4950,202 +4929,202 @@
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="369"/>
-      <c r="D26" s="370"/>
-      <c r="E26" s="422" t="str">
+      <c r="C26" s="373"/>
+      <c r="D26" s="374"/>
+      <c r="E26" s="426" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v/>
       </c>
-      <c r="F26" s="423"/>
-      <c r="G26" s="423"/>
-      <c r="H26" s="424"/>
-      <c r="I26" s="388" t="s">
+      <c r="F26" s="427"/>
+      <c r="G26" s="427"/>
+      <c r="H26" s="428"/>
+      <c r="I26" s="392" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="388"/>
+      <c r="J26" s="392"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="415">
+      <c r="C27" s="419">
         <f ca="1">C31/D25</f>
         <v>0.14320657519145066</v>
       </c>
-      <c r="D27" s="414"/>
-      <c r="E27" s="413">
+      <c r="D27" s="399"/>
+      <c r="E27" s="418">
         <f>E31/D25</f>
         <v>0</v>
       </c>
-      <c r="F27" s="414"/>
-      <c r="G27" s="397">
+      <c r="F27" s="399"/>
+      <c r="G27" s="403">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="398"/>
-      <c r="I27" s="396">
+      <c r="H27" s="404"/>
+      <c r="I27" s="402">
         <f ca="1">C27+E27+G27</f>
         <v>0.14320657519145066</v>
       </c>
-      <c r="J27" s="396"/>
+      <c r="J27" s="402"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="361">
+      <c r="C28" s="363">
         <v>3000</v>
       </c>
-      <c r="D28" s="362"/>
-      <c r="E28" s="361"/>
-      <c r="F28" s="362"/>
-      <c r="G28" s="378"/>
-      <c r="H28" s="379"/>
-      <c r="I28" s="406">
+      <c r="D28" s="364"/>
+      <c r="E28" s="363"/>
+      <c r="F28" s="364"/>
+      <c r="G28" s="382"/>
+      <c r="H28" s="383"/>
+      <c r="I28" s="411">
         <f>C28+E28+G28</f>
         <v>3000</v>
       </c>
-      <c r="J28" s="406"/>
+      <c r="J28" s="411"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="363">
+      <c r="C29" s="365">
         <f ca="1">B17</f>
         <v>28.641315038290134</v>
       </c>
-      <c r="D29" s="362"/>
-      <c r="E29" s="363"/>
-      <c r="F29" s="362"/>
-      <c r="G29" s="399"/>
-      <c r="H29" s="400"/>
-      <c r="I29" s="403"/>
-      <c r="J29" s="403"/>
+      <c r="D29" s="364"/>
+      <c r="E29" s="365"/>
+      <c r="F29" s="364"/>
+      <c r="G29" s="405"/>
+      <c r="H29" s="406"/>
+      <c r="I29" s="409"/>
+      <c r="J29" s="409"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="359">
+      <c r="C30" s="361">
         <f ca="1">C29*$I$5/1000000</f>
         <v>7237.7175928059933</v>
       </c>
-      <c r="D30" s="360"/>
-      <c r="E30" s="359">
+      <c r="D30" s="362"/>
+      <c r="E30" s="361">
         <f>E29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="F30" s="360"/>
-      <c r="G30" s="401">
+      <c r="F30" s="362"/>
+      <c r="G30" s="407">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="402"/>
-      <c r="I30" s="404"/>
-      <c r="J30" s="404"/>
+      <c r="H30" s="408"/>
+      <c r="I30" s="410"/>
+      <c r="J30" s="410"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="431">
+      <c r="C31" s="435">
         <f ca="1">C28*C29</f>
         <v>85923.945114870396</v>
       </c>
-      <c r="D31" s="432"/>
-      <c r="E31" s="405">
+      <c r="D31" s="436"/>
+      <c r="E31" s="396">
         <f>E28*E29</f>
         <v>0</v>
       </c>
-      <c r="F31" s="433"/>
-      <c r="G31" s="408">
+      <c r="F31" s="397"/>
+      <c r="G31" s="366">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="409"/>
-      <c r="I31" s="405">
+      <c r="H31" s="367"/>
+      <c r="I31" s="396">
         <f ca="1">C31+E31+G31</f>
         <v>85923.945114870396</v>
       </c>
-      <c r="J31" s="405"/>
+      <c r="J31" s="396"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="427"/>
-      <c r="D32" s="428"/>
-      <c r="E32" s="407">
+      <c r="C32" s="431"/>
+      <c r="D32" s="432"/>
+      <c r="E32" s="398">
         <f ca="1">IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>28.641315038290131</v>
       </c>
-      <c r="F32" s="414"/>
+      <c r="F32" s="399"/>
       <c r="G32" s="117"/>
       <c r="H32" s="117"/>
-      <c r="I32" s="407">
+      <c r="I32" s="398">
         <f ca="1">IF(I31=0,"",I31/I28)</f>
         <v>28.641315038290131</v>
       </c>
-      <c r="J32" s="407"/>
+      <c r="J32" s="398"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="429"/>
-      <c r="D33" s="430"/>
-      <c r="E33" s="359">
+      <c r="C33" s="433"/>
+      <c r="D33" s="434"/>
+      <c r="E33" s="361">
         <f ca="1">IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>7237.7175928059933</v>
       </c>
-      <c r="F33" s="360"/>
+      <c r="F33" s="362"/>
       <c r="G33" s="118"/>
       <c r="H33" s="118"/>
-      <c r="I33" s="359">
+      <c r="I33" s="361">
         <f ca="1">IF(I32="","",I32*$I$5/1000000)</f>
         <v>7237.7175928059933</v>
       </c>
-      <c r="J33" s="359"/>
+      <c r="J33" s="361"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="146" t="s">
         <v>326</v>
       </c>
-      <c r="C35" s="394">
+      <c r="C35" s="400">
         <f ca="1">C29</f>
         <v>28.641315038290134</v>
       </c>
-      <c r="D35" s="395"/>
-      <c r="G35" s="425" t="s">
+      <c r="D35" s="401"/>
+      <c r="G35" s="429" t="s">
         <v>327</v>
       </c>
-      <c r="H35" s="426"/>
-      <c r="I35" s="394">
+      <c r="H35" s="430"/>
+      <c r="I35" s="400">
         <f ca="1">'FCFF Model'!C33</f>
         <v>44.074495330312914</v>
       </c>
-      <c r="J35" s="395"/>
+      <c r="J35" s="401"/>
     </row>
     <row r="36" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="146" t="s">
         <v>328</v>
       </c>
-      <c r="C36" s="361">
+      <c r="C36" s="363">
         <f>C28</f>
         <v>3000</v>
       </c>
-      <c r="D36" s="410"/>
-      <c r="G36" s="451" t="s">
+      <c r="D36" s="415"/>
+      <c r="G36" s="412" t="s">
         <v>332</v>
       </c>
-      <c r="H36" s="451"/>
-      <c r="I36" s="440">
+      <c r="H36" s="412"/>
+      <c r="I36" s="413">
         <f>IF(C26="",0,I35/C29-1)</f>
         <v>0</v>
       </c>
-      <c r="J36" s="441"/>
+      <c r="J36" s="414"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6134,44 +6113,24 @@
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="E28:F28"/>
   </mergeCells>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="19" priority="24" operator="lessThan">
-      <formula>0</formula>
+  <conditionalFormatting sqref="C35:D36">
+    <cfRule type="containsBlanks" priority="5">
+      <formula>LEN(TRIM(C35))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:D26 I26 C28:G29 I28:I29">
+  <conditionalFormatting sqref="C26:E26">
+    <cfRule type="containsBlanks" priority="3">
+      <formula>LEN(TRIM(C26))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28:G29 I26 I28:I29">
     <cfRule type="containsBlanks" priority="18">
       <formula>LEN(TRIM(C26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16 D18">
-    <cfRule type="cellIs" dxfId="18" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="lessThan">
       <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="greaterThan">
-      <formula>$B$16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="greaterThan">
-      <formula>$B$16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35:D36">
-    <cfRule type="containsBlanks" priority="5">
-      <formula>LEN(TRIM(C35))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I35:J35">
-    <cfRule type="containsBlanks" priority="4">
-      <formula>LEN(TRIM(I35))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="containsBlanks" priority="3">
-      <formula>LEN(TRIM(E26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:H26">
@@ -6179,9 +6138,24 @@
       <formula>LEN(TRIM(E26))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:J36">
+  <conditionalFormatting sqref="H14">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="greaterThan">
+      <formula>$B$16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="greaterThan">
+      <formula>$B$16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="cellIs" dxfId="12" priority="24" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:J36">
     <cfRule type="containsBlanks" priority="1">
-      <formula>LEN(TRIM(I36))=0</formula>
+      <formula>LEN(TRIM(I35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -9339,24 +9313,24 @@
     <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <conditionalFormatting sqref="D42:M46 C7:M35">
-    <cfRule type="containsBlanks" dxfId="14" priority="3">
+  <conditionalFormatting sqref="B51:M52">
+    <cfRule type="expression" dxfId="11" priority="1">
+      <formula>$C$49="No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:M35 D42:M46">
+    <cfRule type="containsBlanks" dxfId="10" priority="3">
       <formula>LEN(TRIM(C7))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:M18">
-    <cfRule type="containsBlanks" dxfId="13" priority="4">
-      <formula>LEN(TRIM(D17))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C37:M40">
-    <cfRule type="containsBlanks" dxfId="12" priority="5">
+    <cfRule type="containsBlanks" dxfId="9" priority="5">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B51:M52">
-    <cfRule type="expression" dxfId="11" priority="1">
-      <formula>$C$49="No"</formula>
+  <conditionalFormatting sqref="D17:M18">
+    <cfRule type="containsBlanks" dxfId="8" priority="4">
+      <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -9384,8 +9358,8 @@
   </sheetPr>
   <dimension ref="A2:K65"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:I8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9499,7 +9473,7 @@
         <v>85</v>
       </c>
       <c r="D7" s="61">
-        <f>MAX((D6*Dashboard!I12*Data!C4)/Dashboard!I5, 0)</f>
+        <f>MAX(((D6+MIN('FCFF Model'!D4,0))*Dashboard!I12*Data!C4)/Dashboard!I5, 0)</f>
         <v>1.484497667258025</v>
       </c>
       <c r="E7" s="49" t="str">
@@ -10392,11 +10366,11 @@
         <v>266</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="434">
+      <c r="D52" s="437">
         <f>D53+D54+D55</f>
         <v>272500</v>
       </c>
-      <c r="E52" s="435"/>
+      <c r="E52" s="438"/>
       <c r="F52" s="53"/>
       <c r="G52" s="53"/>
     </row>
@@ -10405,11 +10379,11 @@
         <v>236</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="437">
+      <c r="D53" s="440">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>272500</v>
       </c>
-      <c r="E53" s="432"/>
+      <c r="E53" s="436"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10425,10 +10399,10 @@
         <v>136</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="444">
+      <c r="D54" s="445">
         <v>0</v>
       </c>
-      <c r="E54" s="362"/>
+      <c r="E54" s="364"/>
       <c r="F54" s="6" t="s">
         <v>137</v>
       </c>
@@ -10439,10 +10413,10 @@
         <v>135</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="444">
+      <c r="D55" s="445">
         <v>0</v>
       </c>
-      <c r="E55" s="362"/>
+      <c r="E55" s="364"/>
       <c r="F55" s="5" t="s">
         <v>138</v>
       </c>
@@ -10457,8 +10431,8 @@
         <v>139</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="436"/>
-      <c r="E57" s="436"/>
+      <c r="D57" s="439"/>
+      <c r="E57" s="439"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
@@ -10504,11 +10478,11 @@
         <v>140</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="442">
+      <c r="D60" s="443">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
         <v>11712481.4</v>
       </c>
-      <c r="E60" s="443"/>
+      <c r="E60" s="444"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
@@ -10525,20 +10499,20 @@
       <c r="B63" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D63" s="440">
+      <c r="D63" s="413">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>0.13929550727694578</v>
       </c>
-      <c r="E63" s="441"/>
+      <c r="E63" s="414"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D64" s="438">
+      <c r="D64" s="441">
         <v>6.3399999999999998E-2</v>
       </c>
-      <c r="E64" s="439"/>
+      <c r="E64" s="442"/>
       <c r="F64" s="266" t="s">
         <v>252</v>
       </c>
@@ -10547,11 +10521,11 @@
       <c r="B65" s="292" t="s">
         <v>269</v>
       </c>
-      <c r="D65" s="438">
+      <c r="D65" s="441">
         <f>D63</f>
         <v>0.13929550727694578</v>
       </c>
-      <c r="E65" s="439"/>
+      <c r="E65" s="442"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -12200,64 +12174,54 @@
     <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <conditionalFormatting sqref="G26:I28 G20:I20">
-    <cfRule type="containsBlanks" dxfId="10" priority="14">
-      <formula>LEN(TRIM(G20))=0</formula>
+  <conditionalFormatting sqref="E29:E31">
+    <cfRule type="containsBlanks" dxfId="7" priority="6">
+      <formula>LEN(TRIM(E29))=0</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31 I31">
+    <cfRule type="containsBlanks" dxfId="6" priority="8">
+      <formula>LEN(TRIM(G31))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21:H24 H25:I25">
+    <cfRule type="containsBlanks" priority="4">
+      <formula>LEN(TRIM(G21))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20:I20 G26:I28">
     <cfRule type="containsBlanks" priority="15">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="containsBlanks" dxfId="9" priority="12">
-      <formula>LEN(TRIM(I20))=0</formula>
+  <conditionalFormatting sqref="G21:I24">
+    <cfRule type="containsBlanks" dxfId="5" priority="1">
+      <formula>LEN(TRIM(G21))=0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="13">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20:J31">
+    <cfRule type="containsBlanks" dxfId="4" priority="5">
+      <formula>LEN(TRIM(G20))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25:I25">
+    <cfRule type="containsBlanks" dxfId="3" priority="3">
+      <formula>LEN(TRIM(H25))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20:I24">
+    <cfRule type="containsBlanks" priority="2">
       <formula>LEN(TRIM(I20))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:J28">
-    <cfRule type="containsBlanks" dxfId="8" priority="10">
-      <formula>LEN(TRIM(J20))=0</formula>
-    </cfRule>
     <cfRule type="containsBlanks" priority="11">
       <formula>LEN(TRIM(J20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29 G31 I31 E31">
-    <cfRule type="containsBlanks" dxfId="7" priority="8">
-      <formula>LEN(TRIM(E29))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20:J20 G31:J31 J30 G26:J29 J21:J25">
-    <cfRule type="containsBlanks" dxfId="6" priority="7">
-      <formula>LEN(TRIM(G20))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="containsBlanks" dxfId="5" priority="6">
-      <formula>LEN(TRIM(E30))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30:I30">
-    <cfRule type="containsBlanks" dxfId="4" priority="5">
-      <formula>LEN(TRIM(G30))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21:H24 I23 I21 H25:I25">
-    <cfRule type="containsBlanks" dxfId="3" priority="3">
-      <formula>LEN(TRIM(G21))=0</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" priority="4">
-      <formula>LEN(TRIM(G21))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24 I22">
-    <cfRule type="containsBlanks" dxfId="2" priority="1">
-      <formula>LEN(TRIM(I22))=0</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" priority="2">
-      <formula>LEN(TRIM(I22))=0</formula>
+  <conditionalFormatting sqref="J21:J25">
+    <cfRule type="containsBlanks" dxfId="2" priority="7">
+      <formula>LEN(TRIM(J21))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -12273,8 +12237,8 @@
   </sheetPr>
   <dimension ref="A1:J922"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12689,7 +12653,7 @@
         <v>239</v>
       </c>
       <c r="G19" s="197">
-        <f>G18*Data!C$4/Dashboard!I5</f>
+        <f>(G18+MIN(D4,0))*Data!C$4/Dashboard!I5</f>
         <v>-0.65642535476569241</v>
       </c>
       <c r="I19" s="74"/>
@@ -12706,7 +12670,7 @@
         <f>C20/(Dashboard!I5/Data!C4)</f>
         <v>-1.0783452445964021</v>
       </c>
-      <c r="E20" s="447" t="str">
+      <c r="E20" s="448" t="str">
         <f>IF(F21+G21=G19,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -12730,7 +12694,7 @@
         <f>C21/(Dashboard!I5/Data!C4)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="447"/>
+      <c r="E21" s="448"/>
       <c r="F21" s="148">
         <f>D18</f>
         <v>0.40878188538278287</v>
@@ -12753,11 +12717,11 @@
         <f>B3</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="E23" s="450" t="s">
+      <c r="E23" s="451" t="s">
         <v>231</v>
       </c>
-      <c r="F23" s="450"/>
-      <c r="G23" s="450"/>
+      <c r="F23" s="451"/>
+      <c r="G23" s="451"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="127" t="str">
@@ -12798,7 +12762,7 @@
         <f ca="1">G9*D25/G14</f>
         <v>3.4414683547162719</v>
       </c>
-      <c r="F25" s="448">
+      <c r="F25" s="449">
         <f ca="1">SUM(C15:F15)</f>
         <v>0.92669060433677242</v>
       </c>
@@ -12825,7 +12789,7 @@
         <f ca="1">G9*D26/G14</f>
         <v>4.5886244729550292</v>
       </c>
-      <c r="F26" s="449"/>
+      <c r="F26" s="450"/>
       <c r="G26" s="207">
         <f ca="1">$F$25+E26+$G$19</f>
         <v>4.8588897225261096</v>
@@ -12887,10 +12851,10 @@
       <c r="I30" s="88"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="445" t="s">
+      <c r="C31" s="446" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="446"/>
+      <c r="D31" s="447"/>
       <c r="E31" s="30" t="s">
         <v>219</v>
       </c>
@@ -13845,14 +13809,14 @@
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="E23:G23"/>
   </mergeCells>
-  <conditionalFormatting sqref="E4:F9 E13:F15">
-    <cfRule type="containsBlanks" dxfId="1" priority="5">
-      <formula>LEN(TRIM(E4))=0</formula>
+  <conditionalFormatting sqref="E25:E26 G25:G26">
+    <cfRule type="cellIs" dxfId="1" priority="28" operator="equal">
+      <formula>$E$29</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25:E26 G25:G26">
-    <cfRule type="cellIs" dxfId="0" priority="28" operator="equal">
-      <formula>$E$29</formula>
+  <conditionalFormatting sqref="E4:F9 E13:F15">
+    <cfRule type="containsBlanks" dxfId="0" priority="5">
+      <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/financial_models/Opportunities/0303.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0303.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6F4778-2DB6-4175-AB89-1CC35EFC26B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CBDF4AB-3CBE-413B-AA17-25CE0070864C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="348">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1163,12 +1163,75 @@
   <si>
     <t>Expected Upside</t>
   </si>
+  <si>
+    <t>Allocation Analysis</t>
+  </si>
+  <si>
+    <t>1. The valuation quality rating (proxy of the "Error Term")</t>
+  </si>
+  <si>
+    <t>2. The probability of correctly forecasting the FCF based on the investment category</t>
+  </si>
+  <si>
+    <t>3. The business quality rating (proxy for not overestimating the exit)</t>
+  </si>
+  <si>
+    <t>80% chance of recession in US, and 50% chance of spilling over</t>
+  </si>
+  <si>
+    <t>4. The probability of a recession affecting the company</t>
+  </si>
+  <si>
+    <t>60% chance of chinese recession</t>
+  </si>
+  <si>
+    <t>5. Is the upside very attractive?</t>
+  </si>
+  <si>
+    <t>A = Upside in event of a win</t>
+  </si>
+  <si>
+    <t>B = Downside in event of a loss</t>
+  </si>
+  <si>
+    <t>W = The estimated probability of win</t>
+  </si>
+  <si>
+    <t>R = A/B</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>⇒ Half Kelly %</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = [W – (1 – W)/R] /2</t>
+    </r>
+  </si>
+  <si>
+    <t>capped at</t>
+  </si>
+  <si>
+    <t>Export oriented</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="24">
+  <numFmts count="25">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1193,6 +1256,7 @@
     <numFmt numFmtId="182" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
     <numFmt numFmtId="183" formatCode="&quot;Breakeven Price = &quot;0.00"/>
     <numFmt numFmtId="184" formatCode="&quot;Next Buy Price = &quot;0.00"/>
+    <numFmt numFmtId="185" formatCode="0.000000000000000000%"/>
   </numFmts>
   <fonts count="31" x14ac:knownFonts="1">
     <font>
@@ -2932,7 +2996,7 @@
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="452">
+  <cellXfs count="462">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3121,9 +3185,6 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3840,6 +3901,33 @@
     <xf numFmtId="184" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="13" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4083,7 +4171,7 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4210,6 +4298,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4455,8 +4553,8 @@
   </sheetPr>
   <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29:F29"/>
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4484,7 +4582,7 @@
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="308" t="str">
+      <c r="C2" s="307" t="str">
         <f>C3&amp;" : "&amp;C4</f>
         <v>0303.HK : VTECH HOLDINGS</v>
       </c>
@@ -4500,109 +4598,109 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="368" t="s">
+      <c r="C3" s="378" t="s">
         <v>311</v>
       </c>
-      <c r="D3" s="369"/>
+      <c r="D3" s="379"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="380" t="s">
+      <c r="I3" s="390" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="381"/>
+      <c r="J3" s="391"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="370" t="s">
+      <c r="C4" s="380" t="s">
         <v>312</v>
       </c>
-      <c r="D4" s="371"/>
+      <c r="D4" s="381"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>45.7</v>
+        <v>45.95</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="152"/>
+      <c r="K4" s="151"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="372">
+      <c r="C5" s="382">
         <v>44986</v>
       </c>
-      <c r="D5" s="371"/>
-      <c r="E5" s="122" t="str">
+      <c r="D5" s="381"/>
+      <c r="E5" s="121" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v>Patience Premium</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="382">
+      <c r="I5" s="392">
         <v>252702000</v>
       </c>
-      <c r="J5" s="383"/>
-      <c r="K5" s="151"/>
+      <c r="J5" s="393"/>
+      <c r="K5" s="150"/>
       <c r="L5" s="85"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="C6" s="270">
+      <c r="C6" s="269">
         <v>8</v>
       </c>
-      <c r="D6" s="271">
+      <c r="D6" s="270">
         <f>EOMONTH(EDATE(Asset_Model!D9,C6),0)</f>
         <v>45077</v>
       </c>
-      <c r="E6" s="355">
+      <c r="E6" s="354">
         <f>Data!C3</f>
         <v>44651</v>
       </c>
-      <c r="G6" s="134" t="s">
+      <c r="G6" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="133"/>
-      <c r="I6" s="384">
+      <c r="H6" s="132"/>
+      <c r="I6" s="394">
         <f>I4*I5/1000000</f>
-        <v>11548.481400000001</v>
-      </c>
-      <c r="J6" s="385"/>
-      <c r="K6" s="151"/>
+        <v>11611.6569</v>
+      </c>
+      <c r="J6" s="395"/>
+      <c r="K6" s="150"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="139" t="s">
+      <c r="B7" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="145">
+      <c r="C7" s="144">
         <f>(Data!C39*Exchange_Rate)/I4</f>
-        <v>0.15613033231601253</v>
-      </c>
-      <c r="D7" s="145">
+        <v>0.15512052924343558</v>
+      </c>
+      <c r="D7" s="144">
         <f>(Data!C40*Exchange_Rate)/I4</f>
-        <v>1.0875425847001307E-3</v>
-      </c>
-      <c r="E7" s="153"/>
+        <v>1.0805086930322026E-3</v>
+      </c>
+      <c r="E7" s="152"/>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="96"/>
+      <c r="C8" s="95"/>
       <c r="E8" s="6"/>
       <c r="G8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="132"/>
+      <c r="H8" s="131"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
@@ -4610,80 +4708,80 @@
       <c r="B9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="301"/>
-      <c r="D9" s="299"/>
+      <c r="C9" s="300"/>
+      <c r="D9" s="298"/>
       <c r="E9" s="5"/>
       <c r="G9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="121">
+      <c r="I9" s="120">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>8.5188578911081674</v>
+        <v>8.5743139220748201</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>0.11738662773607038</v>
+        <v>0.11662740705416336</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C10" s="300" t="s">
+      <c r="C10" s="299" t="s">
         <v>276</v>
       </c>
-      <c r="D10" s="300">
+      <c r="D10" s="299">
         <v>2.8999999999999998E-2</v>
       </c>
       <c r="E10" s="5"/>
       <c r="G10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="138">
+      <c r="I10" s="137">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>2.1673641098915448</v>
-      </c>
-      <c r="J10" s="130">
+        <v>2.1814732091077218</v>
+      </c>
+      <c r="J10" s="129">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>76.439754609234782</v>
+        <v>76.852060042421272</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="313" t="s">
+      <c r="B11" s="312" t="s">
         <v>278</v>
       </c>
-      <c r="C11" s="359">
+      <c r="C11" s="369">
         <f ca="1">C12-D10</f>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="D11" s="360"/>
+      <c r="D11" s="370"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="394" t="s">
+      <c r="I11" s="404" t="s">
         <v>313</v>
       </c>
-      <c r="J11" s="395"/>
+      <c r="J11" s="405"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="314" t="s">
+      <c r="B12" s="313" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="416">
+      <c r="C12" s="426">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="D12" s="417"/>
-      <c r="G12" s="134" t="s">
+      <c r="D12" s="427"/>
+      <c r="G12" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="133"/>
-      <c r="I12" s="135">
-        <v>7.8496658194483659</v>
-      </c>
-      <c r="J12" s="136" t="str">
+      <c r="H12" s="132"/>
+      <c r="I12" s="134">
+        <v>7.8415601380983482</v>
+      </c>
+      <c r="J12" s="135" t="str">
         <f>IF(I11=Dashboard!J4,J4,I11&amp;"/"&amp;Dashboard!J4)</f>
         <v>USD/HKD</v>
       </c>
@@ -4694,132 +4792,132 @@
       <c r="B14" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="127" t="s">
+      <c r="C14" s="126" t="s">
         <v>217</v>
       </c>
-      <c r="D14" s="184">
-        <f ca="1">MIN('FCFF Model'!C29,'FCFF Model'!E29)</f>
-        <v>21.393484598052311</v>
-      </c>
-      <c r="E14" s="127" t="s">
+      <c r="D14" s="183">
+        <f ca="1">MIN('FCFF Model'!C30,'FCFF Model'!E30)</f>
+        <v>21.371393368551981</v>
+      </c>
+      <c r="E14" s="126" t="s">
         <v>234</v>
       </c>
-      <c r="F14" s="184">
-        <f ca="1">MAX('FCFF Model'!C29,'FCFF Model'!E29)</f>
-        <v>38.140660575382157</v>
-      </c>
-      <c r="G14" s="185" t="s">
+      <c r="F14" s="183">
+        <f ca="1">MAX('FCFF Model'!C30,'FCFF Model'!E30)</f>
+        <v>38.101275963576484</v>
+      </c>
+      <c r="G14" s="184" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="193">
-        <f ca="1">IF('FCFF Model'!C32&lt;0, "Error", 'FCFF Model'!C32)</f>
-        <v>31.505446542119149</v>
-      </c>
-      <c r="I14" s="133"/>
-      <c r="J14" s="133"/>
+      <c r="H14" s="192">
+        <f ca="1">IF('FCFF Model'!C33&lt;0, "Error", 'FCFF Model'!C33)</f>
+        <v>31.472913550736543</v>
+      </c>
+      <c r="I14" s="132"/>
+      <c r="J14" s="132"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
-      <c r="B15" s="96"/>
-      <c r="C15" s="238" t="s">
+      <c r="B15" s="95"/>
+      <c r="C15" s="237" t="s">
         <v>250</v>
       </c>
-      <c r="D15" s="89" t="s">
+      <c r="D15" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="89" t="s">
+      <c r="E15" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="89" t="s">
+      <c r="F15" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="139"/>
+      <c r="G15" s="138"/>
       <c r="H15" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="128" t="s">
+      <c r="J15" s="127" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="131">
+      <c r="B16" s="130">
         <f>I4</f>
-        <v>45.7</v>
-      </c>
-      <c r="C16" s="423">
+        <v>45.95</v>
+      </c>
+      <c r="C16" s="433">
         <v>0.1</v>
       </c>
-      <c r="D16" s="159">
+      <c r="D16" s="158">
         <f ca="1">H14/B16-1-C16</f>
-        <v>-0.41060292030373857</v>
-      </c>
-      <c r="E16" s="420">
+        <v>-0.41506172903728966</v>
+      </c>
+      <c r="E16" s="430">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
-        <v>3.6893429351407319</v>
-      </c>
-      <c r="F16" s="161">
+        <v>3.6855332649062236</v>
+      </c>
+      <c r="F16" s="160">
         <f>E16/B16</f>
-        <v>8.0729604707674651E-2</v>
-      </c>
-      <c r="G16" s="389" t="s">
+        <v>8.0207470400570691E-2</v>
+      </c>
+      <c r="G16" s="399" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="386">
+      <c r="H16" s="396">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
-        <v>-5.1527196703235232</v>
-      </c>
-      <c r="I16" s="389" t="s">
+        <v>-5.1473988955677203</v>
+      </c>
+      <c r="I16" s="399" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="206">
+      <c r="J16" s="205">
         <f>B16-$H$16</f>
-        <v>50.852719670323523</v>
+        <v>51.097398895567721</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="290">
+      <c r="B17" s="289">
         <f ca="1">H14/(1+C16)</f>
-        <v>28.641315038290134</v>
-      </c>
-      <c r="C17" s="424"/>
-      <c r="D17" s="289">
+        <v>28.611739591578672</v>
+      </c>
+      <c r="C17" s="434"/>
+      <c r="D17" s="288">
         <f ca="1">H14/B17-1-C16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="421"/>
-      <c r="F17" s="162">
+      <c r="E17" s="431"/>
+      <c r="F17" s="161">
         <f ca="1">E16/B17</f>
-        <v>0.12881192536755054</v>
-      </c>
-      <c r="G17" s="390"/>
-      <c r="H17" s="387"/>
-      <c r="I17" s="390"/>
-      <c r="J17" s="205">
+        <v>0.12881192536755057</v>
+      </c>
+      <c r="G17" s="400"/>
+      <c r="H17" s="397"/>
+      <c r="I17" s="400"/>
+      <c r="J17" s="204">
         <f ca="1">B17-$H$16</f>
-        <v>33.794034708613658</v>
+        <v>33.759138487146394</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="358">
+      <c r="B18" s="357">
         <f ca="1">C35</f>
-        <v>28.641315038290134</v>
-      </c>
-      <c r="C18" s="425"/>
-      <c r="D18" s="160">
+        <v>28.611739591578672</v>
+      </c>
+      <c r="C18" s="435"/>
+      <c r="D18" s="159">
         <f ca="1">H14/B18-1-C16</f>
         <v>0</v>
       </c>
-      <c r="E18" s="422"/>
-      <c r="F18" s="163">
+      <c r="E18" s="432"/>
+      <c r="F18" s="162">
         <f ca="1">E16/B18</f>
-        <v>0.12881192536755054</v>
-      </c>
-      <c r="G18" s="391"/>
-      <c r="H18" s="388"/>
-      <c r="I18" s="391"/>
-      <c r="J18" s="207">
+        <v>0.12881192536755057</v>
+      </c>
+      <c r="G18" s="401"/>
+      <c r="H18" s="398"/>
+      <c r="I18" s="401"/>
+      <c r="J18" s="206">
         <f ca="1">B18-$H$16</f>
-        <v>33.794034708613658</v>
+        <v>33.759138487146394</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -4834,10 +4932,10 @@
       <c r="C20" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="D20" s="291" t="s">
+      <c r="D20" s="290" t="s">
         <v>270</v>
       </c>
-      <c r="E20" s="266" t="s">
+      <c r="E20" s="265" t="s">
         <v>264</v>
       </c>
       <c r="G20" s="6"/>
@@ -4850,42 +4948,42 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="375"/>
-      <c r="D21" s="376"/>
-      <c r="E21" s="376"/>
-      <c r="F21" s="376"/>
-      <c r="G21" s="376"/>
-      <c r="H21" s="376"/>
-      <c r="I21" s="376"/>
-      <c r="J21" s="377"/>
+      <c r="C21" s="385"/>
+      <c r="D21" s="386"/>
+      <c r="E21" s="386"/>
+      <c r="F21" s="386"/>
+      <c r="G21" s="386"/>
+      <c r="H21" s="386"/>
+      <c r="I21" s="386"/>
+      <c r="J21" s="387"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="393"/>
-      <c r="D22" s="364"/>
-      <c r="E22" s="364"/>
-      <c r="F22" s="364"/>
-      <c r="G22" s="393"/>
-      <c r="H22" s="393"/>
-      <c r="I22" s="364"/>
-      <c r="J22" s="364"/>
+      <c r="C22" s="403"/>
+      <c r="D22" s="374"/>
+      <c r="E22" s="374"/>
+      <c r="F22" s="374"/>
+      <c r="G22" s="403"/>
+      <c r="H22" s="403"/>
+      <c r="I22" s="374"/>
+      <c r="J22" s="374"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="378"/>
-      <c r="D23" s="379"/>
-      <c r="E23" s="379"/>
-      <c r="F23" s="379"/>
-      <c r="G23" s="378"/>
-      <c r="H23" s="378"/>
-      <c r="I23" s="379"/>
-      <c r="J23" s="379"/>
+      <c r="C23" s="388"/>
+      <c r="D23" s="389"/>
+      <c r="E23" s="389"/>
+      <c r="F23" s="389"/>
+      <c r="G23" s="388"/>
+      <c r="H23" s="388"/>
+      <c r="I23" s="389"/>
+      <c r="J23" s="389"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -4914,246 +5012,382 @@
         <v>324</v>
       </c>
       <c r="G25" s="12"/>
-      <c r="H25" s="356">
+      <c r="H25" s="355">
         <v>0.15</v>
       </c>
       <c r="I25" s="30" t="s">
         <v>325</v>
       </c>
-      <c r="J25" s="357">
+      <c r="J25" s="356">
         <f ca="1">H14/(H25+C16+1)</f>
-        <v>25.204357233695319</v>
+        <v>25.178330840589233</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="373"/>
-      <c r="D26" s="374"/>
-      <c r="E26" s="426" t="str">
+      <c r="C26" s="383"/>
+      <c r="D26" s="384"/>
+      <c r="E26" s="436" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v/>
       </c>
-      <c r="F26" s="427"/>
-      <c r="G26" s="427"/>
-      <c r="H26" s="428"/>
-      <c r="I26" s="392" t="s">
+      <c r="F26" s="437"/>
+      <c r="G26" s="437"/>
+      <c r="H26" s="438"/>
+      <c r="I26" s="402" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="392"/>
+      <c r="J26" s="402"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="419">
+      <c r="C27" s="429">
         <f ca="1">C31/D25</f>
-        <v>0.14320657519145066</v>
-      </c>
-      <c r="D27" s="399"/>
-      <c r="E27" s="418">
+        <v>0.14305869795789336</v>
+      </c>
+      <c r="D27" s="409"/>
+      <c r="E27" s="428">
         <f>E31/D25</f>
         <v>0</v>
       </c>
-      <c r="F27" s="399"/>
-      <c r="G27" s="403">
+      <c r="F27" s="409"/>
+      <c r="G27" s="413">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="404"/>
-      <c r="I27" s="402">
+      <c r="H27" s="414"/>
+      <c r="I27" s="412">
         <f ca="1">C27+E27+G27</f>
-        <v>0.14320657519145066</v>
-      </c>
-      <c r="J27" s="402"/>
+        <v>0.14305869795789336</v>
+      </c>
+      <c r="J27" s="412"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="363">
+      <c r="C28" s="373">
         <v>3000</v>
       </c>
-      <c r="D28" s="364"/>
-      <c r="E28" s="363"/>
-      <c r="F28" s="364"/>
-      <c r="G28" s="382"/>
-      <c r="H28" s="383"/>
-      <c r="I28" s="411">
+      <c r="D28" s="374"/>
+      <c r="E28" s="373"/>
+      <c r="F28" s="374"/>
+      <c r="G28" s="392"/>
+      <c r="H28" s="393"/>
+      <c r="I28" s="421">
         <f>C28+E28+G28</f>
         <v>3000</v>
       </c>
-      <c r="J28" s="411"/>
+      <c r="J28" s="421"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="365">
+      <c r="C29" s="375">
         <f ca="1">B17</f>
-        <v>28.641315038290134</v>
-      </c>
-      <c r="D29" s="364"/>
-      <c r="E29" s="365"/>
-      <c r="F29" s="364"/>
-      <c r="G29" s="405"/>
-      <c r="H29" s="406"/>
-      <c r="I29" s="409"/>
-      <c r="J29" s="409"/>
+        <v>28.611739591578672</v>
+      </c>
+      <c r="D29" s="374"/>
+      <c r="E29" s="375"/>
+      <c r="F29" s="374"/>
+      <c r="G29" s="415"/>
+      <c r="H29" s="416"/>
+      <c r="I29" s="419"/>
+      <c r="J29" s="419"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="361">
+      <c r="C30" s="371">
         <f ca="1">C29*$I$5/1000000</f>
-        <v>7237.7175928059933</v>
-      </c>
-      <c r="D30" s="362"/>
-      <c r="E30" s="361">
+        <v>7230.243818271113</v>
+      </c>
+      <c r="D30" s="372"/>
+      <c r="E30" s="371">
         <f>E29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="F30" s="362"/>
-      <c r="G30" s="407">
+      <c r="F30" s="372"/>
+      <c r="G30" s="417">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="408"/>
-      <c r="I30" s="410"/>
-      <c r="J30" s="410"/>
+      <c r="H30" s="418"/>
+      <c r="I30" s="420"/>
+      <c r="J30" s="420"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="435">
+      <c r="C31" s="445">
         <f ca="1">C28*C29</f>
-        <v>85923.945114870396</v>
-      </c>
-      <c r="D31" s="436"/>
-      <c r="E31" s="396">
+        <v>85835.218774736015</v>
+      </c>
+      <c r="D31" s="446"/>
+      <c r="E31" s="406">
         <f>E28*E29</f>
         <v>0</v>
       </c>
-      <c r="F31" s="397"/>
-      <c r="G31" s="366">
+      <c r="F31" s="407"/>
+      <c r="G31" s="376">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="367"/>
-      <c r="I31" s="396">
+      <c r="H31" s="377"/>
+      <c r="I31" s="406">
         <f ca="1">C31+E31+G31</f>
-        <v>85923.945114870396</v>
-      </c>
-      <c r="J31" s="396"/>
+        <v>85835.218774736015</v>
+      </c>
+      <c r="J31" s="406"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="431"/>
-      <c r="D32" s="432"/>
-      <c r="E32" s="398">
+      <c r="C32" s="441"/>
+      <c r="D32" s="442"/>
+      <c r="E32" s="408">
         <f ca="1">IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
-        <v>28.641315038290131</v>
-      </c>
-      <c r="F32" s="399"/>
-      <c r="G32" s="117"/>
-      <c r="H32" s="117"/>
-      <c r="I32" s="398">
+        <v>28.611739591578672</v>
+      </c>
+      <c r="F32" s="409"/>
+      <c r="G32" s="116"/>
+      <c r="H32" s="116"/>
+      <c r="I32" s="408">
         <f ca="1">IF(I31=0,"",I31/I28)</f>
-        <v>28.641315038290131</v>
-      </c>
-      <c r="J32" s="398"/>
+        <v>28.611739591578672</v>
+      </c>
+      <c r="J32" s="408"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="433"/>
-      <c r="D33" s="434"/>
-      <c r="E33" s="361">
+      <c r="C33" s="443"/>
+      <c r="D33" s="444"/>
+      <c r="E33" s="371">
         <f ca="1">IF(E32="-","-",E32*$I$5/1000000)</f>
-        <v>7237.7175928059933</v>
-      </c>
-      <c r="F33" s="362"/>
-      <c r="G33" s="118"/>
-      <c r="H33" s="118"/>
-      <c r="I33" s="361">
+        <v>7230.243818271113</v>
+      </c>
+      <c r="F33" s="372"/>
+      <c r="G33" s="117"/>
+      <c r="H33" s="117"/>
+      <c r="I33" s="371">
         <f ca="1">IF(I32="","",I32*$I$5/1000000)</f>
-        <v>7237.7175928059933</v>
-      </c>
-      <c r="J33" s="361"/>
+        <v>7230.243818271113</v>
+      </c>
+      <c r="J33" s="371"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="146" t="s">
+      <c r="B35" s="145" t="s">
         <v>326</v>
       </c>
-      <c r="C35" s="400">
+      <c r="C35" s="410">
         <f ca="1">C29</f>
-        <v>28.641315038290134</v>
-      </c>
-      <c r="D35" s="401"/>
-      <c r="G35" s="429" t="s">
+        <v>28.611739591578672</v>
+      </c>
+      <c r="D35" s="411"/>
+      <c r="G35" s="439" t="s">
         <v>327</v>
       </c>
-      <c r="H35" s="430"/>
-      <c r="I35" s="400">
-        <f ca="1">'FCFF Model'!C33</f>
-        <v>44.074495330312914</v>
-      </c>
-      <c r="J35" s="401"/>
+      <c r="H35" s="440"/>
+      <c r="I35" s="410">
+        <f ca="1">'FCFF Model'!C34</f>
+        <v>44.028983352729711</v>
+      </c>
+      <c r="J35" s="411"/>
     </row>
     <row r="36" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="146" t="s">
+      <c r="B36" s="145" t="s">
         <v>328</v>
       </c>
-      <c r="C36" s="363">
+      <c r="C36" s="373">
         <f>C28</f>
         <v>3000</v>
       </c>
-      <c r="D36" s="415"/>
-      <c r="G36" s="412" t="s">
+      <c r="D36" s="425"/>
+      <c r="G36" s="422" t="s">
         <v>332</v>
       </c>
-      <c r="H36" s="412"/>
-      <c r="I36" s="413">
+      <c r="H36" s="422"/>
+      <c r="I36" s="423">
         <f>IF(C26="",0,I35/C29-1)</f>
         <v>0</v>
       </c>
-      <c r="J36" s="414"/>
+      <c r="J36" s="424"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="G38" s="345" t="s">
+        <v>141</v>
+      </c>
+      <c r="H38" s="132"/>
+      <c r="I38" s="132"/>
+      <c r="J38" s="132"/>
+    </row>
+    <row r="39" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="F39" s="213">
+        <f>'Qualitative Analysis'!E8</f>
+        <v>0.72</v>
+      </c>
+      <c r="G39" s="358"/>
+      <c r="H39" s="115"/>
+      <c r="I39" s="115"/>
+      <c r="J39" s="115"/>
+    </row>
+    <row r="40" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="F40" s="213">
+        <f>80%-(5%*IF(LEFT(D20,2)="St",1,IF(LEFT(D20,2)="Sl",2,IF(LEFT(D20,2)="Cy",3,IF(LEFT(D20,2)="Fa",4,IF(LEFT(D20,2)="Tu",5,0))))))</f>
+        <v>0.65</v>
+      </c>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="74"/>
+    </row>
+    <row r="41" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E41" s="359"/>
+      <c r="F41" s="360">
+        <f>'Qualitative Analysis'!E64</f>
+        <v>0.60380102040816319</v>
+      </c>
+      <c r="G41" s="358" t="s">
+        <v>337</v>
+      </c>
+      <c r="H41" s="115"/>
+      <c r="I41" s="115"/>
+      <c r="J41" s="115"/>
+    </row>
+    <row r="42" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E42" s="359">
+        <f ca="1">IF(F42="Strongly disagree",0,IF(F42="disagree",1,IF(F42="So-so",2,IF(F42="agree",3,4))))/4</f>
+        <v>1</v>
+      </c>
+      <c r="F42" s="101" t="str">
+        <f ca="1">IF(F45&lt;D10,"Strongly Disagree",IF(F45&lt;10%,"Disagree",IF(F45&gt;=30%,"Strongly Agree",IF(F45&gt;=20%,"Agree","So-so"))))</f>
+        <v>Strongly Agree</v>
+      </c>
+      <c r="G42" s="74" t="s">
+        <v>339</v>
+      </c>
+      <c r="H42" s="74"/>
+      <c r="I42" s="74"/>
+      <c r="J42" s="74"/>
+    </row>
+    <row r="43" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="F43" s="361">
+        <v>0.8</v>
+      </c>
+      <c r="G43" s="115" t="s">
+        <v>347</v>
+      </c>
+      <c r="H43" s="115"/>
+      <c r="I43" s="115"/>
+      <c r="J43" s="115"/>
+    </row>
     <row r="44" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F45" s="360">
+        <f ca="1">I35/C29-1</f>
+        <v>0.53884328535161186</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F46" s="360">
+        <f ca="1">D14/C29-1</f>
+        <v>-0.25305508600245163</v>
+      </c>
+    </row>
     <row r="47" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="F48" s="213">
+        <f ca="1">IF(F45&lt;=0,0,AVERAGE(F39:F41,1-F43,E42))</f>
+        <v>0.6347602040816327</v>
+      </c>
+      <c r="G48" s="74"/>
+    </row>
+    <row r="49" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="E49" s="362">
+        <f ca="1">F45/ABS(F46)</f>
+        <v>2.1293517307389407</v>
+      </c>
+      <c r="F49" s="363">
+        <f ca="1">IF(F46&gt;=0,100,F45/ABS(F46))</f>
+        <v>2.1293517307389407</v>
+      </c>
+      <c r="G49" s="74"/>
+    </row>
+    <row r="50" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E50" s="106">
+        <f ca="1">MAX(F48-ABS((1-F48)/F49),0)/2</f>
+        <v>0.23161695858127629</v>
+      </c>
+      <c r="F50" s="364">
+        <f ca="1">MIN(E50,H50)</f>
+        <v>0.23161695858127629</v>
+      </c>
+      <c r="G50" s="365" t="s">
+        <v>346</v>
+      </c>
+      <c r="H50" s="78">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6114,51 +6348,56 @@
     <mergeCell ref="E28:F28"/>
   </mergeCells>
   <conditionalFormatting sqref="C35:D36">
-    <cfRule type="containsBlanks" priority="5">
+    <cfRule type="containsBlanks" priority="6">
       <formula>LEN(TRIM(C35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:E26">
-    <cfRule type="containsBlanks" priority="3">
+    <cfRule type="containsBlanks" priority="4">
       <formula>LEN(TRIM(C26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:G29 I26 I28:I29">
-    <cfRule type="containsBlanks" priority="18">
+    <cfRule type="containsBlanks" priority="19">
       <formula>LEN(TRIM(C26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16 D18">
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:H26">
-    <cfRule type="containsBlanks" dxfId="15" priority="2">
+    <cfRule type="containsBlanks" dxfId="16" priority="3">
       <formula>LEN(TRIM(E26))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F49">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="12" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:J36">
-    <cfRule type="containsBlanks" priority="1">
+    <cfRule type="containsBlanks" priority="2">
       <formula>LEN(TRIM(I35))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" sqref="I3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"HK,US:NASDAQ,CN"</formula1>
     </dataValidation>
@@ -6170,6 +6409,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20" xr:uid="{653EE4BA-4D98-4EE5-AD27-D0955626562F}">
       <formula1>"Slow Growers, Stalwarts, Fast Growers, Cyclicals, Turnarounds, Asset Plays "</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F42" xr:uid="{4FA1B866-613F-4D9F-B2E4-3DE6DE89A5F1}">
+      <formula1>"Strongly agree,agree,So-so,disagree,Strongly disagree"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -6229,21 +6471,21 @@
       <c r="B3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="149">
+      <c r="C3" s="148">
         <v>44651</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="179">
+      <c r="E3" s="178">
         <v>1</v>
       </c>
-      <c r="F3" s="177">
+      <c r="F3" s="176">
         <f t="array" ref="F3">AVERAGE(C19:INDEX(C19:M19,1,E3))</f>
         <v>172700</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="174"/>
+      <c r="J3" s="173"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
@@ -6261,7 +6503,7 @@
         <f>E3</f>
         <v>1</v>
       </c>
-      <c r="F4" s="178">
+      <c r="F4" s="177">
         <f>AVERAGE(C16:INDEX(C16:M16,1,E4))</f>
         <v>288600</v>
       </c>
@@ -6279,47 +6521,47 @@
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="42"/>
-      <c r="C6" s="279">
+      <c r="C6" s="278">
         <f>C3</f>
         <v>44651</v>
       </c>
-      <c r="D6" s="280">
+      <c r="D6" s="279">
         <f>EOMONTH(EDATE(C6,-12),0)</f>
         <v>44286</v>
       </c>
-      <c r="E6" s="280">
+      <c r="E6" s="279">
         <f t="shared" ref="E6:M6" si="0">EOMONTH(EDATE(D6,-12),0)</f>
         <v>43921</v>
       </c>
-      <c r="F6" s="280">
+      <c r="F6" s="279">
         <f t="shared" si="0"/>
         <v>43555</v>
       </c>
-      <c r="G6" s="280">
+      <c r="G6" s="279">
         <f t="shared" si="0"/>
         <v>43190</v>
       </c>
-      <c r="H6" s="280">
+      <c r="H6" s="279">
         <f t="shared" si="0"/>
         <v>42825</v>
       </c>
-      <c r="I6" s="280">
+      <c r="I6" s="279">
         <f t="shared" si="0"/>
         <v>42460</v>
       </c>
-      <c r="J6" s="280">
+      <c r="J6" s="279">
         <f t="shared" si="0"/>
         <v>42094</v>
       </c>
-      <c r="K6" s="280">
+      <c r="K6" s="279">
         <f t="shared" si="0"/>
         <v>41729</v>
       </c>
-      <c r="L6" s="280">
+      <c r="L6" s="279">
         <f t="shared" si="0"/>
         <v>41364</v>
       </c>
-      <c r="M6" s="280">
+      <c r="M6" s="279">
         <f t="shared" si="0"/>
         <v>40999</v>
       </c>
@@ -6347,7 +6589,7 @@
       <c r="J7" s="35"/>
       <c r="K7" s="35"/>
       <c r="L7" s="35"/>
-      <c r="M7" s="241"/>
+      <c r="M7" s="240"/>
       <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6395,7 +6637,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M8" s="210"/>
+      <c r="M8" s="209"/>
       <c r="N8" s="6"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6421,7 +6663,7 @@
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
       <c r="L9" s="35"/>
-      <c r="M9" s="241"/>
+      <c r="M9" s="240"/>
       <c r="N9" s="6"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6469,7 +6711,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M10" s="210" t="str">
+      <c r="M10" s="209" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6498,7 +6740,7 @@
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
       <c r="L11" s="35"/>
-      <c r="M11" s="241"/>
+      <c r="M11" s="240"/>
       <c r="N11" s="6"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6546,7 +6788,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M12" s="210" t="str">
+      <c r="M12" s="209" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6597,7 +6839,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M13" s="210" t="str">
+      <c r="M13" s="209" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6648,7 +6890,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M14" s="242" t="str">
+      <c r="M14" s="241" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6699,7 +6941,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M15" s="210" t="str">
+      <c r="M15" s="209" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6710,47 +6952,47 @@
       <c r="B16" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="143">
+      <c r="C16" s="142">
         <f>IF(C14="","",C14*(1-Operation!$D$29))</f>
         <v>288600</v>
       </c>
-      <c r="D16" s="143">
+      <c r="D16" s="142">
         <f>IF(D14="","",D14*(1-Operation!$D$29))</f>
         <v>348400</v>
       </c>
-      <c r="E16" s="143">
+      <c r="E16" s="142">
         <f>IF(E14="","",E14*(1-Operation!$D$29))</f>
         <v>295500</v>
       </c>
-      <c r="F16" s="143">
+      <c r="F16" s="142">
         <f>IF(F14="","",F14*(1-Operation!$D$29))</f>
         <v>264500</v>
       </c>
-      <c r="G16" s="143" t="str">
+      <c r="G16" s="142" t="str">
         <f>IF(G14="","",G14*(1-Operation!$D$29))</f>
         <v/>
       </c>
-      <c r="H16" s="143" t="str">
+      <c r="H16" s="142" t="str">
         <f>IF(H14="","",H14*(1-Operation!$D$29))</f>
         <v/>
       </c>
-      <c r="I16" s="143" t="str">
+      <c r="I16" s="142" t="str">
         <f>IF(I14="","",I14*(1-Operation!$D$29))</f>
         <v/>
       </c>
-      <c r="J16" s="143" t="str">
+      <c r="J16" s="142" t="str">
         <f>IF(J14="","",J14*(1-Operation!$D$29))</f>
         <v/>
       </c>
-      <c r="K16" s="143" t="str">
+      <c r="K16" s="142" t="str">
         <f>IF(K14="","",K14*(1-Operation!$D$29))</f>
         <v/>
       </c>
-      <c r="L16" s="143" t="str">
+      <c r="L16" s="142" t="str">
         <f>IF(L14="","",L14*(1-Operation!$D$29))</f>
         <v/>
       </c>
-      <c r="M16" s="243" t="str">
+      <c r="M16" s="242" t="str">
         <f>IF(M14="","",M14*(1-Operation!$D$29))</f>
         <v/>
       </c>
@@ -6758,50 +7000,50 @@
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
-      <c r="B17" s="142" t="s">
+      <c r="B17" s="141" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="129">
+      <c r="C17" s="128">
         <f t="shared" ref="C17:M17" si="7">IF(C7="","",C16/C7)</f>
         <v>0.12174646699008648</v>
       </c>
-      <c r="D17" s="129">
+      <c r="D17" s="128">
         <f t="shared" si="7"/>
         <v>0.14686169540108754</v>
       </c>
-      <c r="E17" s="129">
+      <c r="E17" s="128">
         <f t="shared" si="7"/>
         <v>0.13645809281921034</v>
       </c>
-      <c r="F17" s="129">
+      <c r="F17" s="128">
         <f t="shared" si="7"/>
         <v>0.1223460844627411</v>
       </c>
-      <c r="G17" s="129" t="str">
+      <c r="G17" s="128" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H17" s="129" t="str">
+      <c r="H17" s="128" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I17" s="129" t="str">
+      <c r="I17" s="128" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J17" s="129" t="str">
+      <c r="J17" s="128" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K17" s="129" t="str">
+      <c r="K17" s="128" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L17" s="129" t="str">
+      <c r="L17" s="128" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M17" s="244" t="str">
+      <c r="M17" s="243" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6812,25 +7054,25 @@
       <c r="B18" s="44" t="s">
         <v>257</v>
       </c>
-      <c r="C18" s="144">
+      <c r="C18" s="143">
         <v>9600</v>
       </c>
-      <c r="D18" s="144">
+      <c r="D18" s="143">
         <v>7300</v>
       </c>
-      <c r="E18" s="144">
+      <c r="E18" s="143">
         <v>7400</v>
       </c>
-      <c r="F18" s="144">
+      <c r="F18" s="143">
         <v>0</v>
       </c>
-      <c r="G18" s="144"/>
-      <c r="H18" s="144"/>
-      <c r="I18" s="144"/>
-      <c r="J18" s="144"/>
-      <c r="K18" s="144"/>
-      <c r="L18" s="144"/>
-      <c r="M18" s="245"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="143"/>
+      <c r="I18" s="143"/>
+      <c r="J18" s="143"/>
+      <c r="K18" s="143"/>
+      <c r="L18" s="143"/>
+      <c r="M18" s="244"/>
       <c r="N18" s="6"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6856,7 +7098,7 @@
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
       <c r="L19" s="35"/>
-      <c r="M19" s="241"/>
+      <c r="M19" s="240"/>
       <c r="N19" s="6"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6904,7 +7146,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M20" s="210" t="str">
+      <c r="M20" s="209" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6915,7 +7157,7 @@
       <c r="B21" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="176">
+      <c r="C21" s="175">
         <v>1142200</v>
       </c>
       <c r="D21" s="35">
@@ -6933,7 +7175,7 @@
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
       <c r="L21" s="35"/>
-      <c r="M21" s="241"/>
+      <c r="M21" s="240"/>
       <c r="N21" s="6"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6941,7 +7183,7 @@
       <c r="B22" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="176">
+      <c r="C22" s="175">
         <v>628000</v>
       </c>
       <c r="D22" s="35">
@@ -6959,7 +7201,7 @@
       <c r="J22" s="35"/>
       <c r="K22" s="35"/>
       <c r="L22" s="35"/>
-      <c r="M22" s="241"/>
+      <c r="M22" s="240"/>
       <c r="N22" s="6"/>
     </row>
     <row r="23" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -6967,7 +7209,7 @@
       <c r="B23" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="176">
+      <c r="C23" s="175">
         <v>20600</v>
       </c>
       <c r="D23" s="35">
@@ -6985,33 +7227,33 @@
       <c r="J23" s="35"/>
       <c r="K23" s="35"/>
       <c r="L23" s="35"/>
-      <c r="M23" s="241"/>
+      <c r="M23" s="240"/>
       <c r="N23" s="6"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
-      <c r="B24" s="141" t="s">
+      <c r="B24" s="140" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="273">
+      <c r="C24" s="272">
         <v>20600</v>
       </c>
-      <c r="D24" s="140">
+      <c r="D24" s="139">
         <v>17500</v>
       </c>
-      <c r="E24" s="140">
+      <c r="E24" s="139">
         <v>17900</v>
       </c>
-      <c r="F24" s="140">
+      <c r="F24" s="139">
         <v>0</v>
       </c>
-      <c r="G24" s="140"/>
-      <c r="H24" s="140"/>
-      <c r="I24" s="140"/>
-      <c r="J24" s="140"/>
-      <c r="K24" s="140"/>
-      <c r="L24" s="140"/>
-      <c r="M24" s="246"/>
+      <c r="G24" s="139"/>
+      <c r="H24" s="139"/>
+      <c r="I24" s="139"/>
+      <c r="J24" s="139"/>
+      <c r="K24" s="139"/>
+      <c r="L24" s="139"/>
+      <c r="M24" s="245"/>
       <c r="N24" s="6"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7019,7 +7261,7 @@
       <c r="B25" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="176">
+      <c r="C25" s="175">
         <v>176500</v>
       </c>
       <c r="D25" s="35">
@@ -7037,33 +7279,33 @@
       <c r="J25" s="35"/>
       <c r="K25" s="35"/>
       <c r="L25" s="35"/>
-      <c r="M25" s="241"/>
+      <c r="M25" s="240"/>
       <c r="N25" s="6"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
-      <c r="B26" s="141" t="s">
+      <c r="B26" s="140" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="175">
+      <c r="C26" s="174">
         <v>176500</v>
       </c>
-      <c r="D26" s="140">
+      <c r="D26" s="139">
         <v>188600</v>
       </c>
-      <c r="E26" s="140">
+      <c r="E26" s="139">
         <v>147300</v>
       </c>
-      <c r="F26" s="140">
+      <c r="F26" s="139">
         <v>0</v>
       </c>
-      <c r="G26" s="140"/>
-      <c r="H26" s="140"/>
-      <c r="I26" s="140"/>
-      <c r="J26" s="140"/>
-      <c r="K26" s="140"/>
-      <c r="L26" s="140"/>
-      <c r="M26" s="246"/>
+      <c r="G26" s="139"/>
+      <c r="H26" s="139"/>
+      <c r="I26" s="139"/>
+      <c r="J26" s="139"/>
+      <c r="K26" s="139"/>
+      <c r="L26" s="139"/>
+      <c r="M26" s="245"/>
       <c r="N26" s="6"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7111,7 +7353,7 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M27" s="242" t="str">
+      <c r="M27" s="241" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7122,7 +7364,7 @@
       <c r="B28" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="176">
+      <c r="C28" s="175">
         <v>678800</v>
       </c>
       <c r="D28" s="35">
@@ -7140,33 +7382,33 @@
       <c r="J28" s="35"/>
       <c r="K28" s="35"/>
       <c r="L28" s="35"/>
-      <c r="M28" s="241"/>
+      <c r="M28" s="240"/>
       <c r="N28" s="6"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
-      <c r="B29" s="141" t="s">
+      <c r="B29" s="140" t="s">
         <v>211</v>
       </c>
-      <c r="C29" s="175">
+      <c r="C29" s="174">
         <v>678800</v>
       </c>
-      <c r="D29" s="140">
+      <c r="D29" s="139">
         <v>731100</v>
       </c>
-      <c r="E29" s="140">
+      <c r="E29" s="139">
         <v>601500</v>
       </c>
-      <c r="F29" s="140">
+      <c r="F29" s="139">
         <v>607000</v>
       </c>
-      <c r="G29" s="140"/>
-      <c r="H29" s="140"/>
-      <c r="I29" s="140"/>
-      <c r="J29" s="140"/>
-      <c r="K29" s="140"/>
-      <c r="L29" s="140"/>
-      <c r="M29" s="246"/>
+      <c r="G29" s="139"/>
+      <c r="H29" s="139"/>
+      <c r="I29" s="139"/>
+      <c r="J29" s="139"/>
+      <c r="K29" s="139"/>
+      <c r="L29" s="139"/>
+      <c r="M29" s="245"/>
       <c r="N29" s="6"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7174,7 +7416,7 @@
       <c r="B30" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="176">
+      <c r="C30" s="175">
         <v>268100</v>
       </c>
       <c r="D30" s="35">
@@ -7192,7 +7434,7 @@
       <c r="J30" s="35"/>
       <c r="K30" s="35"/>
       <c r="L30" s="35"/>
-      <c r="M30" s="241"/>
+      <c r="M30" s="240"/>
       <c r="N30" s="6"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7200,7 +7442,7 @@
       <c r="B31" s="44" t="s">
         <v>235</v>
       </c>
-      <c r="C31" s="176">
+      <c r="C31" s="175">
         <v>195800</v>
       </c>
       <c r="D31" s="35">
@@ -7218,7 +7460,7 @@
       <c r="J31" s="35"/>
       <c r="K31" s="35"/>
       <c r="L31" s="35"/>
-      <c r="M31" s="241"/>
+      <c r="M31" s="240"/>
       <c r="N31" s="6"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7266,7 +7508,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M32" s="210" t="str">
+      <c r="M32" s="209" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7277,47 +7519,47 @@
       <c r="B33" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="248">
+      <c r="C33" s="247">
         <f>IF(D7="","",(C7-D7)*Asset_Model!$D$65)</f>
         <v>-250.73191309850242</v>
       </c>
-      <c r="D33" s="248">
+      <c r="D33" s="247">
         <f>IF(E7="","",(D7-E7)*Asset_Model!$D$65)</f>
         <v>28806.310904872389</v>
       </c>
-      <c r="E33" s="248">
+      <c r="E33" s="247">
         <f>IF(F7="","",(E7-F7)*Asset_Model!$D$65)</f>
         <v>501.46382619700483</v>
       </c>
-      <c r="F33" s="248" t="str">
+      <c r="F33" s="247" t="str">
         <f>IF(G7="","",(F7-G7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
-      <c r="G33" s="248" t="str">
+      <c r="G33" s="247" t="str">
         <f>IF(H7="","",(G7-H7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
-      <c r="H33" s="248" t="str">
+      <c r="H33" s="247" t="str">
         <f>IF(I7="","",(H7-I7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
-      <c r="I33" s="248" t="str">
+      <c r="I33" s="247" t="str">
         <f>IF(J7="","",(I7-J7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
-      <c r="J33" s="248" t="str">
+      <c r="J33" s="247" t="str">
         <f>IF(K7="","",(J7-K7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
-      <c r="K33" s="248" t="str">
+      <c r="K33" s="247" t="str">
         <f>IF(L7="","",(K7-L7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
-      <c r="L33" s="248" t="str">
+      <c r="L33" s="247" t="str">
         <f>IF(M7="","",(L7-M7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
-      <c r="M33" s="249" t="str">
+      <c r="M33" s="248" t="str">
         <f>IF(N7="","",(M7-N7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
@@ -7328,47 +7570,47 @@
       <c r="B34" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="143">
+      <c r="C34" s="142">
         <f>IF(D7="","",C30-D30+C33+IF($C$49="Yes",C51,0))</f>
         <v>-17450.731913098502</v>
       </c>
-      <c r="D34" s="143">
+      <c r="D34" s="142">
         <f>IF(E7="","",D30-E30+D33+IF($C$49="Yes",D51,0))</f>
         <v>81906.310904872385</v>
       </c>
-      <c r="E34" s="143">
+      <c r="E34" s="142">
         <f t="shared" ref="E34:F34" si="11">IF(F7="","",E30-F30+E33+IF($C$49="Yes",E51,0))</f>
         <v>143901.463826197</v>
       </c>
-      <c r="F34" s="143" t="str">
+      <c r="F34" s="142" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="G34" s="143" t="str">
+      <c r="G34" s="142" t="str">
         <f t="shared" ref="G34" si="12">IF(H7="","",G30-H30+G33+IF($C$49="Yes",G51,0))</f>
         <v/>
       </c>
-      <c r="H34" s="143" t="str">
+      <c r="H34" s="142" t="str">
         <f t="shared" ref="H34" si="13">IF(I7="","",H30-I30+H33+IF($C$49="Yes",H51,0))</f>
         <v/>
       </c>
-      <c r="I34" s="143" t="str">
+      <c r="I34" s="142" t="str">
         <f t="shared" ref="I34" si="14">IF(J7="","",I30-J30+I33+IF($C$49="Yes",I51,0))</f>
         <v/>
       </c>
-      <c r="J34" s="143" t="str">
+      <c r="J34" s="142" t="str">
         <f t="shared" ref="J34" si="15">IF(K7="","",J30-K30+J33+IF($C$49="Yes",J51,0))</f>
         <v/>
       </c>
-      <c r="K34" s="143" t="str">
+      <c r="K34" s="142" t="str">
         <f t="shared" ref="K34" si="16">IF(L7="","",K30-L30+K33+IF($C$49="Yes",K51,0))</f>
         <v/>
       </c>
-      <c r="L34" s="143" t="str">
+      <c r="L34" s="142" t="str">
         <f t="shared" ref="L34" si="17">IF(M7="","",L30-M30+L33+IF($C$49="Yes",L51,0))</f>
         <v/>
       </c>
-      <c r="M34" s="342" t="str">
+      <c r="M34" s="341" t="str">
         <f t="shared" ref="M34" si="18">IF(N7="","",M30-N30+M33+IF($C$49="Yes",M51,0))</f>
         <v/>
       </c>
@@ -7376,50 +7618,50 @@
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9"/>
-      <c r="B35" s="247" t="s">
+      <c r="B35" s="246" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="239">
+      <c r="C35" s="238">
         <f t="shared" ref="C35:M35" si="19">IF(C34="","",C34/C16)</f>
         <v>-6.0466846545732852E-2</v>
       </c>
-      <c r="D35" s="239">
+      <c r="D35" s="238">
         <f t="shared" si="19"/>
         <v>0.23509274082914003</v>
       </c>
-      <c r="E35" s="239">
+      <c r="E35" s="238">
         <f t="shared" si="19"/>
         <v>0.48697618892114042</v>
       </c>
-      <c r="F35" s="239" t="str">
+      <c r="F35" s="238" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="G35" s="239" t="str">
+      <c r="G35" s="238" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="H35" s="239" t="str">
+      <c r="H35" s="238" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I35" s="239" t="str">
+      <c r="I35" s="238" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J35" s="239" t="str">
+      <c r="J35" s="238" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="K35" s="239" t="str">
+      <c r="K35" s="238" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="L35" s="239" t="str">
+      <c r="L35" s="238" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="M35" s="240" t="str">
+      <c r="M35" s="239" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
@@ -7445,102 +7687,102 @@
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
-      <c r="B37" s="168" t="s">
+      <c r="B37" s="167" t="s">
         <v>258</v>
       </c>
-      <c r="C37" s="165">
+      <c r="C37" s="164">
         <v>229700</v>
       </c>
-      <c r="D37" s="165">
+      <c r="D37" s="164">
         <v>133600</v>
       </c>
-      <c r="E37" s="165">
+      <c r="E37" s="164">
         <v>168700</v>
       </c>
-      <c r="F37" s="165">
+      <c r="F37" s="164">
         <v>201300</v>
       </c>
-      <c r="G37" s="165"/>
-      <c r="H37" s="165"/>
-      <c r="I37" s="165"/>
-      <c r="J37" s="165"/>
-      <c r="K37" s="165"/>
-      <c r="L37" s="165"/>
-      <c r="M37" s="166"/>
+      <c r="G37" s="164"/>
+      <c r="H37" s="164"/>
+      <c r="I37" s="164"/>
+      <c r="J37" s="164"/>
+      <c r="K37" s="164"/>
+      <c r="L37" s="164"/>
+      <c r="M37" s="165"/>
       <c r="N37" s="6"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
-      <c r="B38" s="142" t="s">
+      <c r="B38" s="141" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="164">
+      <c r="C38" s="163">
         <v>1600</v>
       </c>
-      <c r="D38" s="164">
+      <c r="D38" s="163">
         <v>2300</v>
       </c>
-      <c r="E38" s="164">
+      <c r="E38" s="163">
         <v>1200</v>
       </c>
-      <c r="F38" s="164">
+      <c r="F38" s="163">
         <v>3400</v>
       </c>
-      <c r="G38" s="164"/>
-      <c r="H38" s="164"/>
-      <c r="I38" s="164"/>
-      <c r="J38" s="164"/>
-      <c r="K38" s="164"/>
-      <c r="L38" s="164"/>
-      <c r="M38" s="167"/>
+      <c r="G38" s="163"/>
+      <c r="H38" s="163"/>
+      <c r="I38" s="163"/>
+      <c r="J38" s="163"/>
+      <c r="K38" s="163"/>
+      <c r="L38" s="163"/>
+      <c r="M38" s="166"/>
       <c r="N38" s="6"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
-      <c r="B39" s="142" t="s">
+      <c r="B39" s="141" t="s">
         <v>207</v>
       </c>
-      <c r="C39" s="170">
+      <c r="C39" s="169">
         <f t="shared" ref="C39:M39" si="20">IF(C37="","",C37*$C$4/Common_Shares)</f>
         <v>0.90897578966529746</v>
       </c>
-      <c r="D39" s="170">
+      <c r="D39" s="169">
         <f t="shared" si="20"/>
         <v>0.52868596212139196</v>
       </c>
-      <c r="E39" s="170">
+      <c r="E39" s="169">
         <f t="shared" si="20"/>
         <v>0.66758474408591939</v>
       </c>
-      <c r="F39" s="170">
+      <c r="F39" s="169">
         <f t="shared" si="20"/>
         <v>0.79659045041194765</v>
       </c>
-      <c r="G39" s="170" t="str">
+      <c r="G39" s="169" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="H39" s="170" t="str">
+      <c r="H39" s="169" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="I39" s="170" t="str">
+      <c r="I39" s="169" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J39" s="170" t="str">
+      <c r="J39" s="169" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="K39" s="170" t="str">
+      <c r="K39" s="169" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L39" s="170" t="str">
+      <c r="L39" s="169" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="M39" s="171" t="str">
+      <c r="M39" s="170" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -7548,50 +7790,50 @@
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9"/>
-      <c r="B40" s="169" t="s">
+      <c r="B40" s="168" t="s">
         <v>208</v>
       </c>
-      <c r="C40" s="172">
+      <c r="C40" s="171">
         <f t="shared" ref="C40:M40" si="21">IF(C38="","",C38*$C$4/Common_Shares)</f>
         <v>6.3315684086394253E-3</v>
       </c>
-      <c r="D40" s="172">
+      <c r="D40" s="171">
         <f t="shared" si="21"/>
         <v>9.101629587419174E-3</v>
       </c>
-      <c r="E40" s="172">
+      <c r="E40" s="171">
         <f t="shared" si="21"/>
         <v>4.7486763064795686E-3</v>
       </c>
-      <c r="F40" s="172">
+      <c r="F40" s="171">
         <f t="shared" si="21"/>
         <v>1.3454582868358779E-2</v>
       </c>
-      <c r="G40" s="172" t="str">
+      <c r="G40" s="171" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="H40" s="172" t="str">
+      <c r="H40" s="171" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="I40" s="172" t="str">
+      <c r="I40" s="171" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="J40" s="172" t="str">
+      <c r="J40" s="171" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K40" s="172" t="str">
+      <c r="K40" s="171" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="L40" s="172" t="str">
+      <c r="L40" s="171" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="M40" s="173" t="str">
+      <c r="M40" s="172" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -7599,7 +7841,7 @@
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
-      <c r="B41" s="89" t="s">
+      <c r="B41" s="88" t="s">
         <v>71</v>
       </c>
       <c r="C41" s="6"/>
@@ -7659,7 +7901,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="M42" s="209" t="str">
+      <c r="M42" s="208" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
@@ -7710,7 +7952,7 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M43" s="210" t="str">
+      <c r="M43" s="209" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -7761,7 +8003,7 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="M44" s="211" t="str">
+      <c r="M44" s="210" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -7812,7 +8054,7 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="M45" s="210" t="str">
+      <c r="M45" s="209" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
@@ -7863,7 +8105,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="M46" s="212" t="str">
+      <c r="M46" s="211" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
@@ -7898,7 +8140,7 @@
       <c r="B49" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="341" t="s">
+      <c r="C49" s="340" t="s">
         <v>78</v>
       </c>
       <c r="D49" s="6"/>
@@ -7914,9 +8156,9 @@
     <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9"/>
       <c r="B50" s="5"/>
-      <c r="C50" s="338"/>
+      <c r="C50" s="337"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="338"/>
+      <c r="E50" s="337"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
@@ -7928,67 +8170,67 @@
     </row>
     <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
-      <c r="B51" s="339" t="s">
+      <c r="B51" s="338" t="s">
         <v>301</v>
       </c>
-      <c r="C51" s="165"/>
-      <c r="D51" s="165"/>
-      <c r="E51" s="165"/>
-      <c r="F51" s="165"/>
-      <c r="G51" s="165"/>
-      <c r="H51" s="165"/>
-      <c r="I51" s="165"/>
-      <c r="J51" s="165"/>
-      <c r="K51" s="165"/>
-      <c r="L51" s="165"/>
-      <c r="M51" s="166"/>
+      <c r="C51" s="164"/>
+      <c r="D51" s="164"/>
+      <c r="E51" s="164"/>
+      <c r="F51" s="164"/>
+      <c r="G51" s="164"/>
+      <c r="H51" s="164"/>
+      <c r="I51" s="164"/>
+      <c r="J51" s="164"/>
+      <c r="K51" s="164"/>
+      <c r="L51" s="164"/>
+      <c r="M51" s="165"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9"/>
-      <c r="B52" s="340" t="s">
+      <c r="B52" s="339" t="s">
         <v>302</v>
       </c>
-      <c r="C52" s="347" t="str">
+      <c r="C52" s="346" t="str">
         <f>IF(C51="","",C51/C7)</f>
         <v/>
       </c>
-      <c r="D52" s="347" t="str">
+      <c r="D52" s="346" t="str">
         <f t="shared" ref="D52:M52" si="27">IF(D51="","",D51/D7)</f>
         <v/>
       </c>
-      <c r="E52" s="347" t="str">
+      <c r="E52" s="346" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="F52" s="347" t="str">
+      <c r="F52" s="346" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="G52" s="347" t="str">
+      <c r="G52" s="346" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="H52" s="347" t="str">
+      <c r="H52" s="346" t="str">
         <f>IF(H51="","",H51/H7)</f>
         <v/>
       </c>
-      <c r="I52" s="347" t="str">
+      <c r="I52" s="346" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="J52" s="347" t="str">
+      <c r="J52" s="346" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="K52" s="347" t="str">
+      <c r="K52" s="346" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="L52" s="347" t="str">
+      <c r="L52" s="346" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="M52" s="348" t="str">
+      <c r="M52" s="347" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
@@ -9378,17 +9620,17 @@
   <sheetData>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="267" t="s">
+      <c r="B2" s="266" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="267"/>
+      <c r="C2" s="266"/>
       <c r="D2" s="11"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
-      <c r="K2" s="346" t="s">
+      <c r="K2" s="345" t="s">
         <v>141</v>
       </c>
     </row>
@@ -9397,19 +9639,19 @@
         <v>259</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="274">
+      <c r="D3" s="273">
         <v>585200</v>
       </c>
-      <c r="E3" s="156" t="str">
+      <c r="E3" s="155" t="str">
         <f>IF((C46-I46)=D3,"", "Error!")</f>
         <v/>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="275" t="s">
+      <c r="H3" s="274" t="s">
         <v>260</v>
       </c>
-      <c r="I3" s="276">
+      <c r="I3" s="275">
         <v>585200</v>
       </c>
       <c r="K3" s="74"/>
@@ -9419,19 +9661,19 @@
         <v>226</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="277">
+      <c r="D4" s="276">
         <f>D3-I3</f>
         <v>0</v>
       </c>
-      <c r="E4" s="150"/>
+      <c r="E4" s="149"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="I4" s="91">
+      <c r="I4" s="90">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
-        <v>18.178029606181131</v>
+        <v>18.159258703196468</v>
       </c>
       <c r="K4" s="74"/>
     </row>
@@ -9474,7 +9716,7 @@
       </c>
       <c r="D7" s="61">
         <f>MAX(((D6+MIN('FCFF Model'!D4,0))*Dashboard!I12*Data!C4)/Dashboard!I5, 0)</f>
-        <v>1.484497667258025</v>
+        <v>1.4829647529490073</v>
       </c>
       <c r="E7" s="49" t="str">
         <f>Dashboard!J4</f>
@@ -9488,7 +9730,7 @@
         <v>0.82091618424364465</v>
       </c>
       <c r="J7" s="6"/>
-      <c r="K7" s="116"/>
+      <c r="K7" s="115"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D8" s="6"/>
@@ -9503,21 +9745,21 @@
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
-      <c r="B9" s="268" t="s">
+      <c r="B9" s="267" t="s">
         <v>255</v>
       </c>
-      <c r="C9" s="255"/>
-      <c r="D9" s="272">
+      <c r="C9" s="254"/>
+      <c r="D9" s="271">
         <v>44834</v>
       </c>
-      <c r="E9" s="269" t="str">
+      <c r="E9" s="268" t="str">
         <f>IF(D9=Data!C3,"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
-      <c r="F9" s="133"/>
-      <c r="G9" s="133"/>
-      <c r="H9" s="133"/>
-      <c r="I9" s="133"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="132"/>
+      <c r="I9" s="132"/>
       <c r="K9" s="74"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9663,7 +9905,7 @@
       <c r="H15" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I15" s="155">
+      <c r="I15" s="154">
         <f>I26-SUM(I11:I14)</f>
         <v>686200</v>
       </c>
@@ -9683,15 +9925,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="204" t="s">
+      <c r="F16" s="203" t="s">
         <v>243</v>
       </c>
-      <c r="G16" s="94">
+      <c r="G16" s="93">
         <f>IF(F16="Y",0,1)</f>
         <v>0</v>
       </c>
       <c r="H16" s="5"/>
-      <c r="I16" s="154"/>
+      <c r="I16" s="153"/>
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.3">
@@ -9711,7 +9953,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="154"/>
+      <c r="I17" s="153"/>
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.3">
@@ -9744,15 +9986,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="204" t="s">
+      <c r="F19" s="203" t="s">
         <v>243</v>
       </c>
-      <c r="G19" s="94">
+      <c r="G19" s="93">
         <f>IF(F19="Y",0,1)</f>
         <v>0</v>
       </c>
       <c r="H19" s="5"/>
-      <c r="I19" s="154"/>
+      <c r="I19" s="153"/>
     </row>
     <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
@@ -9768,15 +10010,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="204" t="s">
+      <c r="F20" s="203" t="s">
         <v>243</v>
       </c>
-      <c r="G20" s="94">
+      <c r="G20" s="93">
         <f>IF(F20="Y",0,1)</f>
         <v>0</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="I20" s="154"/>
+      <c r="I20" s="153"/>
     </row>
     <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
@@ -9795,7 +10037,7 @@
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="154"/>
+      <c r="I21" s="153"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
@@ -9901,7 +10143,7 @@
       <c r="I26" s="64">
         <v>794600</v>
       </c>
-      <c r="J26" s="107">
+      <c r="J26" s="106">
         <f>IF(J24="",1,0)+IF(J25="",1,0)+IF(J44="",1,0)+IF(J45="",1,0)</f>
         <v>1</v>
       </c>
@@ -10030,7 +10272,7 @@
       <c r="H32" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="I32" s="155">
+      <c r="I32" s="154">
         <f>I42-SUM(I28:I31)</f>
         <v>3400</v>
       </c>
@@ -10046,14 +10288,14 @@
       <c r="D33" s="65">
         <v>0.8</v>
       </c>
-      <c r="E33" s="220">
+      <c r="E33" s="219">
         <f t="shared" si="3"/>
         <v>3040</v>
       </c>
-      <c r="F33" s="204" t="s">
+      <c r="F33" s="203" t="s">
         <v>244</v>
       </c>
-      <c r="G33" s="94">
+      <c r="G33" s="93">
         <f>IF(F33="Y",0,1)</f>
         <v>1</v>
       </c>
@@ -10069,14 +10311,14 @@
       <c r="D34" s="65">
         <v>0.7</v>
       </c>
-      <c r="E34" s="220">
+      <c r="E34" s="219">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F34" s="204" t="s">
+      <c r="F34" s="203" t="s">
         <v>243</v>
       </c>
-      <c r="G34" s="94">
+      <c r="G34" s="93">
         <f>IF(F34="Y",0,1)</f>
         <v>0</v>
       </c>
@@ -10095,10 +10337,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F35" s="204" t="s">
+      <c r="F35" s="203" t="s">
         <v>243</v>
       </c>
-      <c r="G35" s="94">
+      <c r="G35" s="93">
         <f>IF(F35="Y",0,1)</f>
         <v>0</v>
       </c>
@@ -10308,7 +10550,7 @@
       <c r="H46" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="I46" s="155">
+      <c r="I46" s="154">
         <f>I26+I42</f>
         <v>962100</v>
       </c>
@@ -10328,11 +10570,11 @@
       <c r="D48" s="52"/>
     </row>
     <row r="49" spans="2:9" ht="14" x14ac:dyDescent="0.3">
-      <c r="B49" s="216" t="s">
+      <c r="B49" s="215" t="s">
         <v>210</v>
       </c>
       <c r="C49" s="6"/>
-      <c r="D49" s="217" t="str">
+      <c r="D49" s="216" t="str">
         <f>IF(E50=D4,"BV of the MI","P/B Approach")</f>
         <v>BV of the MI</v>
       </c>
@@ -10342,19 +10584,19 @@
       <c r="B50" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C50" s="218">
+      <c r="C50" s="217">
         <f>D4</f>
         <v>0</v>
       </c>
-      <c r="D50" s="214">
+      <c r="D50" s="213">
         <f>IF(E50=0, 0,E50/C50)</f>
         <v>0</v>
       </c>
-      <c r="E50" s="218">
+      <c r="E50" s="217">
         <f>MAX(C50,C50*Dashboard!I10)</f>
         <v>0</v>
       </c>
-      <c r="I50" s="157"/>
+      <c r="I50" s="156"/>
     </row>
     <row r="51" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="6"/>
@@ -10366,11 +10608,11 @@
         <v>266</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="437">
+      <c r="D52" s="447">
         <f>D53+D54+D55</f>
         <v>272500</v>
       </c>
-      <c r="E52" s="438"/>
+      <c r="E52" s="448"/>
       <c r="F52" s="53"/>
       <c r="G52" s="53"/>
     </row>
@@ -10379,11 +10621,11 @@
         <v>236</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="440">
+      <c r="D53" s="450">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>272500</v>
       </c>
-      <c r="E53" s="436"/>
+      <c r="E53" s="446"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10399,10 +10641,10 @@
         <v>136</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="445">
+      <c r="D54" s="455">
         <v>0</v>
       </c>
-      <c r="E54" s="364"/>
+      <c r="E54" s="374"/>
       <c r="F54" s="6" t="s">
         <v>137</v>
       </c>
@@ -10413,10 +10655,10 @@
         <v>135</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="445">
+      <c r="D55" s="455">
         <v>0</v>
       </c>
-      <c r="E55" s="364"/>
+      <c r="E55" s="374"/>
       <c r="F55" s="5" t="s">
         <v>138</v>
       </c>
@@ -10431,8 +10673,8 @@
         <v>139</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="439"/>
-      <c r="E57" s="439"/>
+      <c r="D57" s="449"/>
+      <c r="E57" s="449"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
@@ -10440,15 +10682,15 @@
       <c r="B58" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="C58" s="213">
+      <c r="C58" s="212">
         <f>C14+C15+(C19*G19)+(C20*G20)+C29+C30+(C33*G33)+(C34*G34)+(C35*G35)</f>
         <v>5200</v>
       </c>
-      <c r="D58" s="129">
+      <c r="D58" s="128">
         <f>IF(E58=0,0,E58/C58)</f>
         <v>0.63846153846153841</v>
       </c>
-      <c r="E58" s="221">
+      <c r="E58" s="220">
         <f>E14+E15+(E19*G19)+(E20*G20)+E29+E30+(E33*G33)+(E34*G34)+(E35*G35)</f>
         <v>3320</v>
       </c>
@@ -10458,15 +10700,15 @@
       <c r="B59" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="C59" s="213">
+      <c r="C59" s="212">
         <f>C11+C12+C28</f>
         <v>103300</v>
       </c>
-      <c r="D59" s="214">
+      <c r="D59" s="213">
         <f>IF(E59=0,0,E59/C59)</f>
         <v>1</v>
       </c>
-      <c r="E59" s="215">
+      <c r="E59" s="214">
         <f>E11+E12+E28</f>
         <v>103300</v>
       </c>
@@ -10478,11 +10720,11 @@
         <v>140</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="443">
+      <c r="D60" s="453">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>11712481.4</v>
-      </c>
-      <c r="E60" s="444"/>
+        <v>11775656.9</v>
+      </c>
+      <c r="E60" s="454"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
@@ -10491,7 +10733,7 @@
       <c r="E61" s="6"/>
     </row>
     <row r="62" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="292" t="s">
+      <c r="B62" s="291" t="s">
         <v>265</v>
       </c>
     </row>
@@ -10499,33 +10741,33 @@
       <c r="B63" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D63" s="413">
+      <c r="D63" s="423">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>0.13929550727694578</v>
       </c>
-      <c r="E63" s="414"/>
+      <c r="E63" s="424"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D64" s="441">
+      <c r="D64" s="451">
         <v>6.3399999999999998E-2</v>
       </c>
-      <c r="E64" s="442"/>
-      <c r="F64" s="266" t="s">
+      <c r="E64" s="452"/>
+      <c r="F64" s="265" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="292" t="s">
+      <c r="B65" s="291" t="s">
         <v>269</v>
       </c>
-      <c r="D65" s="441">
+      <c r="D65" s="451">
         <f>D63</f>
         <v>0.13929550727694578</v>
       </c>
-      <c r="E65" s="442"/>
+      <c r="E65" s="452"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -10591,25 +10833,25 @@
     </row>
     <row r="2" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="91" t="s">
         <v>249</v>
       </c>
-      <c r="C2" s="286" t="s">
+      <c r="C2" s="285" t="s">
         <v>263</v>
       </c>
-      <c r="D2" s="286"/>
-      <c r="E2" s="286">
+      <c r="D2" s="285"/>
+      <c r="E2" s="285">
         <v>1</v>
       </c>
-      <c r="F2" s="286"/>
-      <c r="G2" s="286">
+      <c r="F2" s="285"/>
+      <c r="G2" s="285">
         <v>2</v>
       </c>
       <c r="H2" s="12"/>
-      <c r="I2" s="286">
+      <c r="I2" s="285">
         <v>3</v>
       </c>
-      <c r="J2" s="286"/>
+      <c r="J2" s="285"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
     </row>
@@ -10618,102 +10860,102 @@
         <f>'FCFF Model'!B3</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="C3" s="278">
+      <c r="C3" s="277">
         <f>Data!C3</f>
         <v>44651</v>
       </c>
       <c r="D3" s="28" t="s">
         <v>251</v>
       </c>
-      <c r="E3" s="278">
+      <c r="E3" s="277">
         <f>EOMONTH(EDATE(C3,12),0)</f>
         <v>45016</v>
       </c>
       <c r="F3" s="28" t="s">
         <v>251</v>
       </c>
-      <c r="G3" s="278">
+      <c r="G3" s="277">
         <f>IF(G20="","",EOMONTH(EDATE(E3,12),0))</f>
         <v>45382</v>
       </c>
       <c r="H3" s="28"/>
-      <c r="I3" s="278">
+      <c r="I3" s="277">
         <f>IF(I27="","",EOMONTH(EDATE(G3,12),0))</f>
         <v>45747</v>
       </c>
-      <c r="J3" s="297"/>
+      <c r="J3" s="296"/>
       <c r="L3" s="72" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="349" t="s">
+      <c r="B4" s="348" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="294">
+      <c r="C4" s="293">
         <v>555600</v>
       </c>
-      <c r="D4" s="260"/>
-      <c r="E4" s="294"/>
-      <c r="F4" s="260"/>
-      <c r="G4" s="222"/>
-      <c r="H4" s="260"/>
-      <c r="I4" s="222"/>
-      <c r="J4" s="350"/>
+      <c r="D4" s="259"/>
+      <c r="E4" s="293"/>
+      <c r="F4" s="259"/>
+      <c r="G4" s="221"/>
+      <c r="H4" s="259"/>
+      <c r="I4" s="221"/>
+      <c r="J4" s="349"/>
       <c r="K4" s="6"/>
       <c r="L4" s="74"/>
       <c r="M4" s="57"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="293" t="s">
+      <c r="B5" s="292" t="s">
         <v>315</v>
       </c>
-      <c r="C5" s="294">
+      <c r="C5" s="293">
         <v>375100</v>
       </c>
-      <c r="D5" s="260"/>
-      <c r="E5" s="294"/>
-      <c r="F5" s="260"/>
-      <c r="G5" s="222"/>
-      <c r="H5" s="260"/>
-      <c r="I5" s="222"/>
-      <c r="J5" s="351"/>
+      <c r="D5" s="259"/>
+      <c r="E5" s="293"/>
+      <c r="F5" s="259"/>
+      <c r="G5" s="221"/>
+      <c r="H5" s="259"/>
+      <c r="I5" s="221"/>
+      <c r="J5" s="350"/>
       <c r="K5" s="6"/>
       <c r="L5" s="74"/>
       <c r="M5" s="57"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="293" t="s">
+      <c r="B6" s="292" t="s">
         <v>316</v>
       </c>
-      <c r="C6" s="294">
+      <c r="C6" s="293">
         <v>83900</v>
       </c>
-      <c r="D6" s="260"/>
-      <c r="E6" s="294"/>
-      <c r="F6" s="260"/>
-      <c r="G6" s="222"/>
-      <c r="H6" s="260"/>
-      <c r="I6" s="222"/>
-      <c r="J6" s="351"/>
+      <c r="D6" s="259"/>
+      <c r="E6" s="293"/>
+      <c r="F6" s="259"/>
+      <c r="G6" s="221"/>
+      <c r="H6" s="259"/>
+      <c r="I6" s="221"/>
+      <c r="J6" s="350"/>
       <c r="K6" s="6"/>
       <c r="L6" s="74"/>
       <c r="M6" s="57"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="293" t="s">
+      <c r="B7" s="292" t="s">
         <v>317</v>
       </c>
-      <c r="C7" s="294">
+      <c r="C7" s="293">
         <v>10900</v>
       </c>
-      <c r="D7" s="260"/>
-      <c r="E7" s="294"/>
-      <c r="F7" s="260"/>
-      <c r="G7" s="222"/>
-      <c r="H7" s="260"/>
-      <c r="I7" s="222"/>
-      <c r="J7" s="351"/>
+      <c r="D7" s="259"/>
+      <c r="E7" s="293"/>
+      <c r="F7" s="259"/>
+      <c r="G7" s="221"/>
+      <c r="H7" s="259"/>
+      <c r="I7" s="221"/>
+      <c r="J7" s="350"/>
       <c r="K7" s="6"/>
       <c r="L7" s="74"/>
       <c r="M7" s="57"/>
@@ -10722,98 +10964,98 @@
       <c r="B8" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="C8" s="352">
+      <c r="C8" s="351">
         <f>SUM(C4:C7)</f>
         <v>1025500</v>
       </c>
-      <c r="D8" s="260">
+      <c r="D8" s="259">
         <f>C8/C19</f>
         <v>0.4326091541868804</v>
       </c>
-      <c r="E8" s="352">
+      <c r="E8" s="351">
         <f>C8*0.8</f>
         <v>820400</v>
       </c>
-      <c r="F8" s="260">
+      <c r="F8" s="259">
         <f>E8/E19</f>
         <v>0.39607191669551273</v>
       </c>
-      <c r="G8" s="352"/>
-      <c r="H8" s="260"/>
-      <c r="I8" s="222"/>
-      <c r="J8" s="351"/>
+      <c r="G8" s="351"/>
+      <c r="H8" s="259"/>
+      <c r="I8" s="221"/>
+      <c r="J8" s="350"/>
       <c r="K8" s="6"/>
       <c r="L8" s="74"/>
       <c r="M8" s="57"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="349" t="s">
+      <c r="B9" s="348" t="s">
         <v>314</v>
       </c>
-      <c r="C9" s="294">
+      <c r="C9" s="293">
         <v>274900</v>
       </c>
-      <c r="D9" s="260"/>
-      <c r="E9" s="294"/>
-      <c r="F9" s="260"/>
-      <c r="G9" s="222"/>
-      <c r="H9" s="260"/>
-      <c r="I9" s="222"/>
-      <c r="J9" s="351"/>
+      <c r="D9" s="259"/>
+      <c r="E9" s="293"/>
+      <c r="F9" s="259"/>
+      <c r="G9" s="221"/>
+      <c r="H9" s="259"/>
+      <c r="I9" s="221"/>
+      <c r="J9" s="350"/>
       <c r="K9" s="6"/>
       <c r="L9" s="74"/>
       <c r="M9" s="57"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="293" t="s">
+      <c r="B10" s="292" t="s">
         <v>315</v>
       </c>
-      <c r="C10" s="294">
+      <c r="C10" s="293">
         <v>93800</v>
       </c>
-      <c r="D10" s="260"/>
-      <c r="E10" s="294"/>
-      <c r="F10" s="260"/>
-      <c r="G10" s="222"/>
-      <c r="H10" s="260"/>
-      <c r="I10" s="222"/>
-      <c r="J10" s="351"/>
+      <c r="D10" s="259"/>
+      <c r="E10" s="293"/>
+      <c r="F10" s="259"/>
+      <c r="G10" s="221"/>
+      <c r="H10" s="259"/>
+      <c r="I10" s="221"/>
+      <c r="J10" s="350"/>
       <c r="K10" s="6"/>
       <c r="L10" s="74"/>
       <c r="M10" s="57"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="293" t="s">
+      <c r="B11" s="292" t="s">
         <v>316</v>
       </c>
-      <c r="C11" s="294">
+      <c r="C11" s="293">
         <v>27700</v>
       </c>
-      <c r="D11" s="260"/>
-      <c r="E11" s="294"/>
-      <c r="F11" s="260"/>
-      <c r="G11" s="222"/>
-      <c r="H11" s="260"/>
-      <c r="I11" s="222"/>
-      <c r="J11" s="351"/>
+      <c r="D11" s="259"/>
+      <c r="E11" s="293"/>
+      <c r="F11" s="259"/>
+      <c r="G11" s="221"/>
+      <c r="H11" s="259"/>
+      <c r="I11" s="221"/>
+      <c r="J11" s="350"/>
       <c r="K11" s="6"/>
       <c r="L11" s="74"/>
       <c r="M11" s="57"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="293" t="s">
+      <c r="B12" s="292" t="s">
         <v>317</v>
       </c>
-      <c r="C12" s="294">
+      <c r="C12" s="293">
         <v>10900</v>
       </c>
-      <c r="D12" s="260"/>
-      <c r="E12" s="294"/>
-      <c r="F12" s="260"/>
-      <c r="G12" s="222"/>
-      <c r="H12" s="260"/>
-      <c r="I12" s="222"/>
-      <c r="J12" s="287"/>
+      <c r="D12" s="259"/>
+      <c r="E12" s="293"/>
+      <c r="F12" s="259"/>
+      <c r="G12" s="221"/>
+      <c r="H12" s="259"/>
+      <c r="I12" s="221"/>
+      <c r="J12" s="286"/>
       <c r="K12" s="6"/>
       <c r="L12" s="74"/>
       <c r="M12" s="57"/>
@@ -10822,98 +11064,98 @@
       <c r="B13" s="23" t="s">
         <v>319</v>
       </c>
-      <c r="C13" s="352">
+      <c r="C13" s="351">
         <f>SUM(C9:C12)</f>
         <v>407300</v>
       </c>
-      <c r="D13" s="260">
+      <c r="D13" s="259">
         <f>C13/C19</f>
         <v>0.17182029107783167</v>
       </c>
-      <c r="E13" s="352">
+      <c r="E13" s="351">
         <f>C13*0.7</f>
         <v>285110</v>
       </c>
-      <c r="F13" s="260">
+      <c r="F13" s="259">
         <f>E13/E19</f>
         <v>0.13764512941133306</v>
       </c>
-      <c r="G13" s="352"/>
-      <c r="H13" s="260"/>
-      <c r="I13" s="222"/>
-      <c r="J13" s="287"/>
+      <c r="G13" s="351"/>
+      <c r="H13" s="259"/>
+      <c r="I13" s="221"/>
+      <c r="J13" s="286"/>
       <c r="K13" s="6"/>
       <c r="L13" s="74"/>
       <c r="M13" s="57"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="349" t="s">
+      <c r="B14" s="348" t="s">
         <v>314</v>
       </c>
-      <c r="C14" s="294">
+      <c r="C14" s="293">
         <v>238000</v>
       </c>
-      <c r="D14" s="260"/>
-      <c r="E14" s="294"/>
-      <c r="F14" s="260"/>
-      <c r="G14" s="222"/>
-      <c r="H14" s="260"/>
-      <c r="I14" s="222"/>
-      <c r="J14" s="287"/>
+      <c r="D14" s="259"/>
+      <c r="E14" s="293"/>
+      <c r="F14" s="259"/>
+      <c r="G14" s="221"/>
+      <c r="H14" s="259"/>
+      <c r="I14" s="221"/>
+      <c r="J14" s="286"/>
       <c r="K14" s="6"/>
       <c r="L14" s="74"/>
       <c r="M14" s="57"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="293" t="s">
+      <c r="B15" s="292" t="s">
         <v>315</v>
       </c>
-      <c r="C15" s="294">
+      <c r="C15" s="293">
         <v>556200</v>
       </c>
-      <c r="D15" s="260"/>
-      <c r="E15" s="294"/>
-      <c r="F15" s="260"/>
-      <c r="G15" s="222"/>
-      <c r="H15" s="260"/>
-      <c r="I15" s="222"/>
-      <c r="J15" s="287"/>
+      <c r="D15" s="259"/>
+      <c r="E15" s="293"/>
+      <c r="F15" s="259"/>
+      <c r="G15" s="221"/>
+      <c r="H15" s="259"/>
+      <c r="I15" s="221"/>
+      <c r="J15" s="286"/>
       <c r="K15" s="6"/>
       <c r="L15" s="74"/>
       <c r="M15" s="57"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="293" t="s">
+      <c r="B16" s="292" t="s">
         <v>316</v>
       </c>
-      <c r="C16" s="294">
+      <c r="C16" s="293">
         <v>143400</v>
       </c>
-      <c r="D16" s="260"/>
-      <c r="E16" s="294"/>
-      <c r="F16" s="260"/>
-      <c r="G16" s="222"/>
-      <c r="H16" s="260"/>
-      <c r="I16" s="222"/>
-      <c r="J16" s="287"/>
+      <c r="D16" s="259"/>
+      <c r="E16" s="293"/>
+      <c r="F16" s="259"/>
+      <c r="G16" s="221"/>
+      <c r="H16" s="259"/>
+      <c r="I16" s="221"/>
+      <c r="J16" s="286"/>
       <c r="K16" s="6"/>
       <c r="L16" s="74"/>
       <c r="M16" s="57"/>
     </row>
     <row r="17" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="293" t="s">
+      <c r="B17" s="292" t="s">
         <v>317</v>
       </c>
-      <c r="C17" s="294">
+      <c r="C17" s="293">
         <v>100</v>
       </c>
-      <c r="D17" s="260"/>
-      <c r="E17" s="294"/>
-      <c r="F17" s="260"/>
-      <c r="G17" s="222"/>
-      <c r="H17" s="260"/>
-      <c r="I17" s="222"/>
-      <c r="J17" s="287"/>
+      <c r="D17" s="259"/>
+      <c r="E17" s="293"/>
+      <c r="F17" s="259"/>
+      <c r="G17" s="221"/>
+      <c r="H17" s="259"/>
+      <c r="I17" s="221"/>
+      <c r="J17" s="286"/>
       <c r="K17" s="6"/>
       <c r="L17" s="74"/>
       <c r="M17" s="57"/>
@@ -10922,26 +11164,26 @@
       <c r="B18" s="23" t="s">
         <v>320</v>
       </c>
-      <c r="C18" s="352">
+      <c r="C18" s="351">
         <f>SUM(C14:C17)</f>
         <v>937700</v>
       </c>
-      <c r="D18" s="260">
+      <c r="D18" s="259">
         <f>C18/C19</f>
         <v>0.3955705547352879</v>
       </c>
-      <c r="E18" s="352">
+      <c r="E18" s="351">
         <f>C18*1.03</f>
         <v>965831</v>
       </c>
-      <c r="F18" s="260">
+      <c r="F18" s="259">
         <f>E18/E19</f>
         <v>0.46628295389315422</v>
       </c>
-      <c r="G18" s="352"/>
-      <c r="H18" s="260"/>
-      <c r="I18" s="222"/>
-      <c r="J18" s="287"/>
+      <c r="G18" s="351"/>
+      <c r="H18" s="259"/>
+      <c r="I18" s="221"/>
+      <c r="J18" s="286"/>
       <c r="K18" s="6"/>
       <c r="L18" s="74"/>
       <c r="M18" s="57"/>
@@ -10950,26 +11192,26 @@
       <c r="B19" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C19" s="180">
+      <c r="C19" s="179">
         <f>C8+C13+C18</f>
         <v>2370500</v>
       </c>
-      <c r="D19" s="259"/>
-      <c r="E19" s="180">
+      <c r="D19" s="258"/>
+      <c r="E19" s="179">
         <f>E8+E13+E18</f>
         <v>2071341</v>
       </c>
-      <c r="F19" s="259"/>
-      <c r="G19" s="180">
+      <c r="F19" s="258"/>
+      <c r="G19" s="179">
         <f>E19*1.05</f>
         <v>2174908.0500000003</v>
       </c>
-      <c r="H19" s="259"/>
-      <c r="I19" s="228">
+      <c r="H19" s="258"/>
+      <c r="I19" s="227">
         <f>C19*1.05</f>
         <v>2489025</v>
       </c>
-      <c r="J19" s="288"/>
+      <c r="J19" s="287"/>
       <c r="K19" s="6"/>
       <c r="L19" s="74" t="s">
         <v>271</v>
@@ -10980,23 +11222,23 @@
       <c r="B20" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="C20" s="187"/>
-      <c r="D20" s="261"/>
+      <c r="C20" s="186"/>
+      <c r="D20" s="260"/>
       <c r="E20" s="18">
         <f>E19/C19-1</f>
         <v>-0.12620080151866697</v>
       </c>
-      <c r="F20" s="261"/>
+      <c r="F20" s="260"/>
       <c r="G20" s="73">
         <f>G19/E19-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="H20" s="261"/>
+      <c r="H20" s="260"/>
       <c r="I20" s="73">
         <f>I19/G19-1</f>
         <v>0.14442769201208283</v>
       </c>
-      <c r="J20" s="328"/>
+      <c r="J20" s="327"/>
       <c r="K20" s="6"/>
       <c r="L20" s="74"/>
       <c r="M20" s="57"/>
@@ -11005,52 +11247,52 @@
       <c r="B21" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C21" s="181">
+      <c r="C21" s="180">
         <f>Data!C9</f>
         <v>1701400</v>
       </c>
-      <c r="D21" s="262"/>
-      <c r="E21" s="227">
+      <c r="D21" s="261"/>
+      <c r="E21" s="226">
         <f>E19*(1-E22)</f>
         <v>1418868.5850000002</v>
       </c>
-      <c r="F21" s="262"/>
-      <c r="G21" s="282">
+      <c r="F21" s="261"/>
+      <c r="G21" s="281">
         <f>IF(G19="","",G19*(1-G22))</f>
         <v>1489812.0142500002</v>
       </c>
-      <c r="H21" s="262"/>
-      <c r="I21" s="282">
+      <c r="H21" s="261"/>
+      <c r="I21" s="281">
         <f>IF(I19="","",I19*(1-I22))</f>
         <v>1749037.8674999999</v>
       </c>
-      <c r="J21" s="329"/>
+      <c r="J21" s="328"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="116"/>
+      <c r="L21" s="115"/>
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="186">
+      <c r="C22" s="185">
         <f>(C19-C21)/C19</f>
         <v>0.282261126344653</v>
       </c>
-      <c r="D22" s="186"/>
+      <c r="D22" s="185"/>
       <c r="E22" s="73">
         <v>0.315</v>
       </c>
-      <c r="F22" s="186"/>
+      <c r="F22" s="185"/>
       <c r="G22" s="73">
         <f>E22</f>
         <v>0.315</v>
       </c>
-      <c r="H22" s="186"/>
+      <c r="H22" s="185"/>
       <c r="I22" s="73">
         <v>0.29730000000000001</v>
       </c>
-      <c r="J22" s="330"/>
+      <c r="J22" s="329"/>
       <c r="K22" s="6"/>
       <c r="L22" s="74"/>
     </row>
@@ -11077,7 +11319,7 @@
         <f>IF(I20="","",I19-I21)</f>
         <v>739987.13250000007</v>
       </c>
-      <c r="J23" s="242"/>
+      <c r="J23" s="241"/>
       <c r="K23" s="6"/>
       <c r="L23" s="74"/>
     </row>
@@ -11085,26 +11327,26 @@
       <c r="B24" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="189">
+      <c r="C24" s="188">
         <f>C25/C19</f>
         <v>0.19607677705125501</v>
       </c>
-      <c r="D24" s="189"/>
-      <c r="E24" s="226">
+      <c r="D24" s="188"/>
+      <c r="E24" s="225">
         <f>E25/E19</f>
         <v>0.23337152115465296</v>
       </c>
-      <c r="F24" s="189"/>
+      <c r="F24" s="188"/>
       <c r="G24" s="65">
         <f>G25/G19</f>
         <v>0.22892634932313571</v>
       </c>
-      <c r="H24" s="189"/>
+      <c r="H24" s="188"/>
       <c r="I24" s="65">
         <f>I25/I19</f>
         <v>0.2060367303663081</v>
       </c>
-      <c r="J24" s="331"/>
+      <c r="J24" s="330"/>
       <c r="K24" s="6"/>
       <c r="L24" s="74"/>
     </row>
@@ -11112,26 +11354,26 @@
       <c r="B25" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C25" s="183">
+      <c r="C25" s="182">
         <f>304900+75600+84300</f>
         <v>464800</v>
       </c>
-      <c r="D25" s="263"/>
+      <c r="D25" s="262"/>
       <c r="E25" s="76">
         <f>C25*1.04</f>
         <v>483392</v>
       </c>
-      <c r="F25" s="263"/>
+      <c r="F25" s="262"/>
       <c r="G25" s="76">
         <f>E25*1.03</f>
         <v>497893.76</v>
       </c>
-      <c r="H25" s="263"/>
+      <c r="H25" s="262"/>
       <c r="I25" s="76">
         <f>G25*1.03</f>
         <v>512830.57280000002</v>
       </c>
-      <c r="J25" s="332"/>
+      <c r="J25" s="331"/>
       <c r="K25" s="6"/>
       <c r="L25" s="74"/>
     </row>
@@ -11158,7 +11400,7 @@
         <f>IF(I20="","",I28/I19)</f>
         <v>9.1263269633691926E-2</v>
       </c>
-      <c r="J26" s="231"/>
+      <c r="J26" s="230"/>
       <c r="K26" s="6"/>
       <c r="L26" s="74"/>
       <c r="M26" s="57"/>
@@ -11167,128 +11409,128 @@
       <c r="B27" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="C27" s="188"/>
-      <c r="D27" s="264"/>
+      <c r="C27" s="187"/>
+      <c r="D27" s="263"/>
       <c r="E27" s="14">
         <f>IF(ABS(C28+E28)=ABS(C28)+ABS(E28),IF(E28&lt;0,-1,1)*(E28-C28)/C28,"Turn")</f>
         <v>-0.17239150758688299</v>
       </c>
-      <c r="F27" s="264"/>
+      <c r="F27" s="263"/>
       <c r="G27" s="14">
         <f>IF(G20="","",IF(ABS(E28+G28)=ABS(E28)+ABS(G28),IF(G28&lt;0,-1,1)*(G28-E28)/E28,"Turn"))</f>
         <v>0.10717894647940299</v>
       </c>
-      <c r="H27" s="264"/>
+      <c r="H27" s="263"/>
       <c r="I27" s="14">
         <f>IF(I20="","",IF(ABS(G28+I28)=ABS(G28)+ABS(I28),IF(I28&lt;0,-1,1)*(I28-G28)/G28,"Turn"))</f>
         <v>0.21342840940329758</v>
       </c>
-      <c r="J27" s="333"/>
+      <c r="J27" s="332"/>
       <c r="K27" s="6"/>
       <c r="L27" s="77"/>
       <c r="M27" s="78"/>
     </row>
     <row r="28" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="134" t="s">
+      <c r="B28" s="133" t="s">
         <v>247</v>
       </c>
-      <c r="C28" s="320">
+      <c r="C28" s="319">
         <f>C23-C25</f>
         <v>204300</v>
       </c>
-      <c r="D28" s="321"/>
-      <c r="E28" s="320">
+      <c r="D28" s="320"/>
+      <c r="E28" s="319">
         <f>E23-E25</f>
         <v>169080.4149999998</v>
       </c>
-      <c r="F28" s="321"/>
-      <c r="G28" s="320">
+      <c r="F28" s="320"/>
+      <c r="G28" s="319">
         <f>IF(G20="","",G23-G25)</f>
         <v>187202.27575000003</v>
       </c>
-      <c r="H28" s="321"/>
-      <c r="I28" s="320">
+      <c r="H28" s="320"/>
+      <c r="I28" s="319">
         <f>IF(I20="","",I23-I25)</f>
         <v>227156.55970000004</v>
       </c>
-      <c r="J28" s="334"/>
+      <c r="J28" s="333"/>
       <c r="K28" s="6"/>
       <c r="L28" s="79"/>
       <c r="M28" s="56"/>
     </row>
     <row r="29" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="316" t="s">
+      <c r="B29" s="315" t="s">
         <v>148</v>
       </c>
-      <c r="C29" s="317">
+      <c r="C29" s="316">
         <v>0.25</v>
       </c>
-      <c r="D29" s="318"/>
-      <c r="E29" s="319">
+      <c r="D29" s="317"/>
+      <c r="E29" s="318">
         <f>IF(E28="","",C29)</f>
         <v>0.25</v>
       </c>
-      <c r="F29" s="319"/>
-      <c r="G29" s="319">
+      <c r="F29" s="318"/>
+      <c r="G29" s="318">
         <f>IF(G28="","",E29)</f>
         <v>0.25</v>
       </c>
-      <c r="H29" s="319"/>
-      <c r="I29" s="319">
+      <c r="H29" s="318"/>
+      <c r="I29" s="318">
         <f>IF(I28="","",G29)</f>
         <v>0.25</v>
       </c>
-      <c r="J29" s="335"/>
+      <c r="J29" s="334"/>
     </row>
     <row r="30" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="325" t="s">
+      <c r="B30" s="324" t="s">
         <v>309</v>
       </c>
-      <c r="C30" s="264">
+      <c r="C30" s="263">
         <f>C31/C21</f>
         <v>9.0058187375102863E-2</v>
       </c>
-      <c r="D30" s="327"/>
-      <c r="E30" s="326">
+      <c r="D30" s="326"/>
+      <c r="E30" s="325">
         <f>E31/E21</f>
         <v>8.9374246910963809E-2</v>
       </c>
-      <c r="F30" s="326"/>
-      <c r="G30" s="326">
+      <c r="F30" s="325"/>
+      <c r="G30" s="325">
         <f>IF(G21="","",G31/G21)</f>
         <v>9.4241223368829466E-2</v>
       </c>
-      <c r="H30" s="326"/>
-      <c r="I30" s="326">
+      <c r="H30" s="325"/>
+      <c r="I30" s="325">
         <f>IF(I21="","",I31/I21)</f>
         <v>9.7406364345053287E-2</v>
       </c>
-      <c r="J30" s="336"/>
+      <c r="J30" s="335"/>
     </row>
     <row r="31" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="322" t="s">
+      <c r="B31" s="321" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="323">
+      <c r="C31" s="322">
         <f>IF(C28&lt;=0,C28,C28*(1-C29))</f>
         <v>153225</v>
       </c>
-      <c r="D31" s="323"/>
-      <c r="E31" s="324">
+      <c r="D31" s="322"/>
+      <c r="E31" s="323">
         <f>IF(E28="","",IF(E28&lt;=0,E28,E28*(1-E29)))</f>
         <v>126810.31124999985</v>
       </c>
-      <c r="F31" s="323"/>
-      <c r="G31" s="324">
+      <c r="F31" s="322"/>
+      <c r="G31" s="323">
         <f>IF(G28="","",IF(G28&lt;=0,G28,G28*(1-G29)))</f>
         <v>140401.70681250002</v>
       </c>
-      <c r="H31" s="323"/>
-      <c r="I31" s="324">
+      <c r="H31" s="322"/>
+      <c r="I31" s="323">
         <f>IF(I28="","",IF(I28&lt;=0,I28,I28*(1-I29)))</f>
         <v>170367.41977500002</v>
       </c>
-      <c r="J31" s="337"/>
+      <c r="J31" s="336"/>
     </row>
     <row r="32" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12235,10 +12477,10 @@
     <tabColor rgb="FFB6D7A8"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J922"/>
+  <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12258,22 +12500,22 @@
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="91" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="286" t="s">
+      <c r="C2" s="285" t="s">
         <v>263</v>
       </c>
-      <c r="D2" s="286">
+      <c r="D2" s="285">
         <v>1</v>
       </c>
-      <c r="E2" s="286">
+      <c r="E2" s="285">
         <v>2</v>
       </c>
-      <c r="F2" s="286">
+      <c r="F2" s="285">
         <v>3</v>
       </c>
-      <c r="G2" s="286" t="str">
+      <c r="G2" s="285" t="str">
         <f>B24</f>
         <v>Exit after Year 3</v>
       </c>
@@ -12285,19 +12527,19 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!I11&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="C3" s="278">
+      <c r="C3" s="277">
         <f>Operation!C3</f>
         <v>44651</v>
       </c>
-      <c r="D3" s="278">
+      <c r="D3" s="277">
         <f>Operation!E3</f>
         <v>45016</v>
       </c>
-      <c r="E3" s="278">
+      <c r="E3" s="277">
         <f>Operation!G3</f>
         <v>45382</v>
       </c>
-      <c r="F3" s="278">
+      <c r="F3" s="277">
         <f>Operation!I3</f>
         <v>45747</v>
       </c>
@@ -12312,7 +12554,7 @@
       <c r="B4" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="182">
+      <c r="C4" s="181">
         <f>Operation!C31</f>
         <v>153225</v>
       </c>
@@ -12324,38 +12566,38 @@
         <f>Operation!G31</f>
         <v>140401.70681250002</v>
       </c>
-      <c r="F4" s="201">
+      <c r="F4" s="200">
         <f>Operation!I31</f>
         <v>170367.41977500002</v>
       </c>
-      <c r="G4" s="304">
+      <c r="G4" s="303">
         <f>IF(F3="",IF(E3="",1,2),3)</f>
         <v>3</v>
       </c>
       <c r="H4" s="6"/>
-      <c r="I4" s="353"/>
+      <c r="I4" s="352"/>
       <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="C5" s="257"/>
-      <c r="D5" s="258">
+      <c r="C5" s="256"/>
+      <c r="D5" s="257">
         <f>D4/C4-1</f>
         <v>-0.17239150758688304</v>
       </c>
-      <c r="E5" s="258">
+      <c r="E5" s="257">
         <f>IF(E4="","",E4/D4-1)</f>
         <v>0.10717894647940307</v>
       </c>
-      <c r="F5" s="258">
+      <c r="F5" s="257">
         <f>IF(F4="","",F4/E4-1)</f>
         <v>0.21342840940329744</v>
       </c>
-      <c r="G5" s="198"/>
+      <c r="G5" s="197"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="353"/>
+      <c r="I5" s="352"/>
       <c r="J5" s="56"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12365,136 +12607,136 @@
       <c r="C6" s="65">
         <v>0.38619999999999999</v>
       </c>
-      <c r="D6" s="226">
+      <c r="D6" s="225">
         <v>0.38619999999999999</v>
       </c>
       <c r="E6" s="65">
         <v>0.38619999999999999</v>
       </c>
-      <c r="F6" s="309">
+      <c r="F6" s="308">
         <v>0.38619999999999999</v>
       </c>
-      <c r="G6" s="199"/>
+      <c r="G6" s="198"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="354"/>
+      <c r="I6" s="353"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="81" t="s">
         <v>272</v>
       </c>
-      <c r="C7" s="310">
+      <c r="C7" s="309">
         <f>C4*C6</f>
         <v>59175.494999999995</v>
       </c>
-      <c r="D7" s="310">
+      <c r="D7" s="309">
         <f>D4*D6</f>
         <v>48974.142204749944</v>
       </c>
-      <c r="E7" s="311">
+      <c r="E7" s="310">
         <f>E4*E6</f>
         <v>54223.13917098751</v>
       </c>
-      <c r="F7" s="311">
+      <c r="F7" s="310">
         <f>F4*F6</f>
         <v>65795.897517105012</v>
       </c>
-      <c r="G7" s="200"/>
+      <c r="G7" s="199"/>
       <c r="H7" s="82"/>
-      <c r="I7" s="353"/>
+      <c r="I7" s="352"/>
       <c r="J7" s="56"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="C8" s="192">
+      <c r="C8" s="191">
         <f>IF(C4="","",C4-C7)</f>
         <v>94049.505000000005</v>
       </c>
-      <c r="D8" s="191">
+      <c r="D8" s="190">
         <f>D4-D7</f>
         <v>77836.169045249902</v>
       </c>
-      <c r="E8" s="191">
+      <c r="E8" s="190">
         <f>IF(E4="","",E4-E7)</f>
         <v>86178.56764151252</v>
       </c>
-      <c r="F8" s="191">
+      <c r="F8" s="190">
         <f>IF(F4="","",F4-F7)</f>
         <v>104571.52225789501</v>
       </c>
-      <c r="G8" s="229">
+      <c r="G8" s="228">
         <f>IF(F4="",IF(E4="",D8,E8),F8)</f>
         <v>104571.52225789501</v>
       </c>
       <c r="H8" s="82"/>
-      <c r="I8" s="353"/>
+      <c r="I8" s="352"/>
       <c r="J8" s="56"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="203" t="s">
+      <c r="B9" s="202" t="s">
         <v>218</v>
       </c>
-      <c r="C9" s="193">
+      <c r="C9" s="192">
         <f>C8/(Common_Shares/Data!$C$4)</f>
         <v>0.37217554669135983</v>
       </c>
-      <c r="D9" s="306">
+      <c r="D9" s="305">
         <f>D8/(Common_Shares/Data!$C$4)</f>
         <v>0.30801564311026386</v>
       </c>
-      <c r="E9" s="306">
+      <c r="E9" s="305">
         <f>IF(E8="","",E8/(Common_Shares/Data!$C$4))</f>
         <v>0.34102843523799781</v>
       </c>
-      <c r="F9" s="306">
+      <c r="F9" s="305">
         <f>IF(F8="","",F8/(Common_Shares/Data!$C$4))</f>
         <v>0.41381359173213905</v>
       </c>
-      <c r="G9" s="307">
+      <c r="G9" s="306">
         <f>G8*Data!C$4/Dashboard!I5</f>
         <v>0.41381359173213905</v>
       </c>
       <c r="H9" s="82"/>
-      <c r="I9" s="353"/>
+      <c r="I9" s="352"/>
       <c r="J9" s="56"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="234" t="s">
+      <c r="B10" s="233" t="s">
         <v>248</v>
       </c>
-      <c r="C10" s="312">
+      <c r="C10" s="311">
         <f>C11/C9</f>
         <v>1.8270947837524503</v>
       </c>
-      <c r="D10" s="312">
+      <c r="D10" s="311">
         <f>D11/D9</f>
         <v>1.5258965267285101</v>
       </c>
-      <c r="E10" s="343"/>
-      <c r="F10" s="343"/>
-      <c r="G10" s="235"/>
+      <c r="E10" s="342"/>
+      <c r="F10" s="342"/>
+      <c r="G10" s="234"/>
       <c r="H10" s="82"/>
-      <c r="I10" s="353"/>
+      <c r="I10" s="352"/>
       <c r="J10" s="56"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="234" t="s">
+      <c r="B11" s="233" t="s">
         <v>262</v>
       </c>
-      <c r="C11" s="284">
+      <c r="C11" s="283">
         <f>0.51+0.17</f>
         <v>0.68</v>
       </c>
-      <c r="D11" s="285">
+      <c r="D11" s="284">
         <f>0.17+0.3</f>
         <v>0.47</v>
       </c>
-      <c r="E11" s="344"/>
-      <c r="F11" s="344"/>
-      <c r="G11" s="283"/>
+      <c r="E11" s="343"/>
+      <c r="F11" s="343"/>
+      <c r="G11" s="282"/>
       <c r="H11" s="82"/>
-      <c r="I11" s="353" t="s">
+      <c r="I11" s="352" t="s">
         <v>323</v>
       </c>
       <c r="J11" s="56"/>
@@ -12503,29 +12745,29 @@
       <c r="B12" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="C12" s="236">
+      <c r="C12" s="235">
         <v>0</v>
       </c>
-      <c r="D12" s="236">
+      <c r="D12" s="235">
         <f>0.36</f>
         <v>0.36</v>
       </c>
-      <c r="E12" s="345"/>
-      <c r="F12" s="345"/>
-      <c r="G12" s="230">
+      <c r="E12" s="344"/>
+      <c r="F12" s="344"/>
+      <c r="G12" s="229">
         <f>G9*D26</f>
         <v>6.6210174677142248</v>
       </c>
       <c r="H12" s="82"/>
-      <c r="I12" s="353"/>
+      <c r="I12" s="352"/>
       <c r="J12" s="56"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="C13" s="190"/>
-      <c r="D13" s="223">
+      <c r="C13" s="189"/>
+      <c r="D13" s="222">
         <f ca="1">Dashboard!C12</f>
         <v>9.6000000000000002E-2</v>
       </c>
@@ -12537,77 +12779,77 @@
         <f ca="1">IF(F4="","",D13)</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="G13" s="231">
+      <c r="G13" s="230">
         <f ca="1">Dashboard!C12</f>
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="H13" s="62"/>
-      <c r="I13" s="354"/>
+      <c r="I13" s="353"/>
       <c r="J13" s="57"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="83" t="s">
         <v>151</v>
       </c>
-      <c r="C14" s="114"/>
-      <c r="D14" s="224">
+      <c r="C14" s="113"/>
+      <c r="D14" s="223">
         <f ca="1">IF(D4="","",1+D13)</f>
         <v>1.0960000000000001</v>
       </c>
-      <c r="E14" s="225">
+      <c r="E14" s="224">
         <f ca="1">IF(E4="","",(1+D13)*(1+E13))</f>
         <v>1.2012160000000003</v>
       </c>
-      <c r="F14" s="225">
+      <c r="F14" s="224">
         <f ca="1">IF(F4="","",(1+D13)*(1+E13)*(1+F13))</f>
         <v>1.3165327360000003</v>
       </c>
-      <c r="G14" s="232">
+      <c r="G14" s="231">
         <f ca="1">IF(F4="",IF(E4="",D14,E14),F14)*(1+G13)</f>
         <v>1.4429198786560005</v>
       </c>
       <c r="H14" s="62"/>
-      <c r="I14" s="354"/>
+      <c r="I14" s="353"/>
       <c r="J14" s="57"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="C15" s="237">
+      <c r="C15" s="236">
         <f>C12</f>
         <v>0</v>
       </c>
-      <c r="D15" s="195">
+      <c r="D15" s="194">
         <f ca="1">IF(D12="","",MAX(D9-D11+D12,D12)/D14)</f>
         <v>0.32846715328467152</v>
       </c>
-      <c r="E15" s="196">
+      <c r="E15" s="195">
         <f ca="1">IF(E9="","",E9/E14)</f>
         <v>0.28390267465468139</v>
       </c>
-      <c r="F15" s="196">
+      <c r="F15" s="195">
         <f ca="1">IF(F9="","",F9/F14)</f>
         <v>0.31432077639741951</v>
       </c>
-      <c r="G15" s="233">
+      <c r="G15" s="232">
         <f ca="1">IF(G12=0,0,G12/G14)</f>
         <v>4.5886244729550292</v>
       </c>
       <c r="H15" s="80"/>
-      <c r="I15" s="353"/>
+      <c r="I15" s="352"/>
       <c r="J15" s="56"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F16" s="6"/>
-      <c r="G16" s="115"/>
+      <c r="G16" s="114"/>
       <c r="I16" s="74"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="C17" s="194" t="str">
+      <c r="C17" s="193" t="str">
         <f>B3</f>
         <v>(Numbers in 1000USD)</v>
       </c>
@@ -12624,14 +12866,14 @@
         <f>Asset_Model!E59</f>
         <v>103300</v>
       </c>
-      <c r="D18" s="219">
+      <c r="D18" s="218">
         <f>C18/(Dashboard!I5/Data!C4)</f>
         <v>0.40878188538278287</v>
       </c>
       <c r="E18" s="85" t="s">
         <v>238</v>
       </c>
-      <c r="G18" s="137">
+      <c r="G18" s="136">
         <f>C18+C19+C20+C21</f>
         <v>-165880</v>
       </c>
@@ -12645,14 +12887,14 @@
         <f>Asset_Model!E58</f>
         <v>3320</v>
       </c>
-      <c r="D19" s="219">
+      <c r="D19" s="218">
         <f>C19/(Dashboard!I5/Data!C4)</f>
         <v>1.3138004447926807E-2</v>
       </c>
       <c r="E19" s="85" t="s">
         <v>239</v>
       </c>
-      <c r="G19" s="197">
+      <c r="G19" s="196">
         <f>(G18+MIN(D4,0))*Data!C$4/Dashboard!I5</f>
         <v>-0.65642535476569241</v>
       </c>
@@ -12666,15 +12908,15 @@
         <f>-Asset_Model!D52</f>
         <v>-272500</v>
       </c>
-      <c r="D20" s="219">
+      <c r="D20" s="218">
         <f>C20/(Dashboard!I5/Data!C4)</f>
         <v>-1.0783452445964021</v>
       </c>
-      <c r="E20" s="448" t="str">
+      <c r="E20" s="458" t="str">
         <f>IF(F21+G21=G19,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
-      <c r="F20" s="146" t="s">
+      <c r="F20" s="145" t="s">
         <v>246</v>
       </c>
       <c r="G20" s="87" t="s">
@@ -12690,16 +12932,16 @@
         <f>-Asset_Model!E50</f>
         <v>0</v>
       </c>
-      <c r="D21" s="219">
+      <c r="D21" s="218">
         <f>C21/(Dashboard!I5/Data!C4)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="448"/>
-      <c r="F21" s="148">
+      <c r="E21" s="458"/>
+      <c r="F21" s="147">
         <f>D18</f>
         <v>0.40878188538278287</v>
       </c>
-      <c r="G21" s="147">
+      <c r="G21" s="146">
         <f>SUM(D19:D21)</f>
         <v>-1.0652072401484753</v>
       </c>
@@ -12713,34 +12955,34 @@
       <c r="B23" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="C23" s="194" t="str">
+      <c r="C23" s="193" t="str">
         <f>B3</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="E23" s="451" t="s">
+      <c r="E23" s="461" t="s">
         <v>231</v>
       </c>
-      <c r="F23" s="451"/>
-      <c r="G23" s="451"/>
+      <c r="F23" s="461"/>
+      <c r="G23" s="461"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="127" t="str">
+      <c r="B24" s="126" t="str">
         <f>"Exit after Year "&amp;G4</f>
         <v>Exit after Year 3</v>
       </c>
-      <c r="C24" s="127" t="s">
+      <c r="C24" s="126" t="s">
         <v>227</v>
       </c>
-      <c r="D24" s="202" t="s">
+      <c r="D24" s="201" t="s">
         <v>220</v>
       </c>
-      <c r="E24" s="305" t="s">
+      <c r="E24" s="304" t="s">
         <v>228</v>
       </c>
-      <c r="F24" s="265" t="s">
+      <c r="F24" s="264" t="s">
         <v>230</v>
       </c>
-      <c r="G24" s="265" t="s">
+      <c r="G24" s="264" t="s">
         <v>229</v>
       </c>
       <c r="I24" s="86" t="s">
@@ -12755,18 +12997,18 @@
         <f>1/D25</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D25" s="298">
+      <c r="D25" s="297">
         <v>12</v>
       </c>
-      <c r="E25" s="206">
+      <c r="E25" s="205">
         <f ca="1">G9*D25/G14</f>
         <v>3.4414683547162719</v>
       </c>
-      <c r="F25" s="449">
+      <c r="F25" s="459">
         <f ca="1">SUM(C15:F15)</f>
         <v>0.92669060433677242</v>
       </c>
-      <c r="G25" s="206">
+      <c r="G25" s="205">
         <f ca="1">$F$25+E25+$G$19</f>
         <v>3.7117336042873519</v>
       </c>
@@ -12775,159 +13017,167 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="302" t="s">
+      <c r="B26" s="301" t="s">
         <v>304</v>
       </c>
-      <c r="C26" s="303">
+      <c r="C26" s="302">
         <f t="shared" ref="C26" si="0">1/D26</f>
         <v>6.25E-2</v>
       </c>
-      <c r="D26" s="315">
+      <c r="D26" s="314">
         <v>16</v>
       </c>
-      <c r="E26" s="207">
+      <c r="E26" s="206">
         <f ca="1">G9*D26/G14</f>
         <v>4.5886244729550292</v>
       </c>
-      <c r="F26" s="450"/>
-      <c r="G26" s="207">
+      <c r="F26" s="460"/>
+      <c r="G26" s="206">
         <f ca="1">$F$25+E26+$G$19</f>
         <v>4.8588897225261096</v>
       </c>
       <c r="I26" s="74"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="366"/>
+      <c r="D27" s="367"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="123"/>
+      <c r="G27" s="122"/>
+      <c r="I27" s="74"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11" t="s">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="250" t="str">
+      <c r="C29" s="249" t="str">
         <f>"(Numbers in "&amp;Dashboard!J4&amp;" per share)"</f>
         <v>(Numbers in HKD per share)</v>
       </c>
-      <c r="D28" s="127"/>
-      <c r="E28" s="133"/>
-      <c r="F28" s="127"/>
-      <c r="G28" s="127"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="90"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="71" t="s">
+      <c r="D29" s="126"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="126"/>
+      <c r="G29" s="126"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="89"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="C29" s="252">
+      <c r="C30" s="251">
         <f ca="1">MIN(Asset_Model!D7,G25*Exchange_Rate)+(ABS(Asset_Model!D7-G25*Exchange_Rate)*'Qualitative Analysis'!E8)</f>
-        <v>21.393484598052311</v>
-      </c>
-      <c r="D29" s="23" t="str">
-        <f ca="1">IF(C29&lt;E29,"&lt;",IF(C29=E29,"=","&gt;"))</f>
+        <v>21.371393368551981</v>
+      </c>
+      <c r="D30" s="23" t="str">
+        <f ca="1">IF(C30&lt;E30,"&lt;",IF(C30=E30,"=","&gt;"))</f>
         <v>&lt;</v>
       </c>
-      <c r="E29" s="251">
+      <c r="E30" s="250">
         <f ca="1">G26*Exchange_Rate</f>
-        <v>38.140660575382157</v>
-      </c>
-      <c r="F29" s="30"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="6"/>
-      <c r="C30" s="123"/>
-      <c r="D30" s="123"/>
-      <c r="E30" s="123"/>
-      <c r="F30" s="123"/>
-      <c r="G30" s="124"/>
+        <v>38.101275963576484</v>
+      </c>
+      <c r="F30" s="30"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="88"/>
+      <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="446" t="s">
+      <c r="A31" s="6"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="368"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="30"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="456" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="447"/>
-      <c r="E31" s="30" t="s">
+      <c r="D32" s="457"/>
+      <c r="E32" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="F31" s="30" t="s">
+      <c r="F32" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="30"/>
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="256" t="s">
+      <c r="G32" s="30"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="255" t="s">
         <v>233</v>
       </c>
-      <c r="C32" s="253">
-        <f ca="1">MIN(C29,E29)+ABS(C29-E29)*'Qualitative Analysis'!$E$64</f>
-        <v>31.505446542119149</v>
-      </c>
-      <c r="D32" s="119" t="str">
+      <c r="C33" s="252">
+        <f ca="1">MIN(C30,E30)+ABS(C30-E30)*'Qualitative Analysis'!$E$64</f>
+        <v>31.472913550736543</v>
+      </c>
+      <c r="D33" s="118" t="str">
         <f>Dashboard!J4</f>
         <v>HKD</v>
       </c>
-      <c r="E32" s="120">
-        <f ca="1">(C32-G19)/C9</f>
-        <v>86.415865262518835</v>
-      </c>
-      <c r="F32" s="158">
-        <f ca="1">C32/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>1.4941744879977181</v>
-      </c>
-      <c r="G32" s="87"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="74"/>
-    </row>
-    <row r="33" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="255" t="s">
+      <c r="E33" s="119">
+        <f ca="1">(C33-G19)/C9</f>
+        <v>86.328452234790873</v>
+      </c>
+      <c r="F33" s="157">
+        <f ca="1">C33/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
+        <v>1.4941744879977179</v>
+      </c>
+      <c r="G33" s="87"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="74"/>
+    </row>
+    <row r="34" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="254" t="s">
         <v>232</v>
       </c>
-      <c r="C33" s="254">
-        <f ca="1">MAX(Asset_Model!D7,(G12/(1+G33)^G4+F25+G19)*Exchange_Rate)</f>
-        <v>44.074495330312914</v>
-      </c>
-      <c r="D33" s="208" t="str">
-        <f>D32</f>
+      <c r="C34" s="253">
+        <f ca="1">MAX(Asset_Model!D7,(G12/(1+G34)^G4+F25+G19)*Exchange_Rate)</f>
+        <v>44.028983352729711</v>
+      </c>
+      <c r="D34" s="207" t="str">
+        <f>D33</f>
         <v>HKD</v>
       </c>
-      <c r="E33" s="120">
-        <f ca="1">(C33-G19)/C9</f>
-        <v>120.18769390610544</v>
-      </c>
-      <c r="F33" s="158">
-        <f ca="1">C33/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
+      <c r="E34" s="119">
+        <f ca="1">(C34-G19)/C9</f>
+        <v>120.06540758722231</v>
+      </c>
+      <c r="F34" s="157">
+        <f ca="1">C34/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
         <v>2.0902730709081552</v>
       </c>
-      <c r="G33" s="281">
+      <c r="G34" s="280">
         <f>Dashboard!D10+4.5%</f>
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13802,16 +14052,17 @@
     <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="E23:G23"/>
   </mergeCells>
-  <conditionalFormatting sqref="E25:E26 G25:G26">
+  <conditionalFormatting sqref="E25:E27 G25:G27">
     <cfRule type="cellIs" dxfId="1" priority="28" operator="equal">
-      <formula>$E$29</formula>
+      <formula>$E$30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F9 E13:F15">
@@ -13852,7 +14103,7 @@
       <c r="B2" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="95"/>
+      <c r="C2" s="94"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="G2" s="72" t="s">
@@ -13863,8 +14114,8 @@
       <c r="B3" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="94">
+      <c r="C3" s="95"/>
+      <c r="D3" s="93">
         <f>IF(E3="Strongly disagree",0,IF(E3="disagree",1,IF(E3="unclear",2,IF(E3="agree",3,4))))</f>
         <v>3</v>
       </c>
@@ -13879,8 +14130,8 @@
       <c r="B4" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="94">
+      <c r="C4" s="95"/>
+      <c r="D4" s="93">
         <f t="shared" ref="D4" si="0">IF(E4="Strongly disagree",0,IF(E4="disagree",1,IF(E4="unclear",2,IF(E4="agree",3,4))))</f>
         <v>4</v>
       </c>
@@ -13893,12 +14144,12 @@
       <c r="B5" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="94">
+      <c r="C5" s="95"/>
+      <c r="D5" s="93">
         <f>AVERAGE(D12:D16)</f>
         <v>2</v>
       </c>
-      <c r="E5" s="102" t="str">
+      <c r="E5" s="101" t="str">
         <f>IF(D5&gt;=3.5,"Strongly agree",IF(D5&gt;=2.5,"agree",IF(D5&gt;=1.5,"unclear",IF(D5&gt;=0.5,"disagree","Strongly disagree"))))</f>
         <v>unclear</v>
       </c>
@@ -13908,12 +14159,12 @@
       <c r="B6" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C6" s="96"/>
-      <c r="D6" s="94">
+      <c r="C6" s="95"/>
+      <c r="D6" s="93">
         <f>AVERAGE(D24:D28)</f>
         <v>3.4</v>
       </c>
-      <c r="E6" s="102" t="str">
+      <c r="E6" s="101" t="str">
         <f>IF(D6&gt;=3.5,"Strongly agree",IF(D6&gt;=2.5,"agree",IF(D6&gt;=1.5,"unclear",IF(D6&gt;=0.5,"disagree","Strongly disagree"))))</f>
         <v>agree</v>
       </c>
@@ -13923,35 +14174,35 @@
       <c r="B7" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="100">
+      <c r="C7" s="95"/>
+      <c r="D7" s="99">
         <f>IF(E7="Strongly disagree",0,IF(E7="disagree",1,IF(E7="unclear",2,IF(E7="agree",3,4))))</f>
         <v>2</v>
       </c>
-      <c r="E7" s="101" t="str">
+      <c r="E7" s="100" t="str">
         <f>IF(D64&gt;=3.5,"Strongly agree",IF(D64&gt;=2.5,"agree",IF(D64&gt;=1.5,"unclear",IF(D64&gt;=0.5,"disagree","Strongly disagree"))))</f>
         <v>unclear</v>
       </c>
       <c r="G7" s="79"/>
     </row>
     <row r="8" spans="1:7" ht="14" x14ac:dyDescent="0.3">
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="94">
+      <c r="C8" s="95"/>
+      <c r="D8" s="93">
         <f>AVERAGE(D3:D7)</f>
         <v>2.88</v>
       </c>
-      <c r="E8" s="98">
+      <c r="E8" s="97">
         <f>D8/4</f>
         <v>0.72</v>
       </c>
       <c r="G8" s="77"/>
     </row>
     <row r="9" spans="1:7" ht="14" x14ac:dyDescent="0.3">
-      <c r="B9" s="96"/>
-      <c r="C9" s="96"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="95"/>
       <c r="E9" s="6"/>
       <c r="G9" s="77"/>
     </row>
@@ -13963,21 +14214,21 @@
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
       <c r="E10" s="12"/>
-      <c r="G10" s="295"/>
+      <c r="G10" s="294"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="99" t="s">
+      <c r="B11" s="98" t="s">
         <v>159</v>
       </c>
-      <c r="C11" s="93"/>
+      <c r="C11" s="92"/>
       <c r="E11" s="6"/>
-      <c r="G11" s="295"/>
+      <c r="G11" s="294"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="53" t="s">
         <v>285</v>
       </c>
-      <c r="D12" s="100">
+      <c r="D12" s="99">
         <f>IF(E12="Strongly disagree",0,IF(E12="disagree",1,IF(E12="unclear",2,IF(E12="agree",3,4))))</f>
         <v>0</v>
       </c>
@@ -13985,7 +14236,7 @@
         <v>178</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="295" t="s">
+      <c r="G12" s="294" t="s">
         <v>286</v>
       </c>
     </row>
@@ -13993,7 +14244,7 @@
       <c r="B13" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="D13" s="100">
+      <c r="D13" s="99">
         <f>IF(E13="Strongly disagree",0,IF(E13="disagree",1,IF(E13="unclear",2,IF(E13="agree",3,4))))</f>
         <v>3</v>
       </c>
@@ -14001,13 +14252,13 @@
         <v>156</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="295"/>
+      <c r="G13" s="294"/>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="D14" s="100">
+      <c r="D14" s="99">
         <f>IF(E14="Strongly disagree",0,IF(E14="disagree",1,IF(E14="unclear",2,IF(E14="agree",3,4))))</f>
         <v>3</v>
       </c>
@@ -14015,13 +14266,13 @@
         <v>156</v>
       </c>
       <c r="F14" s="6"/>
-      <c r="G14" s="295"/>
+      <c r="G14" s="294"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="D15" s="100">
+      <c r="D15" s="99">
         <f>IF(E15="Strongly disagree",0,IF(E15="disagree",1,IF(E15="unclear",2,IF(E15="agree",3,4))))</f>
         <v>0</v>
       </c>
@@ -14029,13 +14280,13 @@
         <v>178</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="295"/>
+      <c r="G15" s="294"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="D16" s="100">
+      <c r="D16" s="99">
         <f>IF(E16="Strongly disagree",0,IF(E16="disagree",1,IF(E16="unclear",2,IF(E16="agree",3,4))))</f>
         <v>4</v>
       </c>
@@ -14043,21 +14294,21 @@
         <v>165</v>
       </c>
       <c r="F16" s="6"/>
-      <c r="G16" s="295"/>
+      <c r="G16" s="294"/>
     </row>
     <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="99" t="s">
+      <c r="B17" s="98" t="s">
         <v>166</v>
       </c>
       <c r="D17" s="38"/>
       <c r="E17" s="23"/>
-      <c r="G17" s="295"/>
+      <c r="G17" s="294"/>
     </row>
     <row r="18" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="53" t="s">
         <v>308</v>
       </c>
-      <c r="D18" s="100">
+      <c r="D18" s="99">
         <f>Asset_Model!J26</f>
         <v>1</v>
       </c>
@@ -14066,13 +14317,13 @@
         <v>disagree</v>
       </c>
       <c r="F18" s="6"/>
-      <c r="G18" s="295"/>
+      <c r="G18" s="294"/>
     </row>
     <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="D19" s="100">
+      <c r="D19" s="99">
         <f t="shared" ref="D19:D22" si="1">IF(E19="Strongly disagree",0,IF(E19="disagree",1,IF(E19="unclear",2,IF(E19="agree",3,4))))</f>
         <v>3</v>
       </c>
@@ -14080,13 +14331,13 @@
         <v>156</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="295"/>
+      <c r="G19" s="294"/>
     </row>
     <row r="20" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="D20" s="100">
+      <c r="D20" s="99">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -14094,13 +14345,13 @@
         <v>163</v>
       </c>
       <c r="F20" s="6"/>
-      <c r="G20" s="295"/>
+      <c r="G20" s="294"/>
     </row>
     <row r="21" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="D21" s="100">
+      <c r="D21" s="99">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -14108,13 +14359,13 @@
         <v>156</v>
       </c>
       <c r="F21" s="6"/>
-      <c r="G21" s="295"/>
+      <c r="G21" s="294"/>
     </row>
     <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="D22" s="100">
+      <c r="D22" s="99">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -14122,21 +14373,21 @@
         <v>163</v>
       </c>
       <c r="F22" s="6"/>
-      <c r="G22" s="295"/>
+      <c r="G22" s="294"/>
     </row>
     <row r="23" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="99" t="s">
+      <c r="B23" s="98" t="s">
         <v>171</v>
       </c>
       <c r="D23" s="38"/>
       <c r="E23" s="23"/>
-      <c r="G23" s="295"/>
+      <c r="G23" s="294"/>
     </row>
     <row r="24" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="D24" s="100">
+      <c r="D24" s="99">
         <f t="shared" ref="D24:D28" si="2">IF(E24="Strongly disagree",0,IF(E24="disagree",1,IF(E24="unclear",2,IF(E24="agree",3,4))))</f>
         <v>4</v>
       </c>
@@ -14144,13 +14395,13 @@
         <v>165</v>
       </c>
       <c r="F24" s="6"/>
-      <c r="G24" s="295"/>
+      <c r="G24" s="294"/>
     </row>
     <row r="25" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="D25" s="100">
+      <c r="D25" s="99">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
@@ -14158,13 +14409,13 @@
         <v>156</v>
       </c>
       <c r="F25" s="6"/>
-      <c r="G25" s="295"/>
+      <c r="G25" s="294"/>
     </row>
     <row r="26" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="53" t="s">
         <v>289</v>
       </c>
-      <c r="D26" s="100">
+      <c r="D26" s="99">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
@@ -14172,13 +14423,13 @@
         <v>156</v>
       </c>
       <c r="F26" s="6"/>
-      <c r="G26" s="295"/>
+      <c r="G26" s="294"/>
     </row>
     <row r="27" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="53" t="s">
         <v>290</v>
       </c>
-      <c r="D27" s="100">
+      <c r="D27" s="99">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -14186,13 +14437,13 @@
         <v>165</v>
       </c>
       <c r="F27" s="6"/>
-      <c r="G27" s="295"/>
+      <c r="G27" s="294"/>
     </row>
     <row r="28" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="D28" s="100">
+      <c r="D28" s="99">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
@@ -14200,21 +14451,21 @@
         <v>156</v>
       </c>
       <c r="F28" s="6"/>
-      <c r="G28" s="295"/>
+      <c r="G28" s="294"/>
     </row>
     <row r="29" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="99" t="s">
+      <c r="B29" s="98" t="s">
         <v>175</v>
       </c>
       <c r="D29" s="38"/>
       <c r="E29" s="23"/>
-      <c r="G29" s="295"/>
+      <c r="G29" s="294"/>
     </row>
     <row r="30" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D30" s="103">
+      <c r="D30" s="102">
         <f>SUM(D31:D35)/(5*4)</f>
         <v>0.4</v>
       </c>
@@ -14223,13 +14474,13 @@
         <v>Low</v>
       </c>
       <c r="F30" s="6"/>
-      <c r="G30" s="295"/>
+      <c r="G30" s="294"/>
     </row>
     <row r="31" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="53" t="s">
         <v>177</v>
       </c>
-      <c r="D31" s="100">
+      <c r="D31" s="99">
         <f t="shared" ref="D31:D35" si="3">IF(E31="Strongly disagree",0,IF(E31="disagree",1,IF(E31="unclear",2,IF(E31="agree",3,4))))</f>
         <v>0</v>
       </c>
@@ -14237,13 +14488,13 @@
         <v>178</v>
       </c>
       <c r="F31" s="6"/>
-      <c r="G31" s="295"/>
+      <c r="G31" s="294"/>
     </row>
     <row r="32" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="53" t="s">
         <v>291</v>
       </c>
-      <c r="D32" s="100">
+      <c r="D32" s="99">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -14251,13 +14502,13 @@
         <v>165</v>
       </c>
       <c r="F32" s="6"/>
-      <c r="G32" s="295"/>
+      <c r="G32" s="294"/>
     </row>
     <row r="33" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="53" t="s">
         <v>292</v>
       </c>
-      <c r="D33" s="100">
+      <c r="D33" s="99">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -14265,13 +14516,13 @@
         <v>163</v>
       </c>
       <c r="F33" s="6"/>
-      <c r="G33" s="295"/>
+      <c r="G33" s="294"/>
     </row>
     <row r="34" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="53" t="s">
         <v>293</v>
       </c>
-      <c r="D34" s="100">
+      <c r="D34" s="99">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -14279,26 +14530,26 @@
         <v>163</v>
       </c>
       <c r="F34" s="6"/>
-      <c r="G34" s="295"/>
+      <c r="G34" s="294"/>
     </row>
     <row r="35" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="53" t="s">
         <v>310</v>
       </c>
-      <c r="D35" s="100">
+      <c r="D35" s="99">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E35" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="G35" s="295"/>
+      <c r="G35" s="294"/>
     </row>
     <row r="36" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D36" s="103">
+      <c r="D36" s="102">
         <f>SUM(D37:D41)/(5*4)</f>
         <v>0.2</v>
       </c>
@@ -14307,13 +14558,13 @@
         <v>Very Low</v>
       </c>
       <c r="F36" s="6"/>
-      <c r="G36" s="295"/>
+      <c r="G36" s="294"/>
     </row>
     <row r="37" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="D37" s="100">
+      <c r="D37" s="99">
         <f t="shared" ref="D37:D41" si="4">IF(E37="Strongly disagree",0,IF(E37="disagree",1,IF(E37="unclear",2,IF(E37="agree",3,4))))</f>
         <v>0</v>
       </c>
@@ -14321,13 +14572,13 @@
         <v>178</v>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="295"/>
+      <c r="G37" s="294"/>
     </row>
     <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="53" t="s">
         <v>294</v>
       </c>
-      <c r="D38" s="100">
+      <c r="D38" s="99">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -14335,13 +14586,13 @@
         <v>178</v>
       </c>
       <c r="F38" s="6"/>
-      <c r="G38" s="295"/>
+      <c r="G38" s="294"/>
     </row>
     <row r="39" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="53" t="s">
         <v>295</v>
       </c>
-      <c r="D39" s="100">
+      <c r="D39" s="99">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -14349,13 +14600,13 @@
         <v>178</v>
       </c>
       <c r="F39" s="6"/>
-      <c r="G39" s="295"/>
+      <c r="G39" s="294"/>
     </row>
     <row r="40" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="53" t="s">
         <v>296</v>
       </c>
-      <c r="D40" s="100">
+      <c r="D40" s="99">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
@@ -14363,26 +14614,26 @@
         <v>165</v>
       </c>
       <c r="F40" s="6"/>
-      <c r="G40" s="295"/>
+      <c r="G40" s="294"/>
     </row>
     <row r="41" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="53" t="s">
         <v>297</v>
       </c>
-      <c r="D41" s="100">
+      <c r="D41" s="99">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E41" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="G41" s="295"/>
+      <c r="G41" s="294"/>
     </row>
     <row r="42" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D42" s="103">
+      <c r="D42" s="102">
         <f>SUM(D43:D48)/(6*4)</f>
         <v>0.25</v>
       </c>
@@ -14391,13 +14642,13 @@
         <v>Low</v>
       </c>
       <c r="F42" s="6"/>
-      <c r="G42" s="295"/>
+      <c r="G42" s="294"/>
     </row>
     <row r="43" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="D43" s="100">
+      <c r="D43" s="99">
         <f t="shared" ref="D43:D48" si="5">IF(E43="Strongly disagree",0,IF(E43="disagree",1,IF(E43="unclear",2,IF(E43="agree",3,4))))</f>
         <v>0</v>
       </c>
@@ -14405,13 +14656,13 @@
         <v>178</v>
       </c>
       <c r="F43" s="6"/>
-      <c r="G43" s="295"/>
+      <c r="G43" s="294"/>
     </row>
     <row r="44" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="53" t="s">
         <v>183</v>
       </c>
-      <c r="D44" s="100">
+      <c r="D44" s="99">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -14419,13 +14670,13 @@
         <v>163</v>
       </c>
       <c r="F44" s="6"/>
-      <c r="G44" s="295"/>
+      <c r="G44" s="294"/>
     </row>
     <row r="45" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="53" t="s">
         <v>184</v>
       </c>
-      <c r="D45" s="100">
+      <c r="D45" s="99">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
@@ -14433,13 +14684,13 @@
         <v>165</v>
       </c>
       <c r="F45" s="6"/>
-      <c r="G45" s="295"/>
+      <c r="G45" s="294"/>
     </row>
     <row r="46" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="D46" s="100">
+      <c r="D46" s="99">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -14447,13 +14698,13 @@
         <v>178</v>
       </c>
       <c r="F46" s="6"/>
-      <c r="G46" s="295"/>
+      <c r="G46" s="294"/>
     </row>
     <row r="47" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="53" t="s">
         <v>186</v>
       </c>
-      <c r="D47" s="100">
+      <c r="D47" s="99">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -14461,13 +14712,13 @@
         <v>178</v>
       </c>
       <c r="F47" s="6"/>
-      <c r="G47" s="295"/>
+      <c r="G47" s="294"/>
     </row>
     <row r="48" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="D48" s="100">
+      <c r="D48" s="99">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -14475,13 +14726,13 @@
         <v>163</v>
       </c>
       <c r="F48" s="6"/>
-      <c r="G48" s="295"/>
+      <c r="G48" s="294"/>
     </row>
     <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D49" s="103">
+      <c r="D49" s="102">
         <f>SUM(D50:D54)/(5*4)</f>
         <v>0.36564625850340138</v>
       </c>
@@ -14490,26 +14741,26 @@
         <v>Low</v>
       </c>
       <c r="F49" s="6"/>
-      <c r="G49" s="295"/>
+      <c r="G49" s="294"/>
     </row>
     <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="53" t="s">
         <v>188</v>
       </c>
-      <c r="D50" s="100">
+      <c r="D50" s="99">
         <f t="shared" ref="D50:D52" si="6">IF(E50="Strongly disagree",0,IF(E50="disagree",1,IF(E50="unclear",2,IF(E50="agree",3,4))))</f>
         <v>0</v>
       </c>
       <c r="E50" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="G50" s="295"/>
+      <c r="G50" s="294"/>
     </row>
     <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="53" t="s">
         <v>189</v>
       </c>
-      <c r="D51" s="100">
+      <c r="D51" s="99">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -14517,26 +14768,26 @@
         <v>178</v>
       </c>
       <c r="F51" s="6"/>
-      <c r="G51" s="295"/>
+      <c r="G51" s="294"/>
     </row>
     <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="53" t="s">
         <v>298</v>
       </c>
-      <c r="D52" s="100">
+      <c r="D52" s="99">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E52" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="G52" s="295"/>
+      <c r="G52" s="294"/>
     </row>
     <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="53" t="s">
         <v>299</v>
       </c>
-      <c r="D53" s="100">
+      <c r="D53" s="99">
         <f>IF(E53="Strongly disagree",0,IF(E53="disagree",1,IF(E53="unclear",2,IF(E53="agree",3,4))))</f>
         <v>4</v>
       </c>
@@ -14544,14 +14795,14 @@
         <v>165</v>
       </c>
       <c r="F53" s="53"/>
-      <c r="G53" s="295"/>
+      <c r="G53" s="294"/>
       <c r="H53" s="53"/>
     </row>
     <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="53" t="s">
         <v>300</v>
       </c>
-      <c r="D54" s="104">
+      <c r="D54" s="103">
         <f t="array" ref="D54">(1-INDEX(B68:E77,MATCH(E54,B68:B77,0),4))*4</f>
         <v>2.3129251700680271</v>
       </c>
@@ -14559,14 +14810,14 @@
         <v>321</v>
       </c>
       <c r="F54" s="53"/>
-      <c r="G54" s="295"/>
+      <c r="G54" s="294"/>
       <c r="H54" s="53"/>
     </row>
     <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D55" s="105">
+      <c r="D55" s="104">
         <f>SUM(D56:D61)/(6*4)</f>
         <v>0.70833333333333337</v>
       </c>
@@ -14575,14 +14826,14 @@
         <v>High</v>
       </c>
       <c r="F55" s="53"/>
-      <c r="G55" s="295"/>
+      <c r="G55" s="294"/>
       <c r="H55" s="53"/>
     </row>
     <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="53" t="s">
         <v>191</v>
       </c>
-      <c r="D56" s="100">
+      <c r="D56" s="99">
         <f t="shared" ref="D56:D60" si="7">IF(E56="Strongly disagree",0,IF(E56="disagree",1,IF(E56="unclear",2,IF(E56="agree",3,4))))</f>
         <v>3</v>
       </c>
@@ -14590,14 +14841,14 @@
         <v>156</v>
       </c>
       <c r="F56" s="53"/>
-      <c r="G56" s="295"/>
+      <c r="G56" s="294"/>
       <c r="H56" s="53"/>
     </row>
     <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="53" t="s">
         <v>192</v>
       </c>
-      <c r="D57" s="100">
+      <c r="D57" s="99">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
@@ -14605,14 +14856,14 @@
         <v>155</v>
       </c>
       <c r="F57" s="53"/>
-      <c r="G57" s="295"/>
+      <c r="G57" s="294"/>
       <c r="H57" s="53"/>
     </row>
     <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="D58" s="100">
+      <c r="D58" s="99">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
@@ -14620,14 +14871,14 @@
         <v>155</v>
       </c>
       <c r="F58" s="53"/>
-      <c r="G58" s="295"/>
+      <c r="G58" s="294"/>
       <c r="H58" s="53"/>
     </row>
     <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="53" t="s">
         <v>214</v>
       </c>
-      <c r="D59" s="100">
+      <c r="D59" s="99">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
@@ -14635,14 +14886,14 @@
         <v>165</v>
       </c>
       <c r="F59" s="53"/>
-      <c r="G59" s="295"/>
+      <c r="G59" s="294"/>
       <c r="H59" s="53"/>
     </row>
     <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="53" t="s">
         <v>215</v>
       </c>
-      <c r="D60" s="100">
+      <c r="D60" s="99">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
@@ -14650,14 +14901,14 @@
         <v>165</v>
       </c>
       <c r="F60" s="53"/>
-      <c r="G60" s="295"/>
+      <c r="G60" s="294"/>
       <c r="H60" s="53"/>
     </row>
     <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="53" t="s">
         <v>216</v>
       </c>
-      <c r="D61" s="100">
+      <c r="D61" s="99">
         <f>IF(E61="Strongly disagree",0,IF(E61="disagree",1,IF(E61="non-perishable",2,IF(E61="agree",3,4))))</f>
         <v>2</v>
       </c>
@@ -14665,14 +14916,14 @@
         <v>277</v>
       </c>
       <c r="F61" s="53"/>
-      <c r="G61" s="295"/>
+      <c r="G61" s="294"/>
       <c r="H61" s="53"/>
     </row>
     <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="146" t="s">
+      <c r="B62" s="145" t="s">
         <v>193</v>
       </c>
-      <c r="D62" s="126">
+      <c r="D62" s="125">
         <f>1-AVERAGE(D30,D36,D42,D49,D55)</f>
         <v>0.61520408163265305</v>
       </c>
@@ -14681,29 +14932,29 @@
         <v>Low</v>
       </c>
       <c r="F62" s="53"/>
-      <c r="G62" s="295"/>
+      <c r="G62" s="294"/>
       <c r="H62" s="53"/>
     </row>
     <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D63" s="6"/>
-      <c r="G63" s="295"/>
+      <c r="G63" s="294"/>
     </row>
     <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="97" t="s">
+      <c r="B64" s="96" t="s">
         <v>194</v>
       </c>
-      <c r="D64" s="94">
+      <c r="D64" s="93">
         <f>E64*4</f>
         <v>2.4152040816326528</v>
       </c>
-      <c r="E64" s="125">
+      <c r="E64" s="124">
         <f>AVERAGE(AVERAGE(D12:D16)/4,AVERAGE(D18:D22)/4,AVERAGE(D24:D28)/4,D62)</f>
         <v>0.60380102040816319</v>
       </c>
-      <c r="G64" s="295"/>
+      <c r="G64" s="294"/>
     </row>
     <row r="65" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G65" s="296"/>
+      <c r="G65" s="295"/>
     </row>
     <row r="66" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="54" t="s">
@@ -14714,166 +14965,166 @@
       <c r="E66" s="55"/>
     </row>
     <row r="67" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="106" t="s">
+      <c r="B67" s="105" t="s">
         <v>196</v>
       </c>
-      <c r="C67" s="107"/>
-      <c r="D67" s="107"/>
-      <c r="E67" s="108"/>
+      <c r="C67" s="106"/>
+      <c r="D67" s="106"/>
+      <c r="E67" s="107"/>
     </row>
     <row r="68" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="109" t="s">
+      <c r="B68" s="108" t="s">
         <v>197</v>
       </c>
-      <c r="C68" s="107"/>
-      <c r="D68" s="107">
+      <c r="C68" s="106"/>
+      <c r="D68" s="106">
         <v>1</v>
       </c>
-      <c r="E68" s="110">
+      <c r="E68" s="109">
         <f t="shared" ref="E68:E76" si="8">D68/MAX($D$68:$D$77)</f>
         <v>3.4013605442176874E-2</v>
       </c>
     </row>
     <row r="69" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="109" t="str">
+      <c r="B69" s="108" t="str">
         <f t="shared" ref="B69:B77" si="9">C69&amp;", "&amp;D69&amp;"y"</f>
         <v>Information Technology Like, 6.6y</v>
       </c>
-      <c r="C69" s="107" t="s">
+      <c r="C69" s="106" t="s">
         <v>198</v>
       </c>
-      <c r="D69" s="107">
+      <c r="D69" s="106">
         <v>6.6</v>
       </c>
-      <c r="E69" s="110">
+      <c r="E69" s="109">
         <f t="shared" si="8"/>
         <v>0.22448979591836735</v>
       </c>
     </row>
     <row r="70" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="109" t="str">
+      <c r="B70" s="108" t="str">
         <f t="shared" si="9"/>
         <v>Healthcare, 11.4y</v>
       </c>
-      <c r="C70" s="107" t="s">
+      <c r="C70" s="106" t="s">
         <v>199</v>
       </c>
-      <c r="D70" s="107">
+      <c r="D70" s="106">
         <v>11.4</v>
       </c>
-      <c r="E70" s="110">
+      <c r="E70" s="109">
         <f t="shared" si="8"/>
         <v>0.38775510204081637</v>
       </c>
     </row>
     <row r="71" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="109" t="str">
+      <c r="B71" s="108" t="str">
         <f t="shared" si="9"/>
         <v>Consumer Discretionary, 12.4y</v>
       </c>
-      <c r="C71" s="107" t="s">
+      <c r="C71" s="106" t="s">
         <v>200</v>
       </c>
-      <c r="D71" s="107">
+      <c r="D71" s="106">
         <v>12.4</v>
       </c>
-      <c r="E71" s="110">
+      <c r="E71" s="109">
         <f t="shared" si="8"/>
         <v>0.42176870748299322</v>
       </c>
     </row>
     <row r="72" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="109" t="str">
+      <c r="B72" s="108" t="str">
         <f t="shared" si="9"/>
         <v>Consumer Staples, 15.1y</v>
       </c>
-      <c r="C72" s="107" t="s">
+      <c r="C72" s="106" t="s">
         <v>201</v>
       </c>
-      <c r="D72" s="107">
+      <c r="D72" s="106">
         <v>15.1</v>
       </c>
-      <c r="E72" s="110">
+      <c r="E72" s="109">
         <f t="shared" si="8"/>
         <v>0.51360544217687076</v>
       </c>
     </row>
     <row r="73" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="109" t="str">
+      <c r="B73" s="108" t="str">
         <f t="shared" si="9"/>
         <v>Industrials, 15.4y</v>
       </c>
-      <c r="C73" s="107" t="s">
+      <c r="C73" s="106" t="s">
         <v>202</v>
       </c>
-      <c r="D73" s="107">
+      <c r="D73" s="106">
         <v>15.4</v>
       </c>
-      <c r="E73" s="110">
+      <c r="E73" s="109">
         <f t="shared" si="8"/>
         <v>0.52380952380952384</v>
       </c>
     </row>
     <row r="74" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="109" t="str">
+      <c r="B74" s="108" t="str">
         <f t="shared" si="9"/>
         <v>Telecommunication Services, 16.1y</v>
       </c>
-      <c r="C74" s="107" t="s">
+      <c r="C74" s="106" t="s">
         <v>203</v>
       </c>
-      <c r="D74" s="107">
+      <c r="D74" s="106">
         <v>16.100000000000001</v>
       </c>
-      <c r="E74" s="110">
+      <c r="E74" s="109">
         <f t="shared" si="8"/>
         <v>0.54761904761904767</v>
       </c>
     </row>
     <row r="75" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="109" t="str">
+      <c r="B75" s="108" t="str">
         <f t="shared" si="9"/>
         <v>Energy, 17.6y</v>
       </c>
-      <c r="C75" s="107" t="s">
+      <c r="C75" s="106" t="s">
         <v>204</v>
       </c>
-      <c r="D75" s="107">
+      <c r="D75" s="106">
         <v>17.600000000000001</v>
       </c>
-      <c r="E75" s="110">
+      <c r="E75" s="109">
         <f t="shared" si="8"/>
         <v>0.59863945578231303</v>
       </c>
     </row>
     <row r="76" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="109" t="str">
+      <c r="B76" s="108" t="str">
         <f t="shared" si="9"/>
         <v>Materials, 18.6y</v>
       </c>
-      <c r="C76" s="107" t="s">
+      <c r="C76" s="106" t="s">
         <v>205</v>
       </c>
-      <c r="D76" s="107">
+      <c r="D76" s="106">
         <v>18.600000000000001</v>
       </c>
-      <c r="E76" s="110">
+      <c r="E76" s="109">
         <f t="shared" si="8"/>
         <v>0.63265306122448983</v>
       </c>
     </row>
     <row r="77" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="111" t="str">
+      <c r="B77" s="110" t="str">
         <f t="shared" si="9"/>
         <v>Utilities, 29.4y</v>
       </c>
-      <c r="C77" s="112" t="s">
+      <c r="C77" s="111" t="s">
         <v>206</v>
       </c>
-      <c r="D77" s="112">
+      <c r="D77" s="111">
         <v>29.4</v>
       </c>
-      <c r="E77" s="113">
+      <c r="E77" s="112">
         <f>D77/MAX($D$69:$D$77)</f>
         <v>1</v>
       </c>

--- a/financial_models/Opportunities/0303.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0303.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CBDF4AB-3CBE-413B-AA17-25CE0070864C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DB9E2F-3638-4548-B6E1-C9E056A9C2AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -1179,13 +1179,7 @@
     <t>80% chance of recession in US, and 50% chance of spilling over</t>
   </si>
   <si>
-    <t>4. The probability of a recession affecting the company</t>
-  </si>
-  <si>
     <t>60% chance of chinese recession</t>
-  </si>
-  <si>
-    <t>5. Is the upside very attractive?</t>
   </si>
   <si>
     <t>A = Upside in event of a win</t>
@@ -1225,6 +1219,12 @@
   </si>
   <si>
     <t>Export oriented</t>
+  </si>
+  <si>
+    <t>4. Is the upside very attractive?</t>
+  </si>
+  <si>
+    <t>5. The probability of a recession affecting the company</t>
   </si>
 </sst>
 </file>
@@ -4553,8 +4553,8 @@
   </sheetPr>
   <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5280,7 +5280,7 @@
     </row>
     <row r="42" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="E42" s="359">
         <f ca="1">IF(F42="Strongly disagree",0,IF(F42="disagree",1,IF(F42="So-so",2,IF(F42="agree",3,4))))/4</f>
@@ -5291,7 +5291,7 @@
         <v>Strongly Agree</v>
       </c>
       <c r="G42" s="74" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H42" s="74"/>
       <c r="I42" s="74"/>
@@ -5299,13 +5299,13 @@
     </row>
     <row r="43" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="F43" s="361">
         <v>0.8</v>
       </c>
       <c r="G43" s="115" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H43" s="115"/>
       <c r="I43" s="115"/>
@@ -5314,7 +5314,7 @@
     <row r="44" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F45" s="360">
         <f ca="1">I35/C29-1</f>
@@ -5323,7 +5323,7 @@
     </row>
     <row r="46" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F46" s="360">
         <f ca="1">D14/C29-1</f>
@@ -5333,7 +5333,7 @@
     <row r="47" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F48" s="213">
         <f ca="1">IF(F45&lt;=0,0,AVERAGE(F39:F41,1-F43,E42))</f>
@@ -5343,7 +5343,7 @@
     </row>
     <row r="49" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E49" s="362">
         <f ca="1">F45/ABS(F46)</f>
@@ -5357,7 +5357,7 @@
     </row>
     <row r="50" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E50" s="106">
         <f ca="1">MAX(F48-ABS((1-F48)/F49),0)/2</f>
@@ -5368,7 +5368,7 @@
         <v>0.23161695858127629</v>
       </c>
       <c r="G50" s="365" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H50" s="78">
         <v>0.3</v>
@@ -9601,7 +9601,7 @@
   <dimension ref="A2:K65"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9691,7 +9691,7 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="59">
-        <f>E46-I46-E50</f>
+        <f>E46-I46-E50+MIN('FCFF Model'!D4,0)</f>
         <v>47790</v>
       </c>
       <c r="E6" s="14">
@@ -9715,7 +9715,7 @@
         <v>85</v>
       </c>
       <c r="D7" s="61">
-        <f>MAX(((D6+MIN('FCFF Model'!D4,0))*Dashboard!I12*Data!C4)/Dashboard!I5, 0)</f>
+        <f>MAX((D6*Exchange_Rate*Data!C4)/Dashboard!I5, 0)</f>
         <v>1.4829647529490073</v>
       </c>
       <c r="E7" s="49" t="str">
@@ -12479,8 +12479,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/financial_models/Opportunities/0303.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0303.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DB9E2F-3638-4548-B6E1-C9E056A9C2AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D60CA61D-70EB-4FD9-A0EC-FD83F751DB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -3928,150 +3928,16 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4082,6 +3948,7 @@
     <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4103,6 +3970,10 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4112,6 +3983,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4122,10 +3997,135 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4598,33 +4598,33 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="378" t="s">
+      <c r="C3" s="424" t="s">
         <v>311</v>
       </c>
-      <c r="D3" s="379"/>
+      <c r="D3" s="425"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="390" t="s">
+      <c r="I3" s="434" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="391"/>
+      <c r="J3" s="435"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="380" t="s">
+      <c r="C4" s="426" t="s">
         <v>312</v>
       </c>
-      <c r="D4" s="381"/>
+      <c r="D4" s="427"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>45.95</v>
+        <v>46.95</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4635,10 +4635,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="382">
+      <c r="C5" s="428">
         <v>44986</v>
       </c>
-      <c r="D5" s="381"/>
+      <c r="D5" s="427"/>
       <c r="E5" s="121" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v>Patience Premium</v>
@@ -4646,10 +4646,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="392">
+      <c r="I5" s="417">
         <v>252702000</v>
       </c>
-      <c r="J5" s="393"/>
+      <c r="J5" s="418"/>
       <c r="K5" s="150"/>
       <c r="L5" s="85"/>
     </row>
@@ -4672,11 +4672,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="132"/>
-      <c r="I6" s="394">
+      <c r="I6" s="436">
         <f>I4*I5/1000000</f>
-        <v>11611.6569</v>
-      </c>
-      <c r="J6" s="395"/>
+        <v>11864.358899999999</v>
+      </c>
+      <c r="J6" s="437"/>
       <c r="K6" s="150"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4685,11 +4685,11 @@
       </c>
       <c r="C7" s="144">
         <f>(Data!C39*Exchange_Rate)/I4</f>
-        <v>0.15512052924343558</v>
+        <v>0.15192480339757078</v>
       </c>
       <c r="D7" s="144">
         <f>(Data!C40*Exchange_Rate)/I4</f>
-        <v>1.0805086930322026E-3</v>
+        <v>1.0582485217070668E-3</v>
       </c>
       <c r="E7" s="152"/>
       <c r="F7" s="6"/>
@@ -4716,11 +4716,11 @@
       </c>
       <c r="I9" s="120">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>8.5743139220748201</v>
+        <v>8.7546739159569711</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>0.11662740705416336</v>
+        <v>0.11422469981175652</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4739,47 +4739,47 @@
       </c>
       <c r="I10" s="137">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>2.1814732091077218</v>
+        <v>2.2273603201027825</v>
       </c>
       <c r="J10" s="129">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>76.852060042421272</v>
+        <v>78.501281775167229</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="312" t="s">
         <v>278</v>
       </c>
-      <c r="C11" s="369">
+      <c r="C11" s="445">
         <f ca="1">C12-D10</f>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="D11" s="370"/>
+      <c r="D11" s="446"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="404" t="s">
+      <c r="I11" s="443" t="s">
         <v>313</v>
       </c>
-      <c r="J11" s="405"/>
+      <c r="J11" s="444"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="313" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="426">
+      <c r="C12" s="374">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="D12" s="427"/>
+      <c r="D12" s="375"/>
       <c r="G12" s="133" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="132"/>
       <c r="I12" s="134">
-        <v>7.8415601380983482</v>
+        <v>7.8471501668294268</v>
       </c>
       <c r="J12" s="135" t="str">
         <f>IF(I11=Dashboard!J4,J4,I11&amp;"/"&amp;Dashboard!J4)</f>
@@ -4797,21 +4797,21 @@
       </c>
       <c r="D14" s="183">
         <f ca="1">MIN('FCFF Model'!C30,'FCFF Model'!E30)</f>
-        <v>21.371393368551981</v>
+        <v>21.386628436682489</v>
       </c>
       <c r="E14" s="126" t="s">
         <v>234</v>
       </c>
       <c r="F14" s="183">
         <f ca="1">MAX('FCFF Model'!C30,'FCFF Model'!E30)</f>
-        <v>38.101275963576484</v>
+        <v>38.128437296726545</v>
       </c>
       <c r="G14" s="184" t="s">
         <v>24</v>
       </c>
       <c r="H14" s="192">
         <f ca="1">IF('FCFF Model'!C33&lt;0, "Error", 'FCFF Model'!C33)</f>
-        <v>31.472913550736543</v>
+        <v>31.495349709855518</v>
       </c>
       <c r="I14" s="132"/>
       <c r="J14" s="132"/>
@@ -4842,82 +4842,82 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="130">
         <f>I4</f>
-        <v>45.95</v>
-      </c>
-      <c r="C16" s="433">
+        <v>46.95</v>
+      </c>
+      <c r="C16" s="382">
         <v>0.1</v>
       </c>
       <c r="D16" s="158">
         <f ca="1">H14/B16-1-C16</f>
-        <v>-0.41506172903728966</v>
-      </c>
-      <c r="E16" s="430">
+        <v>-0.42917253014152257</v>
+      </c>
+      <c r="E16" s="379">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
-        <v>3.6855332649062236</v>
+        <v>3.6881605784098306</v>
       </c>
       <c r="F16" s="160">
         <f>E16/B16</f>
-        <v>8.0207470400570691E-2</v>
-      </c>
-      <c r="G16" s="399" t="s">
+        <v>7.8555070892648141E-2</v>
+      </c>
+      <c r="G16" s="407" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="396">
+      <c r="H16" s="438">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
-        <v>-5.1473988955677203</v>
-      </c>
-      <c r="I16" s="399" t="s">
+        <v>-5.1510683321606692</v>
+      </c>
+      <c r="I16" s="407" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="205">
         <f>B16-$H$16</f>
-        <v>51.097398895567721</v>
+        <v>52.101068332160672</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="289">
         <f ca="1">H14/(1+C16)</f>
-        <v>28.611739591578672</v>
-      </c>
-      <c r="C17" s="434"/>
+        <v>28.632136099868649</v>
+      </c>
+      <c r="C17" s="383"/>
       <c r="D17" s="288">
         <f ca="1">H14/B17-1-C16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="431"/>
+      <c r="E17" s="380"/>
       <c r="F17" s="161">
         <f ca="1">E16/B17</f>
         <v>0.12881192536755057</v>
       </c>
-      <c r="G17" s="400"/>
-      <c r="H17" s="397"/>
-      <c r="I17" s="400"/>
+      <c r="G17" s="408"/>
+      <c r="H17" s="439"/>
+      <c r="I17" s="408"/>
       <c r="J17" s="204">
         <f ca="1">B17-$H$16</f>
-        <v>33.759138487146394</v>
+        <v>33.783204432029322</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="357">
         <f ca="1">C35</f>
-        <v>28.611739591578672</v>
-      </c>
-      <c r="C18" s="435"/>
+        <v>28.632136099868649</v>
+      </c>
+      <c r="C18" s="384"/>
       <c r="D18" s="159">
         <f ca="1">H14/B18-1-C16</f>
         <v>0</v>
       </c>
-      <c r="E18" s="432"/>
+      <c r="E18" s="381"/>
       <c r="F18" s="162">
         <f ca="1">E16/B18</f>
         <v>0.12881192536755057</v>
       </c>
-      <c r="G18" s="401"/>
-      <c r="H18" s="398"/>
-      <c r="I18" s="401"/>
+      <c r="G18" s="409"/>
+      <c r="H18" s="440"/>
+      <c r="I18" s="409"/>
       <c r="J18" s="206">
         <f ca="1">B18-$H$16</f>
-        <v>33.759138487146394</v>
+        <v>33.783204432029322</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -4948,42 +4948,42 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="385"/>
-      <c r="D21" s="386"/>
-      <c r="E21" s="386"/>
-      <c r="F21" s="386"/>
-      <c r="G21" s="386"/>
-      <c r="H21" s="386"/>
-      <c r="I21" s="386"/>
-      <c r="J21" s="387"/>
+      <c r="C21" s="431"/>
+      <c r="D21" s="432"/>
+      <c r="E21" s="432"/>
+      <c r="F21" s="432"/>
+      <c r="G21" s="432"/>
+      <c r="H21" s="432"/>
+      <c r="I21" s="432"/>
+      <c r="J21" s="433"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="403"/>
-      <c r="D22" s="374"/>
-      <c r="E22" s="374"/>
-      <c r="F22" s="374"/>
-      <c r="G22" s="403"/>
-      <c r="H22" s="403"/>
-      <c r="I22" s="374"/>
-      <c r="J22" s="374"/>
+      <c r="C22" s="442"/>
+      <c r="D22" s="386"/>
+      <c r="E22" s="386"/>
+      <c r="F22" s="386"/>
+      <c r="G22" s="442"/>
+      <c r="H22" s="442"/>
+      <c r="I22" s="386"/>
+      <c r="J22" s="386"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="388"/>
-      <c r="D23" s="389"/>
-      <c r="E23" s="389"/>
-      <c r="F23" s="389"/>
-      <c r="G23" s="388"/>
-      <c r="H23" s="388"/>
-      <c r="I23" s="389"/>
-      <c r="J23" s="389"/>
+      <c r="C23" s="405"/>
+      <c r="D23" s="406"/>
+      <c r="E23" s="406"/>
+      <c r="F23" s="406"/>
+      <c r="G23" s="405"/>
+      <c r="H23" s="405"/>
+      <c r="I23" s="406"/>
+      <c r="J23" s="406"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -5020,64 +5020,64 @@
       </c>
       <c r="J25" s="356">
         <f ca="1">H14/(H25+C16+1)</f>
-        <v>25.178330840589233</v>
+        <v>25.196279767884413</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="383"/>
-      <c r="D26" s="384"/>
-      <c r="E26" s="436" t="str">
+      <c r="C26" s="429"/>
+      <c r="D26" s="430"/>
+      <c r="E26" s="387" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v/>
       </c>
-      <c r="F26" s="437"/>
-      <c r="G26" s="437"/>
-      <c r="H26" s="438"/>
-      <c r="I26" s="402" t="s">
+      <c r="F26" s="388"/>
+      <c r="G26" s="388"/>
+      <c r="H26" s="389"/>
+      <c r="I26" s="441" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="402"/>
+      <c r="J26" s="441"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="429">
+      <c r="C27" s="378">
         <f ca="1">C31/D25</f>
-        <v>0.14305869795789336</v>
-      </c>
-      <c r="D27" s="409"/>
-      <c r="E27" s="428">
+        <v>0.14316068049934325</v>
+      </c>
+      <c r="D27" s="377"/>
+      <c r="E27" s="376">
         <f>E31/D25</f>
         <v>0</v>
       </c>
-      <c r="F27" s="409"/>
-      <c r="G27" s="413">
+      <c r="F27" s="377"/>
+      <c r="G27" s="411">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="414"/>
-      <c r="I27" s="412">
+      <c r="H27" s="412"/>
+      <c r="I27" s="410">
         <f ca="1">C27+E27+G27</f>
-        <v>0.14305869795789336</v>
-      </c>
-      <c r="J27" s="412"/>
+        <v>0.14316068049934325</v>
+      </c>
+      <c r="J27" s="410"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="373">
+      <c r="C28" s="372">
         <v>3000</v>
       </c>
-      <c r="D28" s="374"/>
-      <c r="E28" s="373"/>
-      <c r="F28" s="374"/>
-      <c r="G28" s="392"/>
-      <c r="H28" s="393"/>
+      <c r="D28" s="386"/>
+      <c r="E28" s="372"/>
+      <c r="F28" s="386"/>
+      <c r="G28" s="417"/>
+      <c r="H28" s="418"/>
       <c r="I28" s="421">
         <f>C28+E28+G28</f>
         <v>3000</v>
@@ -5088,15 +5088,15 @@
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="375">
+      <c r="C29" s="385">
         <f ca="1">B17</f>
-        <v>28.611739591578672</v>
-      </c>
-      <c r="D29" s="374"/>
-      <c r="E29" s="375"/>
-      <c r="F29" s="374"/>
-      <c r="G29" s="415"/>
-      <c r="H29" s="416"/>
+        <v>28.632136099868649</v>
+      </c>
+      <c r="D29" s="386"/>
+      <c r="E29" s="385"/>
+      <c r="F29" s="386"/>
+      <c r="G29" s="413"/>
+      <c r="H29" s="414"/>
       <c r="I29" s="419"/>
       <c r="J29" s="419"/>
     </row>
@@ -5104,21 +5104,21 @@
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="371">
+      <c r="C30" s="398">
         <f ca="1">C29*$I$5/1000000</f>
-        <v>7230.243818271113</v>
-      </c>
-      <c r="D30" s="372"/>
-      <c r="E30" s="371">
+        <v>7235.3980567090075</v>
+      </c>
+      <c r="D30" s="399"/>
+      <c r="E30" s="398">
         <f>E29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="F30" s="372"/>
-      <c r="G30" s="417">
+      <c r="F30" s="399"/>
+      <c r="G30" s="415">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="418"/>
+      <c r="H30" s="416"/>
       <c r="I30" s="420"/>
       <c r="J30" s="420"/>
     </row>
@@ -5126,103 +5126,103 @@
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="445">
+      <c r="C31" s="400">
         <f ca="1">C28*C29</f>
-        <v>85835.218774736015</v>
-      </c>
-      <c r="D31" s="446"/>
-      <c r="E31" s="406">
+        <v>85896.408299605944</v>
+      </c>
+      <c r="D31" s="401"/>
+      <c r="E31" s="402">
         <f>E28*E29</f>
         <v>0</v>
       </c>
-      <c r="F31" s="407"/>
-      <c r="G31" s="376">
+      <c r="F31" s="403"/>
+      <c r="G31" s="422">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="377"/>
-      <c r="I31" s="406">
+      <c r="H31" s="423"/>
+      <c r="I31" s="402">
         <f ca="1">C31+E31+G31</f>
-        <v>85835.218774736015</v>
-      </c>
-      <c r="J31" s="406"/>
+        <v>85896.408299605944</v>
+      </c>
+      <c r="J31" s="402"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="441"/>
-      <c r="D32" s="442"/>
-      <c r="E32" s="408">
+      <c r="C32" s="394"/>
+      <c r="D32" s="395"/>
+      <c r="E32" s="404">
         <f ca="1">IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
-        <v>28.611739591578672</v>
-      </c>
-      <c r="F32" s="409"/>
+        <v>28.632136099868649</v>
+      </c>
+      <c r="F32" s="377"/>
       <c r="G32" s="116"/>
       <c r="H32" s="116"/>
-      <c r="I32" s="408">
+      <c r="I32" s="404">
         <f ca="1">IF(I31=0,"",I31/I28)</f>
-        <v>28.611739591578672</v>
-      </c>
-      <c r="J32" s="408"/>
+        <v>28.632136099868649</v>
+      </c>
+      <c r="J32" s="404"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="443"/>
-      <c r="D33" s="444"/>
-      <c r="E33" s="371">
+      <c r="C33" s="396"/>
+      <c r="D33" s="397"/>
+      <c r="E33" s="398">
         <f ca="1">IF(E32="-","-",E32*$I$5/1000000)</f>
-        <v>7230.243818271113</v>
-      </c>
-      <c r="F33" s="372"/>
+        <v>7235.3980567090075</v>
+      </c>
+      <c r="F33" s="399"/>
       <c r="G33" s="117"/>
       <c r="H33" s="117"/>
-      <c r="I33" s="371">
+      <c r="I33" s="398">
         <f ca="1">IF(I32="","",I32*$I$5/1000000)</f>
-        <v>7230.243818271113</v>
-      </c>
-      <c r="J33" s="371"/>
+        <v>7235.3980567090075</v>
+      </c>
+      <c r="J33" s="398"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="145" t="s">
         <v>326</v>
       </c>
-      <c r="C35" s="410">
+      <c r="C35" s="390">
         <f ca="1">C29</f>
-        <v>28.611739591578672</v>
-      </c>
-      <c r="D35" s="411"/>
-      <c r="G35" s="439" t="s">
+        <v>28.632136099868649</v>
+      </c>
+      <c r="D35" s="391"/>
+      <c r="G35" s="392" t="s">
         <v>327</v>
       </c>
-      <c r="H35" s="440"/>
-      <c r="I35" s="410">
+      <c r="H35" s="393"/>
+      <c r="I35" s="390">
         <f ca="1">'FCFF Model'!C34</f>
-        <v>44.028983352729711</v>
-      </c>
-      <c r="J35" s="411"/>
+        <v>44.060370382556357</v>
+      </c>
+      <c r="J35" s="391"/>
     </row>
     <row r="36" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="145" t="s">
         <v>328</v>
       </c>
-      <c r="C36" s="373">
+      <c r="C36" s="372">
         <f>C28</f>
         <v>3000</v>
       </c>
-      <c r="D36" s="425"/>
-      <c r="G36" s="422" t="s">
+      <c r="D36" s="373"/>
+      <c r="G36" s="369" t="s">
         <v>332</v>
       </c>
-      <c r="H36" s="422"/>
-      <c r="I36" s="423">
+      <c r="H36" s="369"/>
+      <c r="I36" s="370">
         <f>IF(C26="",0,I35/C29-1)</f>
         <v>0</v>
       </c>
-      <c r="J36" s="424"/>
+      <c r="J36" s="371"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6292,6 +6292,44 @@
     <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I32:J32"/>
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="C36:D36"/>
@@ -6308,44 +6346,6 @@
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
   </mergeCells>
   <conditionalFormatting sqref="C35:D36">
     <cfRule type="containsBlanks" priority="6">
@@ -9673,7 +9673,7 @@
       </c>
       <c r="I4" s="90">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
-        <v>18.159258703196468</v>
+        <v>18.172203930434186</v>
       </c>
       <c r="K4" s="74"/>
     </row>
@@ -9716,7 +9716,7 @@
       </c>
       <c r="D7" s="61">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Dashboard!I5, 0)</f>
-        <v>1.4829647529490073</v>
+        <v>1.484021917012047</v>
       </c>
       <c r="E7" s="49" t="str">
         <f>Dashboard!J4</f>
@@ -10625,7 +10625,7 @@
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>272500</v>
       </c>
-      <c r="E53" s="446"/>
+      <c r="E53" s="401"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10644,7 +10644,7 @@
       <c r="D54" s="455">
         <v>0</v>
       </c>
-      <c r="E54" s="374"/>
+      <c r="E54" s="386"/>
       <c r="F54" s="6" t="s">
         <v>137</v>
       </c>
@@ -10658,7 +10658,7 @@
       <c r="D55" s="455">
         <v>0</v>
       </c>
-      <c r="E55" s="374"/>
+      <c r="E55" s="386"/>
       <c r="F55" s="5" t="s">
         <v>138</v>
       </c>
@@ -10722,7 +10722,7 @@
       <c r="C60" s="6"/>
       <c r="D60" s="453">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>11775656.9</v>
+        <v>12028358.899999999</v>
       </c>
       <c r="E60" s="454"/>
       <c r="F60" s="6"/>
@@ -10741,11 +10741,11 @@
       <c r="B63" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D63" s="423">
+      <c r="D63" s="370">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>0.13929550727694578</v>
       </c>
-      <c r="E63" s="424"/>
+      <c r="E63" s="371"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
@@ -13077,7 +13077,7 @@
       </c>
       <c r="C30" s="251">
         <f ca="1">MIN(Asset_Model!D7,G25*Exchange_Rate)+(ABS(Asset_Model!D7-G25*Exchange_Rate)*'Qualitative Analysis'!E8)</f>
-        <v>21.371393368551981</v>
+        <v>21.386628436682489</v>
       </c>
       <c r="D30" s="23" t="str">
         <f ca="1">IF(C30&lt;E30,"&lt;",IF(C30=E30,"=","&gt;"))</f>
@@ -13085,7 +13085,7 @@
       </c>
       <c r="E30" s="250">
         <f ca="1">G26*Exchange_Rate</f>
-        <v>38.101275963576484</v>
+        <v>38.128437296726545</v>
       </c>
       <c r="F30" s="30"/>
       <c r="H30" s="6"/>
@@ -13121,7 +13121,7 @@
       </c>
       <c r="C33" s="252">
         <f ca="1">MIN(C30,E30)+ABS(C30-E30)*'Qualitative Analysis'!$E$64</f>
-        <v>31.472913550736543</v>
+        <v>31.495349709855518</v>
       </c>
       <c r="D33" s="118" t="str">
         <f>Dashboard!J4</f>
@@ -13129,11 +13129,11 @@
       </c>
       <c r="E33" s="119">
         <f ca="1">(C33-G19)/C9</f>
-        <v>86.328452234790873</v>
+        <v>86.388736042575758</v>
       </c>
       <c r="F33" s="157">
         <f ca="1">C33/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>1.4941744879977179</v>
+        <v>1.4941744879977181</v>
       </c>
       <c r="G33" s="87"/>
       <c r="H33" s="6"/>
@@ -13145,7 +13145,7 @@
       </c>
       <c r="C34" s="253">
         <f ca="1">MAX(Asset_Model!D7,(G12/(1+G34)^G4+F25+G19)*Exchange_Rate)</f>
-        <v>44.028983352729711</v>
+        <v>44.060370382556357</v>
       </c>
       <c r="D34" s="207" t="str">
         <f>D33</f>
@@ -13153,7 +13153,7 @@
       </c>
       <c r="E34" s="119">
         <f ca="1">(C34-G19)/C9</f>
-        <v>120.06540758722231</v>
+        <v>120.14974152615429</v>
       </c>
       <c r="F34" s="157">
         <f ca="1">C34/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>

--- a/financial_models/Opportunities/0303.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0303.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D60CA61D-70EB-4FD9-A0EC-FD83F751DB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C6FDDE-CF1E-48C5-BC36-03EF983ABFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="349">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1225,6 +1225,9 @@
   </si>
   <si>
     <t>5. The probability of a recession affecting the company</t>
+  </si>
+  <si>
+    <t>Quarter</t>
   </si>
 </sst>
 </file>
@@ -2996,7 +2999,7 @@
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="462">
+  <cellXfs count="461">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3647,9 +3650,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="182" fontId="2" fillId="8" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3928,6 +3928,143 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3935,9 +4072,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3948,7 +4082,6 @@
     <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3970,10 +4103,6 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3983,10 +4112,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3997,135 +4122,10 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4553,8 +4553,8 @@
   </sheetPr>
   <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4582,7 +4582,7 @@
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="307" t="str">
+      <c r="C2" s="306" t="str">
         <f>C3&amp;" : "&amp;C4</f>
         <v>0303.HK : VTECH HOLDINGS</v>
       </c>
@@ -4598,27 +4598,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="424" t="s">
+      <c r="C3" s="377" t="s">
         <v>311</v>
       </c>
-      <c r="D3" s="425"/>
+      <c r="D3" s="378"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="434" t="s">
+      <c r="I3" s="389" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="435"/>
+      <c r="J3" s="390"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="426" t="s">
+      <c r="C4" s="379" t="s">
         <v>312</v>
       </c>
-      <c r="D4" s="427"/>
+      <c r="D4" s="380"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -4635,10 +4635,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="428">
+      <c r="C5" s="381">
         <v>44986</v>
       </c>
-      <c r="D5" s="427"/>
+      <c r="D5" s="380"/>
       <c r="E5" s="121" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v>Patience Premium</v>
@@ -4646,10 +4646,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="417">
+      <c r="I5" s="391">
         <v>252702000</v>
       </c>
-      <c r="J5" s="418"/>
+      <c r="J5" s="392"/>
       <c r="K5" s="150"/>
       <c r="L5" s="85"/>
     </row>
@@ -4657,26 +4657,26 @@
       <c r="B6" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="C6" s="269">
+      <c r="C6" s="268">
         <v>8</v>
       </c>
-      <c r="D6" s="270">
+      <c r="D6" s="269">
         <f>EOMONTH(EDATE(Asset_Model!D9,C6),0)</f>
         <v>45077</v>
       </c>
-      <c r="E6" s="354">
-        <f>Data!C3</f>
+      <c r="E6" s="353">
+        <f>IF(Asset_Model!E9="FY",Asset_Model!D9,Data!C3)</f>
         <v>44651</v>
       </c>
       <c r="G6" s="133" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="132"/>
-      <c r="I6" s="436">
+      <c r="I6" s="393">
         <f>I4*I5/1000000</f>
         <v>11864.358899999999</v>
       </c>
-      <c r="J6" s="437"/>
+      <c r="J6" s="394"/>
       <c r="K6" s="150"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4708,8 +4708,8 @@
       <c r="B9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="300"/>
-      <c r="D9" s="298"/>
+      <c r="C9" s="299"/>
+      <c r="D9" s="297"/>
       <c r="E9" s="5"/>
       <c r="G9" s="5" t="s">
         <v>13</v>
@@ -4727,10 +4727,10 @@
       <c r="B10" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C10" s="299" t="s">
+      <c r="C10" s="298" t="s">
         <v>276</v>
       </c>
-      <c r="D10" s="299">
+      <c r="D10" s="298">
         <v>2.8999999999999998E-2</v>
       </c>
       <c r="E10" s="5"/>
@@ -4747,33 +4747,33 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="312" t="s">
+      <c r="B11" s="311" t="s">
         <v>278</v>
       </c>
-      <c r="C11" s="445">
+      <c r="C11" s="368">
         <f ca="1">C12-D10</f>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="D11" s="446"/>
+      <c r="D11" s="369"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="443" t="s">
+      <c r="I11" s="403" t="s">
         <v>313</v>
       </c>
-      <c r="J11" s="444"/>
+      <c r="J11" s="404"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="313" t="s">
+      <c r="B12" s="312" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="374">
+      <c r="C12" s="425">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="D12" s="375"/>
+      <c r="D12" s="426"/>
       <c r="G12" s="133" t="s">
         <v>16</v>
       </c>
@@ -4844,14 +4844,14 @@
         <f>I4</f>
         <v>46.95</v>
       </c>
-      <c r="C16" s="382">
+      <c r="C16" s="432">
         <v>0.1</v>
       </c>
       <c r="D16" s="158">
         <f ca="1">H14/B16-1-C16</f>
         <v>-0.42917253014152257</v>
       </c>
-      <c r="E16" s="379">
+      <c r="E16" s="429">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
         <v>3.6881605784098306</v>
       </c>
@@ -4859,14 +4859,14 @@
         <f>E16/B16</f>
         <v>7.8555070892648141E-2</v>
       </c>
-      <c r="G16" s="407" t="s">
+      <c r="G16" s="398" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="438">
+      <c r="H16" s="395">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
         <v>-5.1510683321606692</v>
       </c>
-      <c r="I16" s="407" t="s">
+      <c r="I16" s="398" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="205">
@@ -4875,46 +4875,46 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="289">
+      <c r="B17" s="288">
         <f ca="1">H14/(1+C16)</f>
         <v>28.632136099868649</v>
       </c>
-      <c r="C17" s="383"/>
-      <c r="D17" s="288">
+      <c r="C17" s="433"/>
+      <c r="D17" s="287">
         <f ca="1">H14/B17-1-C16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="380"/>
+      <c r="E17" s="430"/>
       <c r="F17" s="161">
         <f ca="1">E16/B17</f>
         <v>0.12881192536755057</v>
       </c>
-      <c r="G17" s="408"/>
-      <c r="H17" s="439"/>
-      <c r="I17" s="408"/>
+      <c r="G17" s="399"/>
+      <c r="H17" s="396"/>
+      <c r="I17" s="399"/>
       <c r="J17" s="204">
         <f ca="1">B17-$H$16</f>
         <v>33.783204432029322</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="357">
+      <c r="B18" s="356">
         <f ca="1">C35</f>
         <v>28.632136099868649</v>
       </c>
-      <c r="C18" s="384"/>
+      <c r="C18" s="434"/>
       <c r="D18" s="159">
         <f ca="1">H14/B18-1-C16</f>
         <v>0</v>
       </c>
-      <c r="E18" s="381"/>
+      <c r="E18" s="431"/>
       <c r="F18" s="162">
         <f ca="1">E16/B18</f>
         <v>0.12881192536755057</v>
       </c>
-      <c r="G18" s="409"/>
-      <c r="H18" s="440"/>
-      <c r="I18" s="409"/>
+      <c r="G18" s="400"/>
+      <c r="H18" s="397"/>
+      <c r="I18" s="400"/>
       <c r="J18" s="206">
         <f ca="1">B18-$H$16</f>
         <v>33.783204432029322</v>
@@ -4932,7 +4932,7 @@
       <c r="C20" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="D20" s="290" t="s">
+      <c r="D20" s="289" t="s">
         <v>270</v>
       </c>
       <c r="E20" s="265" t="s">
@@ -4948,42 +4948,42 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="431"/>
-      <c r="D21" s="432"/>
-      <c r="E21" s="432"/>
-      <c r="F21" s="432"/>
-      <c r="G21" s="432"/>
-      <c r="H21" s="432"/>
-      <c r="I21" s="432"/>
-      <c r="J21" s="433"/>
+      <c r="C21" s="384"/>
+      <c r="D21" s="385"/>
+      <c r="E21" s="385"/>
+      <c r="F21" s="385"/>
+      <c r="G21" s="385"/>
+      <c r="H21" s="385"/>
+      <c r="I21" s="385"/>
+      <c r="J21" s="386"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="442"/>
-      <c r="D22" s="386"/>
-      <c r="E22" s="386"/>
-      <c r="F22" s="386"/>
-      <c r="G22" s="442"/>
-      <c r="H22" s="442"/>
-      <c r="I22" s="386"/>
-      <c r="J22" s="386"/>
+      <c r="C22" s="402"/>
+      <c r="D22" s="373"/>
+      <c r="E22" s="373"/>
+      <c r="F22" s="373"/>
+      <c r="G22" s="402"/>
+      <c r="H22" s="402"/>
+      <c r="I22" s="373"/>
+      <c r="J22" s="373"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="405"/>
-      <c r="D23" s="406"/>
-      <c r="E23" s="406"/>
-      <c r="F23" s="406"/>
-      <c r="G23" s="405"/>
-      <c r="H23" s="405"/>
-      <c r="I23" s="406"/>
-      <c r="J23" s="406"/>
+      <c r="C23" s="387"/>
+      <c r="D23" s="388"/>
+      <c r="E23" s="388"/>
+      <c r="F23" s="388"/>
+      <c r="G23" s="387"/>
+      <c r="H23" s="387"/>
+      <c r="I23" s="388"/>
+      <c r="J23" s="388"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -5012,13 +5012,13 @@
         <v>324</v>
       </c>
       <c r="G25" s="12"/>
-      <c r="H25" s="355">
+      <c r="H25" s="354">
         <v>0.15</v>
       </c>
       <c r="I25" s="30" t="s">
         <v>325</v>
       </c>
-      <c r="J25" s="356">
+      <c r="J25" s="355">
         <f ca="1">H14/(H25+C16+1)</f>
         <v>25.196279767884413</v>
       </c>
@@ -5027,44 +5027,44 @@
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="429"/>
-      <c r="D26" s="430"/>
-      <c r="E26" s="387" t="str">
+      <c r="C26" s="382"/>
+      <c r="D26" s="383"/>
+      <c r="E26" s="435" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v/>
       </c>
-      <c r="F26" s="388"/>
-      <c r="G26" s="388"/>
-      <c r="H26" s="389"/>
-      <c r="I26" s="441" t="s">
+      <c r="F26" s="436"/>
+      <c r="G26" s="436"/>
+      <c r="H26" s="437"/>
+      <c r="I26" s="401" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="441"/>
+      <c r="J26" s="401"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="378">
+      <c r="C27" s="428">
         <f ca="1">C31/D25</f>
         <v>0.14316068049934325</v>
       </c>
-      <c r="D27" s="377"/>
-      <c r="E27" s="376">
+      <c r="D27" s="408"/>
+      <c r="E27" s="427">
         <f>E31/D25</f>
         <v>0</v>
       </c>
-      <c r="F27" s="377"/>
-      <c r="G27" s="411">
+      <c r="F27" s="408"/>
+      <c r="G27" s="412">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="412"/>
-      <c r="I27" s="410">
+      <c r="H27" s="413"/>
+      <c r="I27" s="411">
         <f ca="1">C27+E27+G27</f>
         <v>0.14316068049934325</v>
       </c>
-      <c r="J27" s="410"/>
+      <c r="J27" s="411"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
@@ -5073,137 +5073,137 @@
       <c r="C28" s="372">
         <v>3000</v>
       </c>
-      <c r="D28" s="386"/>
+      <c r="D28" s="373"/>
       <c r="E28" s="372"/>
-      <c r="F28" s="386"/>
-      <c r="G28" s="417"/>
-      <c r="H28" s="418"/>
-      <c r="I28" s="421">
+      <c r="F28" s="373"/>
+      <c r="G28" s="391"/>
+      <c r="H28" s="392"/>
+      <c r="I28" s="420">
         <f>C28+E28+G28</f>
         <v>3000</v>
       </c>
-      <c r="J28" s="421"/>
+      <c r="J28" s="420"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="385">
+      <c r="C29" s="374">
         <f ca="1">B17</f>
         <v>28.632136099868649</v>
       </c>
-      <c r="D29" s="386"/>
-      <c r="E29" s="385"/>
-      <c r="F29" s="386"/>
-      <c r="G29" s="413"/>
-      <c r="H29" s="414"/>
-      <c r="I29" s="419"/>
-      <c r="J29" s="419"/>
+      <c r="D29" s="373"/>
+      <c r="E29" s="374"/>
+      <c r="F29" s="373"/>
+      <c r="G29" s="414"/>
+      <c r="H29" s="415"/>
+      <c r="I29" s="418"/>
+      <c r="J29" s="418"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="398">
+      <c r="C30" s="370">
         <f ca="1">C29*$I$5/1000000</f>
         <v>7235.3980567090075</v>
       </c>
-      <c r="D30" s="399"/>
-      <c r="E30" s="398">
+      <c r="D30" s="371"/>
+      <c r="E30" s="370">
         <f>E29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="F30" s="399"/>
-      <c r="G30" s="415">
+      <c r="F30" s="371"/>
+      <c r="G30" s="416">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="416"/>
-      <c r="I30" s="420"/>
-      <c r="J30" s="420"/>
+      <c r="H30" s="417"/>
+      <c r="I30" s="419"/>
+      <c r="J30" s="419"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="400">
+      <c r="C31" s="444">
         <f ca="1">C28*C29</f>
         <v>85896.408299605944</v>
       </c>
-      <c r="D31" s="401"/>
-      <c r="E31" s="402">
+      <c r="D31" s="445"/>
+      <c r="E31" s="405">
         <f>E28*E29</f>
         <v>0</v>
       </c>
-      <c r="F31" s="403"/>
-      <c r="G31" s="422">
+      <c r="F31" s="406"/>
+      <c r="G31" s="375">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="423"/>
-      <c r="I31" s="402">
+      <c r="H31" s="376"/>
+      <c r="I31" s="405">
         <f ca="1">C31+E31+G31</f>
         <v>85896.408299605944</v>
       </c>
-      <c r="J31" s="402"/>
+      <c r="J31" s="405"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="394"/>
-      <c r="D32" s="395"/>
-      <c r="E32" s="404">
+      <c r="C32" s="440"/>
+      <c r="D32" s="441"/>
+      <c r="E32" s="407">
         <f ca="1">IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>28.632136099868649</v>
       </c>
-      <c r="F32" s="377"/>
+      <c r="F32" s="408"/>
       <c r="G32" s="116"/>
       <c r="H32" s="116"/>
-      <c r="I32" s="404">
+      <c r="I32" s="407">
         <f ca="1">IF(I31=0,"",I31/I28)</f>
         <v>28.632136099868649</v>
       </c>
-      <c r="J32" s="404"/>
+      <c r="J32" s="407"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="396"/>
-      <c r="D33" s="397"/>
-      <c r="E33" s="398">
+      <c r="C33" s="442"/>
+      <c r="D33" s="443"/>
+      <c r="E33" s="370">
         <f ca="1">IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>7235.3980567090075</v>
       </c>
-      <c r="F33" s="399"/>
+      <c r="F33" s="371"/>
       <c r="G33" s="117"/>
       <c r="H33" s="117"/>
-      <c r="I33" s="398">
+      <c r="I33" s="370">
         <f ca="1">IF(I32="","",I32*$I$5/1000000)</f>
         <v>7235.3980567090075</v>
       </c>
-      <c r="J33" s="398"/>
+      <c r="J33" s="370"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="145" t="s">
         <v>326</v>
       </c>
-      <c r="C35" s="390">
+      <c r="C35" s="409">
         <f ca="1">C29</f>
         <v>28.632136099868649</v>
       </c>
-      <c r="D35" s="391"/>
-      <c r="G35" s="392" t="s">
+      <c r="D35" s="410"/>
+      <c r="G35" s="438" t="s">
         <v>327</v>
       </c>
-      <c r="H35" s="393"/>
-      <c r="I35" s="390">
+      <c r="H35" s="439"/>
+      <c r="I35" s="409">
         <f ca="1">'FCFF Model'!C34</f>
         <v>44.060370382556357</v>
       </c>
-      <c r="J35" s="391"/>
+      <c r="J35" s="410"/>
     </row>
     <row r="36" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="145" t="s">
@@ -5213,23 +5213,23 @@
         <f>C28</f>
         <v>3000</v>
       </c>
-      <c r="D36" s="373"/>
-      <c r="G36" s="369" t="s">
+      <c r="D36" s="424"/>
+      <c r="G36" s="421" t="s">
         <v>332</v>
       </c>
-      <c r="H36" s="369"/>
-      <c r="I36" s="370">
+      <c r="H36" s="421"/>
+      <c r="I36" s="422">
         <f>IF(C26="",0,I35/C29-1)</f>
         <v>0</v>
       </c>
-      <c r="J36" s="371"/>
+      <c r="J36" s="423"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="G38" s="345" t="s">
+      <c r="G38" s="344" t="s">
         <v>141</v>
       </c>
       <c r="H38" s="132"/>
@@ -5244,7 +5244,7 @@
         <f>'Qualitative Analysis'!E8</f>
         <v>0.72</v>
       </c>
-      <c r="G39" s="358"/>
+      <c r="G39" s="357"/>
       <c r="H39" s="115"/>
       <c r="I39" s="115"/>
       <c r="J39" s="115"/>
@@ -5266,12 +5266,12 @@
       <c r="B41" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="E41" s="359"/>
-      <c r="F41" s="360">
+      <c r="E41" s="358"/>
+      <c r="F41" s="359">
         <f>'Qualitative Analysis'!E64</f>
         <v>0.60380102040816319</v>
       </c>
-      <c r="G41" s="358" t="s">
+      <c r="G41" s="357" t="s">
         <v>337</v>
       </c>
       <c r="H41" s="115"/>
@@ -5282,7 +5282,7 @@
       <c r="B42" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="E42" s="359">
+      <c r="E42" s="358">
         <f ca="1">IF(F42="Strongly disagree",0,IF(F42="disagree",1,IF(F42="So-so",2,IF(F42="agree",3,4))))/4</f>
         <v>1</v>
       </c>
@@ -5301,7 +5301,7 @@
       <c r="B43" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="F43" s="361">
+      <c r="F43" s="360">
         <v>0.8</v>
       </c>
       <c r="G43" s="115" t="s">
@@ -5316,7 +5316,7 @@
       <c r="B45" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="F45" s="360">
+      <c r="F45" s="359">
         <f ca="1">I35/C29-1</f>
         <v>0.53884328535161186</v>
       </c>
@@ -5325,7 +5325,7 @@
       <c r="B46" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="F46" s="360">
+      <c r="F46" s="359">
         <f ca="1">D14/C29-1</f>
         <v>-0.25305508600245163</v>
       </c>
@@ -5345,11 +5345,11 @@
       <c r="B49" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="E49" s="362">
+      <c r="E49" s="361">
         <f ca="1">F45/ABS(F46)</f>
         <v>2.1293517307389407</v>
       </c>
-      <c r="F49" s="363">
+      <c r="F49" s="362">
         <f ca="1">IF(F46&gt;=0,100,F45/ABS(F46))</f>
         <v>2.1293517307389407</v>
       </c>
@@ -5363,11 +5363,11 @@
         <f ca="1">MAX(F48-ABS((1-F48)/F49),0)/2</f>
         <v>0.23161695858127629</v>
       </c>
-      <c r="F50" s="364">
+      <c r="F50" s="363">
         <f ca="1">MIN(E50,H50)</f>
         <v>0.23161695858127629</v>
       </c>
-      <c r="G50" s="365" t="s">
+      <c r="G50" s="364" t="s">
         <v>344</v>
       </c>
       <c r="H50" s="78">
@@ -6292,12 +6292,38 @@
     <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I32:J32"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
@@ -6314,38 +6340,12 @@
     <mergeCell ref="G22:J22"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C22:F22"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
   </mergeCells>
   <conditionalFormatting sqref="C35:D36">
     <cfRule type="containsBlanks" priority="6">
@@ -6429,7 +6429,7 @@
   </sheetPr>
   <dimension ref="A1:N941"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
@@ -6521,47 +6521,47 @@
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="42"/>
-      <c r="C6" s="278">
+      <c r="C6" s="277">
         <f>C3</f>
         <v>44651</v>
       </c>
-      <c r="D6" s="279">
+      <c r="D6" s="278">
         <f>EOMONTH(EDATE(C6,-12),0)</f>
         <v>44286</v>
       </c>
-      <c r="E6" s="279">
+      <c r="E6" s="278">
         <f t="shared" ref="E6:M6" si="0">EOMONTH(EDATE(D6,-12),0)</f>
         <v>43921</v>
       </c>
-      <c r="F6" s="279">
+      <c r="F6" s="278">
         <f t="shared" si="0"/>
         <v>43555</v>
       </c>
-      <c r="G6" s="279">
+      <c r="G6" s="278">
         <f t="shared" si="0"/>
         <v>43190</v>
       </c>
-      <c r="H6" s="279">
+      <c r="H6" s="278">
         <f t="shared" si="0"/>
         <v>42825</v>
       </c>
-      <c r="I6" s="279">
+      <c r="I6" s="278">
         <f t="shared" si="0"/>
         <v>42460</v>
       </c>
-      <c r="J6" s="279">
+      <c r="J6" s="278">
         <f t="shared" si="0"/>
         <v>42094</v>
       </c>
-      <c r="K6" s="279">
+      <c r="K6" s="278">
         <f t="shared" si="0"/>
         <v>41729</v>
       </c>
-      <c r="L6" s="279">
+      <c r="L6" s="278">
         <f t="shared" si="0"/>
         <v>41364</v>
       </c>
-      <c r="M6" s="279">
+      <c r="M6" s="278">
         <f t="shared" si="0"/>
         <v>40999</v>
       </c>
@@ -7235,7 +7235,7 @@
       <c r="B24" s="140" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="272">
+      <c r="C24" s="271">
         <v>20600</v>
       </c>
       <c r="D24" s="139">
@@ -7610,7 +7610,7 @@
         <f t="shared" ref="L34" si="17">IF(M7="","",L30-M30+L33+IF($C$49="Yes",L51,0))</f>
         <v/>
       </c>
-      <c r="M34" s="341" t="str">
+      <c r="M34" s="340" t="str">
         <f t="shared" ref="M34" si="18">IF(N7="","",M30-N30+M33+IF($C$49="Yes",M51,0))</f>
         <v/>
       </c>
@@ -8140,7 +8140,7 @@
       <c r="B49" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="340" t="s">
+      <c r="C49" s="339" t="s">
         <v>78</v>
       </c>
       <c r="D49" s="6"/>
@@ -8156,9 +8156,9 @@
     <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9"/>
       <c r="B50" s="5"/>
-      <c r="C50" s="337"/>
+      <c r="C50" s="336"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="337"/>
+      <c r="E50" s="336"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
@@ -8170,7 +8170,7 @@
     </row>
     <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
-      <c r="B51" s="338" t="s">
+      <c r="B51" s="337" t="s">
         <v>301</v>
       </c>
       <c r="C51" s="164"/>
@@ -8187,50 +8187,50 @@
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9"/>
-      <c r="B52" s="339" t="s">
+      <c r="B52" s="338" t="s">
         <v>302</v>
       </c>
-      <c r="C52" s="346" t="str">
+      <c r="C52" s="345" t="str">
         <f>IF(C51="","",C51/C7)</f>
         <v/>
       </c>
-      <c r="D52" s="346" t="str">
+      <c r="D52" s="345" t="str">
         <f t="shared" ref="D52:M52" si="27">IF(D51="","",D51/D7)</f>
         <v/>
       </c>
-      <c r="E52" s="346" t="str">
+      <c r="E52" s="345" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="F52" s="346" t="str">
+      <c r="F52" s="345" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="G52" s="346" t="str">
+      <c r="G52" s="345" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="H52" s="346" t="str">
+      <c r="H52" s="345" t="str">
         <f>IF(H51="","",H51/H7)</f>
         <v/>
       </c>
-      <c r="I52" s="346" t="str">
+      <c r="I52" s="345" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="J52" s="346" t="str">
+      <c r="J52" s="345" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="K52" s="346" t="str">
+      <c r="K52" s="345" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="L52" s="346" t="str">
+      <c r="L52" s="345" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="M52" s="347" t="str">
+      <c r="M52" s="346" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
@@ -9601,7 +9601,7 @@
   <dimension ref="A2:K65"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9630,7 +9630,7 @@
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
-      <c r="K2" s="345" t="s">
+      <c r="K2" s="344" t="s">
         <v>141</v>
       </c>
     </row>
@@ -9639,7 +9639,7 @@
         <v>259</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="273">
+      <c r="D3" s="272">
         <v>585200</v>
       </c>
       <c r="E3" s="155" t="str">
@@ -9648,10 +9648,10 @@
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="274" t="s">
+      <c r="H3" s="273" t="s">
         <v>260</v>
       </c>
-      <c r="I3" s="275">
+      <c r="I3" s="274">
         <v>585200</v>
       </c>
       <c r="K3" s="74"/>
@@ -9661,7 +9661,7 @@
         <v>226</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="276">
+      <c r="D4" s="275">
         <f>D3-I3</f>
         <v>0</v>
       </c>
@@ -9749,12 +9749,11 @@
         <v>255</v>
       </c>
       <c r="C9" s="254"/>
-      <c r="D9" s="271">
+      <c r="D9" s="270">
         <v>44834</v>
       </c>
-      <c r="E9" s="268" t="str">
-        <f>IF(D9=Data!C3,"FY","Quarter")</f>
-        <v>Quarter</v>
+      <c r="E9" s="289" t="s">
+        <v>348</v>
       </c>
       <c r="F9" s="132"/>
       <c r="G9" s="132"/>
@@ -10608,11 +10607,11 @@
         <v>266</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="447">
+      <c r="D52" s="446">
         <f>D53+D54+D55</f>
         <v>272500</v>
       </c>
-      <c r="E52" s="448"/>
+      <c r="E52" s="447"/>
       <c r="F52" s="53"/>
       <c r="G52" s="53"/>
     </row>
@@ -10621,11 +10620,11 @@
         <v>236</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="450">
+      <c r="D53" s="449">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>272500</v>
       </c>
-      <c r="E53" s="401"/>
+      <c r="E53" s="445"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10641,10 +10640,10 @@
         <v>136</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="455">
+      <c r="D54" s="454">
         <v>0</v>
       </c>
-      <c r="E54" s="386"/>
+      <c r="E54" s="373"/>
       <c r="F54" s="6" t="s">
         <v>137</v>
       </c>
@@ -10655,10 +10654,10 @@
         <v>135</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="455">
+      <c r="D55" s="454">
         <v>0</v>
       </c>
-      <c r="E55" s="386"/>
+      <c r="E55" s="373"/>
       <c r="F55" s="5" t="s">
         <v>138</v>
       </c>
@@ -10673,8 +10672,8 @@
         <v>139</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="449"/>
-      <c r="E57" s="449"/>
+      <c r="D57" s="448"/>
+      <c r="E57" s="448"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
@@ -10720,11 +10719,11 @@
         <v>140</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="453">
+      <c r="D60" s="452">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
         <v>12028358.899999999</v>
       </c>
-      <c r="E60" s="454"/>
+      <c r="E60" s="453"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
@@ -10733,7 +10732,7 @@
       <c r="E61" s="6"/>
     </row>
     <row r="62" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="291" t="s">
+      <c r="B62" s="290" t="s">
         <v>265</v>
       </c>
     </row>
@@ -10741,33 +10740,33 @@
       <c r="B63" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D63" s="370">
+      <c r="D63" s="422">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>0.13929550727694578</v>
       </c>
-      <c r="E63" s="371"/>
+      <c r="E63" s="423"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D64" s="451">
+      <c r="D64" s="450">
         <v>6.3399999999999998E-2</v>
       </c>
-      <c r="E64" s="452"/>
+      <c r="E64" s="451"/>
       <c r="F64" s="265" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="291" t="s">
+      <c r="B65" s="290" t="s">
         <v>269</v>
       </c>
-      <c r="D65" s="451">
+      <c r="D65" s="450">
         <f>D63</f>
         <v>0.13929550727694578</v>
       </c>
-      <c r="E65" s="452"/>
+      <c r="E65" s="451"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -10781,10 +10780,13 @@
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="D55:E55"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation allowBlank="1" sqref="D49" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F33:F35 F19:F20 F16" xr:uid="{DBDA56F9-BDA2-428A-9035-F60711F90E5E}">
       <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9" xr:uid="{2080BAF6-3681-4C16-8137-317C618C76FD}">
+      <formula1>"FY, Quarter"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -10802,8 +10804,8 @@
   </sheetPr>
   <dimension ref="A1:M914"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10836,22 +10838,22 @@
       <c r="B2" s="91" t="s">
         <v>249</v>
       </c>
-      <c r="C2" s="285" t="s">
+      <c r="C2" s="284" t="s">
         <v>263</v>
       </c>
-      <c r="D2" s="285"/>
-      <c r="E2" s="285">
+      <c r="D2" s="284"/>
+      <c r="E2" s="284">
         <v>1</v>
       </c>
-      <c r="F2" s="285"/>
-      <c r="G2" s="285">
+      <c r="F2" s="284"/>
+      <c r="G2" s="284">
         <v>2</v>
       </c>
       <c r="H2" s="12"/>
-      <c r="I2" s="285">
+      <c r="I2" s="284">
         <v>3</v>
       </c>
-      <c r="J2" s="285"/>
+      <c r="J2" s="284"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
     </row>
@@ -10860,102 +10862,102 @@
         <f>'FCFF Model'!B3</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="C3" s="277">
-        <f>Data!C3</f>
+      <c r="C3" s="276">
+        <f>Dashboard!E6</f>
         <v>44651</v>
       </c>
       <c r="D3" s="28" t="s">
         <v>251</v>
       </c>
-      <c r="E3" s="277">
+      <c r="E3" s="276">
         <f>EOMONTH(EDATE(C3,12),0)</f>
         <v>45016</v>
       </c>
       <c r="F3" s="28" t="s">
         <v>251</v>
       </c>
-      <c r="G3" s="277">
+      <c r="G3" s="276">
         <f>IF(G20="","",EOMONTH(EDATE(E3,12),0))</f>
         <v>45382</v>
       </c>
       <c r="H3" s="28"/>
-      <c r="I3" s="277">
+      <c r="I3" s="276">
         <f>IF(I27="","",EOMONTH(EDATE(G3,12),0))</f>
         <v>45747</v>
       </c>
-      <c r="J3" s="296"/>
+      <c r="J3" s="295"/>
       <c r="L3" s="72" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="348" t="s">
+      <c r="B4" s="347" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="293">
+      <c r="C4" s="292">
         <v>555600</v>
       </c>
       <c r="D4" s="259"/>
-      <c r="E4" s="293"/>
+      <c r="E4" s="292"/>
       <c r="F4" s="259"/>
       <c r="G4" s="221"/>
       <c r="H4" s="259"/>
       <c r="I4" s="221"/>
-      <c r="J4" s="349"/>
+      <c r="J4" s="348"/>
       <c r="K4" s="6"/>
       <c r="L4" s="74"/>
       <c r="M4" s="57"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="292" t="s">
+      <c r="B5" s="291" t="s">
         <v>315</v>
       </c>
-      <c r="C5" s="293">
+      <c r="C5" s="292">
         <v>375100</v>
       </c>
       <c r="D5" s="259"/>
-      <c r="E5" s="293"/>
+      <c r="E5" s="292"/>
       <c r="F5" s="259"/>
       <c r="G5" s="221"/>
       <c r="H5" s="259"/>
       <c r="I5" s="221"/>
-      <c r="J5" s="350"/>
+      <c r="J5" s="349"/>
       <c r="K5" s="6"/>
       <c r="L5" s="74"/>
       <c r="M5" s="57"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="292" t="s">
+      <c r="B6" s="291" t="s">
         <v>316</v>
       </c>
-      <c r="C6" s="293">
+      <c r="C6" s="292">
         <v>83900</v>
       </c>
       <c r="D6" s="259"/>
-      <c r="E6" s="293"/>
+      <c r="E6" s="292"/>
       <c r="F6" s="259"/>
       <c r="G6" s="221"/>
       <c r="H6" s="259"/>
       <c r="I6" s="221"/>
-      <c r="J6" s="350"/>
+      <c r="J6" s="349"/>
       <c r="K6" s="6"/>
       <c r="L6" s="74"/>
       <c r="M6" s="57"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="292" t="s">
+      <c r="B7" s="291" t="s">
         <v>317</v>
       </c>
-      <c r="C7" s="293">
+      <c r="C7" s="292">
         <v>10900</v>
       </c>
       <c r="D7" s="259"/>
-      <c r="E7" s="293"/>
+      <c r="E7" s="292"/>
       <c r="F7" s="259"/>
       <c r="G7" s="221"/>
       <c r="H7" s="259"/>
       <c r="I7" s="221"/>
-      <c r="J7" s="350"/>
+      <c r="J7" s="349"/>
       <c r="K7" s="6"/>
       <c r="L7" s="74"/>
       <c r="M7" s="57"/>
@@ -10964,7 +10966,7 @@
       <c r="B8" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="C8" s="351">
+      <c r="C8" s="350">
         <f>SUM(C4:C7)</f>
         <v>1025500</v>
       </c>
@@ -10972,7 +10974,7 @@
         <f>C8/C19</f>
         <v>0.4326091541868804</v>
       </c>
-      <c r="E8" s="351">
+      <c r="E8" s="350">
         <f>C8*0.8</f>
         <v>820400</v>
       </c>
@@ -10980,82 +10982,82 @@
         <f>E8/E19</f>
         <v>0.39607191669551273</v>
       </c>
-      <c r="G8" s="351"/>
+      <c r="G8" s="350"/>
       <c r="H8" s="259"/>
       <c r="I8" s="221"/>
-      <c r="J8" s="350"/>
+      <c r="J8" s="349"/>
       <c r="K8" s="6"/>
       <c r="L8" s="74"/>
       <c r="M8" s="57"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="348" t="s">
+      <c r="B9" s="347" t="s">
         <v>314</v>
       </c>
-      <c r="C9" s="293">
+      <c r="C9" s="292">
         <v>274900</v>
       </c>
       <c r="D9" s="259"/>
-      <c r="E9" s="293"/>
+      <c r="E9" s="292"/>
       <c r="F9" s="259"/>
       <c r="G9" s="221"/>
       <c r="H9" s="259"/>
       <c r="I9" s="221"/>
-      <c r="J9" s="350"/>
+      <c r="J9" s="349"/>
       <c r="K9" s="6"/>
       <c r="L9" s="74"/>
       <c r="M9" s="57"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="292" t="s">
+      <c r="B10" s="291" t="s">
         <v>315</v>
       </c>
-      <c r="C10" s="293">
+      <c r="C10" s="292">
         <v>93800</v>
       </c>
       <c r="D10" s="259"/>
-      <c r="E10" s="293"/>
+      <c r="E10" s="292"/>
       <c r="F10" s="259"/>
       <c r="G10" s="221"/>
       <c r="H10" s="259"/>
       <c r="I10" s="221"/>
-      <c r="J10" s="350"/>
+      <c r="J10" s="349"/>
       <c r="K10" s="6"/>
       <c r="L10" s="74"/>
       <c r="M10" s="57"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="292" t="s">
+      <c r="B11" s="291" t="s">
         <v>316</v>
       </c>
-      <c r="C11" s="293">
+      <c r="C11" s="292">
         <v>27700</v>
       </c>
       <c r="D11" s="259"/>
-      <c r="E11" s="293"/>
+      <c r="E11" s="292"/>
       <c r="F11" s="259"/>
       <c r="G11" s="221"/>
       <c r="H11" s="259"/>
       <c r="I11" s="221"/>
-      <c r="J11" s="350"/>
+      <c r="J11" s="349"/>
       <c r="K11" s="6"/>
       <c r="L11" s="74"/>
       <c r="M11" s="57"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="292" t="s">
+      <c r="B12" s="291" t="s">
         <v>317</v>
       </c>
-      <c r="C12" s="293">
+      <c r="C12" s="292">
         <v>10900</v>
       </c>
       <c r="D12" s="259"/>
-      <c r="E12" s="293"/>
+      <c r="E12" s="292"/>
       <c r="F12" s="259"/>
       <c r="G12" s="221"/>
       <c r="H12" s="259"/>
       <c r="I12" s="221"/>
-      <c r="J12" s="286"/>
+      <c r="J12" s="285"/>
       <c r="K12" s="6"/>
       <c r="L12" s="74"/>
       <c r="M12" s="57"/>
@@ -11064,7 +11066,7 @@
       <c r="B13" s="23" t="s">
         <v>319</v>
       </c>
-      <c r="C13" s="351">
+      <c r="C13" s="350">
         <f>SUM(C9:C12)</f>
         <v>407300</v>
       </c>
@@ -11072,7 +11074,7 @@
         <f>C13/C19</f>
         <v>0.17182029107783167</v>
       </c>
-      <c r="E13" s="351">
+      <c r="E13" s="350">
         <f>C13*0.7</f>
         <v>285110</v>
       </c>
@@ -11080,82 +11082,82 @@
         <f>E13/E19</f>
         <v>0.13764512941133306</v>
       </c>
-      <c r="G13" s="351"/>
+      <c r="G13" s="350"/>
       <c r="H13" s="259"/>
       <c r="I13" s="221"/>
-      <c r="J13" s="286"/>
+      <c r="J13" s="285"/>
       <c r="K13" s="6"/>
       <c r="L13" s="74"/>
       <c r="M13" s="57"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="348" t="s">
+      <c r="B14" s="347" t="s">
         <v>314</v>
       </c>
-      <c r="C14" s="293">
+      <c r="C14" s="292">
         <v>238000</v>
       </c>
       <c r="D14" s="259"/>
-      <c r="E14" s="293"/>
+      <c r="E14" s="292"/>
       <c r="F14" s="259"/>
       <c r="G14" s="221"/>
       <c r="H14" s="259"/>
       <c r="I14" s="221"/>
-      <c r="J14" s="286"/>
+      <c r="J14" s="285"/>
       <c r="K14" s="6"/>
       <c r="L14" s="74"/>
       <c r="M14" s="57"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="292" t="s">
+      <c r="B15" s="291" t="s">
         <v>315</v>
       </c>
-      <c r="C15" s="293">
+      <c r="C15" s="292">
         <v>556200</v>
       </c>
       <c r="D15" s="259"/>
-      <c r="E15" s="293"/>
+      <c r="E15" s="292"/>
       <c r="F15" s="259"/>
       <c r="G15" s="221"/>
       <c r="H15" s="259"/>
       <c r="I15" s="221"/>
-      <c r="J15" s="286"/>
+      <c r="J15" s="285"/>
       <c r="K15" s="6"/>
       <c r="L15" s="74"/>
       <c r="M15" s="57"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="292" t="s">
+      <c r="B16" s="291" t="s">
         <v>316</v>
       </c>
-      <c r="C16" s="293">
+      <c r="C16" s="292">
         <v>143400</v>
       </c>
       <c r="D16" s="259"/>
-      <c r="E16" s="293"/>
+      <c r="E16" s="292"/>
       <c r="F16" s="259"/>
       <c r="G16" s="221"/>
       <c r="H16" s="259"/>
       <c r="I16" s="221"/>
-      <c r="J16" s="286"/>
+      <c r="J16" s="285"/>
       <c r="K16" s="6"/>
       <c r="L16" s="74"/>
       <c r="M16" s="57"/>
     </row>
     <row r="17" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="292" t="s">
+      <c r="B17" s="291" t="s">
         <v>317</v>
       </c>
-      <c r="C17" s="293">
+      <c r="C17" s="292">
         <v>100</v>
       </c>
       <c r="D17" s="259"/>
-      <c r="E17" s="293"/>
+      <c r="E17" s="292"/>
       <c r="F17" s="259"/>
       <c r="G17" s="221"/>
       <c r="H17" s="259"/>
       <c r="I17" s="221"/>
-      <c r="J17" s="286"/>
+      <c r="J17" s="285"/>
       <c r="K17" s="6"/>
       <c r="L17" s="74"/>
       <c r="M17" s="57"/>
@@ -11164,7 +11166,7 @@
       <c r="B18" s="23" t="s">
         <v>320</v>
       </c>
-      <c r="C18" s="351">
+      <c r="C18" s="350">
         <f>SUM(C14:C17)</f>
         <v>937700</v>
       </c>
@@ -11172,7 +11174,7 @@
         <f>C18/C19</f>
         <v>0.3955705547352879</v>
       </c>
-      <c r="E18" s="351">
+      <c r="E18" s="350">
         <f>C18*1.03</f>
         <v>965831</v>
       </c>
@@ -11180,10 +11182,10 @@
         <f>E18/E19</f>
         <v>0.46628295389315422</v>
       </c>
-      <c r="G18" s="351"/>
+      <c r="G18" s="350"/>
       <c r="H18" s="259"/>
       <c r="I18" s="221"/>
-      <c r="J18" s="286"/>
+      <c r="J18" s="285"/>
       <c r="K18" s="6"/>
       <c r="L18" s="74"/>
       <c r="M18" s="57"/>
@@ -11211,7 +11213,7 @@
         <f>C19*1.05</f>
         <v>2489025</v>
       </c>
-      <c r="J19" s="287"/>
+      <c r="J19" s="286"/>
       <c r="K19" s="6"/>
       <c r="L19" s="74" t="s">
         <v>271</v>
@@ -11238,7 +11240,7 @@
         <f>I19/G19-1</f>
         <v>0.14442769201208283</v>
       </c>
-      <c r="J20" s="327"/>
+      <c r="J20" s="326"/>
       <c r="K20" s="6"/>
       <c r="L20" s="74"/>
       <c r="M20" s="57"/>
@@ -11257,16 +11259,16 @@
         <v>1418868.5850000002</v>
       </c>
       <c r="F21" s="261"/>
-      <c r="G21" s="281">
+      <c r="G21" s="280">
         <f>IF(G19="","",G19*(1-G22))</f>
         <v>1489812.0142500002</v>
       </c>
       <c r="H21" s="261"/>
-      <c r="I21" s="281">
+      <c r="I21" s="280">
         <f>IF(I19="","",I19*(1-I22))</f>
         <v>1749037.8674999999</v>
       </c>
-      <c r="J21" s="328"/>
+      <c r="J21" s="327"/>
       <c r="K21" s="6"/>
       <c r="L21" s="115"/>
       <c r="M21" s="1"/>
@@ -11292,7 +11294,7 @@
       <c r="I22" s="73">
         <v>0.29730000000000001</v>
       </c>
-      <c r="J22" s="329"/>
+      <c r="J22" s="328"/>
       <c r="K22" s="6"/>
       <c r="L22" s="74"/>
     </row>
@@ -11346,7 +11348,7 @@
         <f>I25/I19</f>
         <v>0.2060367303663081</v>
       </c>
-      <c r="J24" s="330"/>
+      <c r="J24" s="329"/>
       <c r="K24" s="6"/>
       <c r="L24" s="74"/>
     </row>
@@ -11373,7 +11375,7 @@
         <f>G25*1.03</f>
         <v>512830.57280000002</v>
       </c>
-      <c r="J25" s="331"/>
+      <c r="J25" s="330"/>
       <c r="K25" s="6"/>
       <c r="L25" s="74"/>
     </row>
@@ -11425,7 +11427,7 @@
         <f>IF(I20="","",IF(ABS(G28+I28)=ABS(G28)+ABS(I28),IF(I28&lt;0,-1,1)*(I28-G28)/G28,"Turn"))</f>
         <v>0.21342840940329758</v>
       </c>
-      <c r="J27" s="332"/>
+      <c r="J27" s="331"/>
       <c r="K27" s="6"/>
       <c r="L27" s="77"/>
       <c r="M27" s="78"/>
@@ -11434,103 +11436,103 @@
       <c r="B28" s="133" t="s">
         <v>247</v>
       </c>
-      <c r="C28" s="319">
+      <c r="C28" s="318">
         <f>C23-C25</f>
         <v>204300</v>
       </c>
-      <c r="D28" s="320"/>
-      <c r="E28" s="319">
+      <c r="D28" s="319"/>
+      <c r="E28" s="318">
         <f>E23-E25</f>
         <v>169080.4149999998</v>
       </c>
-      <c r="F28" s="320"/>
-      <c r="G28" s="319">
+      <c r="F28" s="319"/>
+      <c r="G28" s="318">
         <f>IF(G20="","",G23-G25)</f>
         <v>187202.27575000003</v>
       </c>
-      <c r="H28" s="320"/>
-      <c r="I28" s="319">
+      <c r="H28" s="319"/>
+      <c r="I28" s="318">
         <f>IF(I20="","",I23-I25)</f>
         <v>227156.55970000004</v>
       </c>
-      <c r="J28" s="333"/>
+      <c r="J28" s="332"/>
       <c r="K28" s="6"/>
       <c r="L28" s="79"/>
       <c r="M28" s="56"/>
     </row>
     <row r="29" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="315" t="s">
+      <c r="B29" s="314" t="s">
         <v>148</v>
       </c>
-      <c r="C29" s="316">
+      <c r="C29" s="315">
         <v>0.25</v>
       </c>
-      <c r="D29" s="317"/>
-      <c r="E29" s="318">
+      <c r="D29" s="316"/>
+      <c r="E29" s="317">
         <f>IF(E28="","",C29)</f>
         <v>0.25</v>
       </c>
-      <c r="F29" s="318"/>
-      <c r="G29" s="318">
+      <c r="F29" s="317"/>
+      <c r="G29" s="317">
         <f>IF(G28="","",E29)</f>
         <v>0.25</v>
       </c>
-      <c r="H29" s="318"/>
-      <c r="I29" s="318">
+      <c r="H29" s="317"/>
+      <c r="I29" s="317">
         <f>IF(I28="","",G29)</f>
         <v>0.25</v>
       </c>
-      <c r="J29" s="334"/>
+      <c r="J29" s="333"/>
     </row>
     <row r="30" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="324" t="s">
+      <c r="B30" s="323" t="s">
         <v>309</v>
       </c>
       <c r="C30" s="263">
         <f>C31/C21</f>
         <v>9.0058187375102863E-2</v>
       </c>
-      <c r="D30" s="326"/>
-      <c r="E30" s="325">
+      <c r="D30" s="325"/>
+      <c r="E30" s="324">
         <f>E31/E21</f>
         <v>8.9374246910963809E-2</v>
       </c>
-      <c r="F30" s="325"/>
-      <c r="G30" s="325">
+      <c r="F30" s="324"/>
+      <c r="G30" s="324">
         <f>IF(G21="","",G31/G21)</f>
         <v>9.4241223368829466E-2</v>
       </c>
-      <c r="H30" s="325"/>
-      <c r="I30" s="325">
+      <c r="H30" s="324"/>
+      <c r="I30" s="324">
         <f>IF(I21="","",I31/I21)</f>
         <v>9.7406364345053287E-2</v>
       </c>
-      <c r="J30" s="335"/>
+      <c r="J30" s="334"/>
     </row>
     <row r="31" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="321" t="s">
+      <c r="B31" s="320" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="322">
+      <c r="C31" s="321">
         <f>IF(C28&lt;=0,C28,C28*(1-C29))</f>
         <v>153225</v>
       </c>
-      <c r="D31" s="322"/>
-      <c r="E31" s="323">
+      <c r="D31" s="321"/>
+      <c r="E31" s="322">
         <f>IF(E28="","",IF(E28&lt;=0,E28,E28*(1-E29)))</f>
         <v>126810.31124999985</v>
       </c>
-      <c r="F31" s="322"/>
-      <c r="G31" s="323">
+      <c r="F31" s="321"/>
+      <c r="G31" s="322">
         <f>IF(G28="","",IF(G28&lt;=0,G28,G28*(1-G29)))</f>
         <v>140401.70681250002</v>
       </c>
-      <c r="H31" s="322"/>
-      <c r="I31" s="323">
+      <c r="H31" s="321"/>
+      <c r="I31" s="322">
         <f>IF(I28="","",IF(I28&lt;=0,I28,I28*(1-I29)))</f>
         <v>170367.41977500002</v>
       </c>
-      <c r="J31" s="336"/>
+      <c r="J31" s="335"/>
     </row>
     <row r="32" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12503,19 +12505,19 @@
       <c r="B2" s="91" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="285" t="s">
+      <c r="C2" s="284" t="s">
         <v>263</v>
       </c>
-      <c r="D2" s="285">
+      <c r="D2" s="284">
         <v>1</v>
       </c>
-      <c r="E2" s="285">
+      <c r="E2" s="284">
         <v>2</v>
       </c>
-      <c r="F2" s="285">
+      <c r="F2" s="284">
         <v>3</v>
       </c>
-      <c r="G2" s="285" t="str">
+      <c r="G2" s="284" t="str">
         <f>B24</f>
         <v>Exit after Year 3</v>
       </c>
@@ -12527,19 +12529,19 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!I11&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="C3" s="277">
+      <c r="C3" s="276">
         <f>Operation!C3</f>
         <v>44651</v>
       </c>
-      <c r="D3" s="277">
+      <c r="D3" s="276">
         <f>Operation!E3</f>
         <v>45016</v>
       </c>
-      <c r="E3" s="277">
+      <c r="E3" s="276">
         <f>Operation!G3</f>
         <v>45382</v>
       </c>
-      <c r="F3" s="277">
+      <c r="F3" s="276">
         <f>Operation!I3</f>
         <v>45747</v>
       </c>
@@ -12570,12 +12572,12 @@
         <f>Operation!I31</f>
         <v>170367.41977500002</v>
       </c>
-      <c r="G4" s="303">
+      <c r="G4" s="302">
         <f>IF(F3="",IF(E3="",1,2),3)</f>
         <v>3</v>
       </c>
       <c r="H4" s="6"/>
-      <c r="I4" s="352"/>
+      <c r="I4" s="351"/>
       <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12597,7 +12599,7 @@
       </c>
       <c r="G5" s="197"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="352"/>
+      <c r="I5" s="351"/>
       <c r="J5" s="56"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12613,36 +12615,36 @@
       <c r="E6" s="65">
         <v>0.38619999999999999</v>
       </c>
-      <c r="F6" s="308">
+      <c r="F6" s="307">
         <v>0.38619999999999999</v>
       </c>
       <c r="G6" s="198"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="353"/>
+      <c r="I6" s="352"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="81" t="s">
         <v>272</v>
       </c>
-      <c r="C7" s="309">
+      <c r="C7" s="308">
         <f>C4*C6</f>
         <v>59175.494999999995</v>
       </c>
-      <c r="D7" s="309">
+      <c r="D7" s="308">
         <f>D4*D6</f>
         <v>48974.142204749944</v>
       </c>
-      <c r="E7" s="310">
+      <c r="E7" s="309">
         <f>E4*E6</f>
         <v>54223.13917098751</v>
       </c>
-      <c r="F7" s="310">
+      <c r="F7" s="309">
         <f>F4*F6</f>
         <v>65795.897517105012</v>
       </c>
       <c r="G7" s="199"/>
       <c r="H7" s="82"/>
-      <c r="I7" s="352"/>
+      <c r="I7" s="351"/>
       <c r="J7" s="56"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
@@ -12670,7 +12672,7 @@
         <v>104571.52225789501</v>
       </c>
       <c r="H8" s="82"/>
-      <c r="I8" s="352"/>
+      <c r="I8" s="351"/>
       <c r="J8" s="56"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12681,62 +12683,62 @@
         <f>C8/(Common_Shares/Data!$C$4)</f>
         <v>0.37217554669135983</v>
       </c>
-      <c r="D9" s="305">
+      <c r="D9" s="304">
         <f>D8/(Common_Shares/Data!$C$4)</f>
         <v>0.30801564311026386</v>
       </c>
-      <c r="E9" s="305">
+      <c r="E9" s="304">
         <f>IF(E8="","",E8/(Common_Shares/Data!$C$4))</f>
         <v>0.34102843523799781</v>
       </c>
-      <c r="F9" s="305">
+      <c r="F9" s="304">
         <f>IF(F8="","",F8/(Common_Shares/Data!$C$4))</f>
         <v>0.41381359173213905</v>
       </c>
-      <c r="G9" s="306">
+      <c r="G9" s="305">
         <f>G8*Data!C$4/Dashboard!I5</f>
         <v>0.41381359173213905</v>
       </c>
       <c r="H9" s="82"/>
-      <c r="I9" s="352"/>
+      <c r="I9" s="351"/>
       <c r="J9" s="56"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="233" t="s">
         <v>248</v>
       </c>
-      <c r="C10" s="311">
+      <c r="C10" s="310">
         <f>C11/C9</f>
         <v>1.8270947837524503</v>
       </c>
-      <c r="D10" s="311">
+      <c r="D10" s="310">
         <f>D11/D9</f>
         <v>1.5258965267285101</v>
       </c>
-      <c r="E10" s="342"/>
-      <c r="F10" s="342"/>
+      <c r="E10" s="341"/>
+      <c r="F10" s="341"/>
       <c r="G10" s="234"/>
       <c r="H10" s="82"/>
-      <c r="I10" s="352"/>
+      <c r="I10" s="351"/>
       <c r="J10" s="56"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="233" t="s">
         <v>262</v>
       </c>
-      <c r="C11" s="283">
+      <c r="C11" s="282">
         <f>0.51+0.17</f>
         <v>0.68</v>
       </c>
-      <c r="D11" s="284">
+      <c r="D11" s="283">
         <f>0.17+0.3</f>
         <v>0.47</v>
       </c>
-      <c r="E11" s="343"/>
-      <c r="F11" s="343"/>
-      <c r="G11" s="282"/>
+      <c r="E11" s="342"/>
+      <c r="F11" s="342"/>
+      <c r="G11" s="281"/>
       <c r="H11" s="82"/>
-      <c r="I11" s="352" t="s">
+      <c r="I11" s="351" t="s">
         <v>323</v>
       </c>
       <c r="J11" s="56"/>
@@ -12752,14 +12754,14 @@
         <f>0.36</f>
         <v>0.36</v>
       </c>
-      <c r="E12" s="344"/>
-      <c r="F12" s="344"/>
+      <c r="E12" s="343"/>
+      <c r="F12" s="343"/>
       <c r="G12" s="229">
         <f>G9*D26</f>
         <v>6.6210174677142248</v>
       </c>
       <c r="H12" s="82"/>
-      <c r="I12" s="352"/>
+      <c r="I12" s="351"/>
       <c r="J12" s="56"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12784,7 +12786,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="H13" s="62"/>
-      <c r="I13" s="353"/>
+      <c r="I13" s="352"/>
       <c r="J13" s="57"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -12809,7 +12811,7 @@
         <v>1.4429198786560005</v>
       </c>
       <c r="H14" s="62"/>
-      <c r="I14" s="353"/>
+      <c r="I14" s="352"/>
       <c r="J14" s="57"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
@@ -12837,7 +12839,7 @@
         <v>4.5886244729550292</v>
       </c>
       <c r="H15" s="80"/>
-      <c r="I15" s="352"/>
+      <c r="I15" s="351"/>
       <c r="J15" s="56"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12912,7 +12914,7 @@
         <f>C20/(Dashboard!I5/Data!C4)</f>
         <v>-1.0783452445964021</v>
       </c>
-      <c r="E20" s="458" t="str">
+      <c r="E20" s="457" t="str">
         <f>IF(F21+G21=G19,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -12936,7 +12938,7 @@
         <f>C21/(Dashboard!I5/Data!C4)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="458"/>
+      <c r="E21" s="457"/>
       <c r="F21" s="147">
         <f>D18</f>
         <v>0.40878188538278287</v>
@@ -12959,11 +12961,11 @@
         <f>B3</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="E23" s="461" t="s">
+      <c r="E23" s="460" t="s">
         <v>231</v>
       </c>
-      <c r="F23" s="461"/>
-      <c r="G23" s="461"/>
+      <c r="F23" s="460"/>
+      <c r="G23" s="460"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="126" t="str">
@@ -12976,7 +12978,7 @@
       <c r="D24" s="201" t="s">
         <v>220</v>
       </c>
-      <c r="E24" s="304" t="s">
+      <c r="E24" s="303" t="s">
         <v>228</v>
       </c>
       <c r="F24" s="264" t="s">
@@ -12997,14 +12999,14 @@
         <f>1/D25</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D25" s="297">
+      <c r="D25" s="296">
         <v>12</v>
       </c>
       <c r="E25" s="205">
         <f ca="1">G9*D25/G14</f>
         <v>3.4414683547162719</v>
       </c>
-      <c r="F25" s="459">
+      <c r="F25" s="458">
         <f ca="1">SUM(C15:F15)</f>
         <v>0.92669060433677242</v>
       </c>
@@ -13017,21 +13019,21 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="301" t="s">
+      <c r="B26" s="300" t="s">
         <v>304</v>
       </c>
-      <c r="C26" s="302">
+      <c r="C26" s="301">
         <f t="shared" ref="C26" si="0">1/D26</f>
         <v>6.25E-2</v>
       </c>
-      <c r="D26" s="314">
+      <c r="D26" s="313">
         <v>16</v>
       </c>
       <c r="E26" s="206">
         <f ca="1">G9*D26/G14</f>
         <v>4.5886244729550292</v>
       </c>
-      <c r="F26" s="460"/>
+      <c r="F26" s="459"/>
       <c r="G26" s="206">
         <f ca="1">$F$25+E26+$G$19</f>
         <v>4.8588897225261096</v>
@@ -13040,8 +13042,8 @@
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="30"/>
-      <c r="C27" s="366"/>
-      <c r="D27" s="367"/>
+      <c r="C27" s="365"/>
+      <c r="D27" s="366"/>
       <c r="E27" s="122"/>
       <c r="F27" s="123"/>
       <c r="G27" s="122"/>
@@ -13094,7 +13096,7 @@
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="71"/>
-      <c r="C31" s="368"/>
+      <c r="C31" s="367"/>
       <c r="D31" s="23"/>
       <c r="E31" s="122"/>
       <c r="F31" s="30"/>
@@ -13102,10 +13104,10 @@
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="456" t="s">
+      <c r="C32" s="455" t="s">
         <v>153</v>
       </c>
-      <c r="D32" s="457"/>
+      <c r="D32" s="456"/>
       <c r="E32" s="30" t="s">
         <v>219</v>
       </c>
@@ -13159,7 +13161,7 @@
         <f ca="1">C34/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
         <v>2.0902730709081552</v>
       </c>
-      <c r="G34" s="280">
+      <c r="G34" s="279">
         <f>Dashboard!D10+4.5%</f>
         <v>7.3999999999999996E-2</v>
       </c>
@@ -14214,7 +14216,7 @@
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
       <c r="E10" s="12"/>
-      <c r="G10" s="294"/>
+      <c r="G10" s="293"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="98" t="s">
@@ -14222,7 +14224,7 @@
       </c>
       <c r="C11" s="92"/>
       <c r="E11" s="6"/>
-      <c r="G11" s="294"/>
+      <c r="G11" s="293"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="53" t="s">
@@ -14236,7 +14238,7 @@
         <v>178</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="294" t="s">
+      <c r="G12" s="293" t="s">
         <v>286</v>
       </c>
     </row>
@@ -14252,7 +14254,7 @@
         <v>156</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="294"/>
+      <c r="G13" s="293"/>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="53" t="s">
@@ -14266,7 +14268,7 @@
         <v>156</v>
       </c>
       <c r="F14" s="6"/>
-      <c r="G14" s="294"/>
+      <c r="G14" s="293"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="53" t="s">
@@ -14280,7 +14282,7 @@
         <v>178</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="294"/>
+      <c r="G15" s="293"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="53" t="s">
@@ -14294,7 +14296,7 @@
         <v>165</v>
       </c>
       <c r="F16" s="6"/>
-      <c r="G16" s="294"/>
+      <c r="G16" s="293"/>
     </row>
     <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="98" t="s">
@@ -14302,7 +14304,7 @@
       </c>
       <c r="D17" s="38"/>
       <c r="E17" s="23"/>
-      <c r="G17" s="294"/>
+      <c r="G17" s="293"/>
     </row>
     <row r="18" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="53" t="s">
@@ -14317,7 +14319,7 @@
         <v>disagree</v>
       </c>
       <c r="F18" s="6"/>
-      <c r="G18" s="294"/>
+      <c r="G18" s="293"/>
     </row>
     <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="53" t="s">
@@ -14331,7 +14333,7 @@
         <v>156</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="294"/>
+      <c r="G19" s="293"/>
     </row>
     <row r="20" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="53" t="s">
@@ -14345,7 +14347,7 @@
         <v>163</v>
       </c>
       <c r="F20" s="6"/>
-      <c r="G20" s="294"/>
+      <c r="G20" s="293"/>
     </row>
     <row r="21" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="53" t="s">
@@ -14359,7 +14361,7 @@
         <v>156</v>
       </c>
       <c r="F21" s="6"/>
-      <c r="G21" s="294"/>
+      <c r="G21" s="293"/>
     </row>
     <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="53" t="s">
@@ -14373,7 +14375,7 @@
         <v>163</v>
       </c>
       <c r="F22" s="6"/>
-      <c r="G22" s="294"/>
+      <c r="G22" s="293"/>
     </row>
     <row r="23" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="98" t="s">
@@ -14381,7 +14383,7 @@
       </c>
       <c r="D23" s="38"/>
       <c r="E23" s="23"/>
-      <c r="G23" s="294"/>
+      <c r="G23" s="293"/>
     </row>
     <row r="24" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="53" t="s">
@@ -14395,7 +14397,7 @@
         <v>165</v>
       </c>
       <c r="F24" s="6"/>
-      <c r="G24" s="294"/>
+      <c r="G24" s="293"/>
     </row>
     <row r="25" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="53" t="s">
@@ -14409,7 +14411,7 @@
         <v>156</v>
       </c>
       <c r="F25" s="6"/>
-      <c r="G25" s="294"/>
+      <c r="G25" s="293"/>
     </row>
     <row r="26" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="53" t="s">
@@ -14423,7 +14425,7 @@
         <v>156</v>
       </c>
       <c r="F26" s="6"/>
-      <c r="G26" s="294"/>
+      <c r="G26" s="293"/>
     </row>
     <row r="27" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="53" t="s">
@@ -14437,7 +14439,7 @@
         <v>165</v>
       </c>
       <c r="F27" s="6"/>
-      <c r="G27" s="294"/>
+      <c r="G27" s="293"/>
     </row>
     <row r="28" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="53" t="s">
@@ -14451,7 +14453,7 @@
         <v>156</v>
       </c>
       <c r="F28" s="6"/>
-      <c r="G28" s="294"/>
+      <c r="G28" s="293"/>
     </row>
     <row r="29" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="98" t="s">
@@ -14459,7 +14461,7 @@
       </c>
       <c r="D29" s="38"/>
       <c r="E29" s="23"/>
-      <c r="G29" s="294"/>
+      <c r="G29" s="293"/>
     </row>
     <row r="30" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
@@ -14474,7 +14476,7 @@
         <v>Low</v>
       </c>
       <c r="F30" s="6"/>
-      <c r="G30" s="294"/>
+      <c r="G30" s="293"/>
     </row>
     <row r="31" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="53" t="s">
@@ -14488,7 +14490,7 @@
         <v>178</v>
       </c>
       <c r="F31" s="6"/>
-      <c r="G31" s="294"/>
+      <c r="G31" s="293"/>
     </row>
     <row r="32" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="53" t="s">
@@ -14502,7 +14504,7 @@
         <v>165</v>
       </c>
       <c r="F32" s="6"/>
-      <c r="G32" s="294"/>
+      <c r="G32" s="293"/>
     </row>
     <row r="33" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="53" t="s">
@@ -14516,7 +14518,7 @@
         <v>163</v>
       </c>
       <c r="F33" s="6"/>
-      <c r="G33" s="294"/>
+      <c r="G33" s="293"/>
     </row>
     <row r="34" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="53" t="s">
@@ -14530,7 +14532,7 @@
         <v>163</v>
       </c>
       <c r="F34" s="6"/>
-      <c r="G34" s="294"/>
+      <c r="G34" s="293"/>
     </row>
     <row r="35" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="53" t="s">
@@ -14543,7 +14545,7 @@
       <c r="E35" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="G35" s="294"/>
+      <c r="G35" s="293"/>
     </row>
     <row r="36" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
@@ -14558,7 +14560,7 @@
         <v>Very Low</v>
       </c>
       <c r="F36" s="6"/>
-      <c r="G36" s="294"/>
+      <c r="G36" s="293"/>
     </row>
     <row r="37" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="53" t="s">
@@ -14572,7 +14574,7 @@
         <v>178</v>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="294"/>
+      <c r="G37" s="293"/>
     </row>
     <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="53" t="s">
@@ -14586,7 +14588,7 @@
         <v>178</v>
       </c>
       <c r="F38" s="6"/>
-      <c r="G38" s="294"/>
+      <c r="G38" s="293"/>
     </row>
     <row r="39" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="53" t="s">
@@ -14600,7 +14602,7 @@
         <v>178</v>
       </c>
       <c r="F39" s="6"/>
-      <c r="G39" s="294"/>
+      <c r="G39" s="293"/>
     </row>
     <row r="40" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="53" t="s">
@@ -14614,7 +14616,7 @@
         <v>165</v>
       </c>
       <c r="F40" s="6"/>
-      <c r="G40" s="294"/>
+      <c r="G40" s="293"/>
     </row>
     <row r="41" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="53" t="s">
@@ -14627,7 +14629,7 @@
       <c r="E41" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="G41" s="294"/>
+      <c r="G41" s="293"/>
     </row>
     <row r="42" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
@@ -14642,7 +14644,7 @@
         <v>Low</v>
       </c>
       <c r="F42" s="6"/>
-      <c r="G42" s="294"/>
+      <c r="G42" s="293"/>
     </row>
     <row r="43" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="53" t="s">
@@ -14656,7 +14658,7 @@
         <v>178</v>
       </c>
       <c r="F43" s="6"/>
-      <c r="G43" s="294"/>
+      <c r="G43" s="293"/>
     </row>
     <row r="44" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="53" t="s">
@@ -14670,7 +14672,7 @@
         <v>163</v>
       </c>
       <c r="F44" s="6"/>
-      <c r="G44" s="294"/>
+      <c r="G44" s="293"/>
     </row>
     <row r="45" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="53" t="s">
@@ -14684,7 +14686,7 @@
         <v>165</v>
       </c>
       <c r="F45" s="6"/>
-      <c r="G45" s="294"/>
+      <c r="G45" s="293"/>
     </row>
     <row r="46" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="53" t="s">
@@ -14698,7 +14700,7 @@
         <v>178</v>
       </c>
       <c r="F46" s="6"/>
-      <c r="G46" s="294"/>
+      <c r="G46" s="293"/>
     </row>
     <row r="47" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="53" t="s">
@@ -14712,7 +14714,7 @@
         <v>178</v>
       </c>
       <c r="F47" s="6"/>
-      <c r="G47" s="294"/>
+      <c r="G47" s="293"/>
     </row>
     <row r="48" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="53" t="s">
@@ -14726,7 +14728,7 @@
         <v>163</v>
       </c>
       <c r="F48" s="6"/>
-      <c r="G48" s="294"/>
+      <c r="G48" s="293"/>
     </row>
     <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
@@ -14741,7 +14743,7 @@
         <v>Low</v>
       </c>
       <c r="F49" s="6"/>
-      <c r="G49" s="294"/>
+      <c r="G49" s="293"/>
     </row>
     <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="53" t="s">
@@ -14754,7 +14756,7 @@
       <c r="E50" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="G50" s="294"/>
+      <c r="G50" s="293"/>
     </row>
     <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="53" t="s">
@@ -14768,7 +14770,7 @@
         <v>178</v>
       </c>
       <c r="F51" s="6"/>
-      <c r="G51" s="294"/>
+      <c r="G51" s="293"/>
     </row>
     <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="53" t="s">
@@ -14781,7 +14783,7 @@
       <c r="E52" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="G52" s="294"/>
+      <c r="G52" s="293"/>
     </row>
     <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="53" t="s">
@@ -14795,7 +14797,7 @@
         <v>165</v>
       </c>
       <c r="F53" s="53"/>
-      <c r="G53" s="294"/>
+      <c r="G53" s="293"/>
       <c r="H53" s="53"/>
     </row>
     <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14810,7 +14812,7 @@
         <v>321</v>
       </c>
       <c r="F54" s="53"/>
-      <c r="G54" s="294"/>
+      <c r="G54" s="293"/>
       <c r="H54" s="53"/>
     </row>
     <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14826,7 +14828,7 @@
         <v>High</v>
       </c>
       <c r="F55" s="53"/>
-      <c r="G55" s="294"/>
+      <c r="G55" s="293"/>
       <c r="H55" s="53"/>
     </row>
     <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14841,7 +14843,7 @@
         <v>156</v>
       </c>
       <c r="F56" s="53"/>
-      <c r="G56" s="294"/>
+      <c r="G56" s="293"/>
       <c r="H56" s="53"/>
     </row>
     <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14856,7 +14858,7 @@
         <v>155</v>
       </c>
       <c r="F57" s="53"/>
-      <c r="G57" s="294"/>
+      <c r="G57" s="293"/>
       <c r="H57" s="53"/>
     </row>
     <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14871,7 +14873,7 @@
         <v>155</v>
       </c>
       <c r="F58" s="53"/>
-      <c r="G58" s="294"/>
+      <c r="G58" s="293"/>
       <c r="H58" s="53"/>
     </row>
     <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14886,7 +14888,7 @@
         <v>165</v>
       </c>
       <c r="F59" s="53"/>
-      <c r="G59" s="294"/>
+      <c r="G59" s="293"/>
       <c r="H59" s="53"/>
     </row>
     <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14901,7 +14903,7 @@
         <v>165</v>
       </c>
       <c r="F60" s="53"/>
-      <c r="G60" s="294"/>
+      <c r="G60" s="293"/>
       <c r="H60" s="53"/>
     </row>
     <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14916,7 +14918,7 @@
         <v>277</v>
       </c>
       <c r="F61" s="53"/>
-      <c r="G61" s="294"/>
+      <c r="G61" s="293"/>
       <c r="H61" s="53"/>
     </row>
     <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14932,12 +14934,12 @@
         <v>Low</v>
       </c>
       <c r="F62" s="53"/>
-      <c r="G62" s="294"/>
+      <c r="G62" s="293"/>
       <c r="H62" s="53"/>
     </row>
     <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D63" s="6"/>
-      <c r="G63" s="294"/>
+      <c r="G63" s="293"/>
     </row>
     <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="96" t="s">
@@ -14951,10 +14953,10 @@
         <f>AVERAGE(AVERAGE(D12:D16)/4,AVERAGE(D18:D22)/4,AVERAGE(D24:D28)/4,D62)</f>
         <v>0.60380102040816319</v>
       </c>
-      <c r="G64" s="294"/>
+      <c r="G64" s="293"/>
     </row>
     <row r="65" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G65" s="295"/>
+      <c r="G65" s="294"/>
     </row>
     <row r="66" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="54" t="s">
